--- a/models/Master.xlsx
+++ b/models/Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="11805" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="11805" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Beskrivning" sheetId="19" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="697">
   <si>
     <t>Drivmedelspris</t>
   </si>
@@ -3511,6 +3511,9 @@
   </si>
   <si>
     <t>Fuel cost share</t>
+  </si>
+  <si>
+    <t>Total tax revenues [B SEK / year]</t>
   </si>
 </sst>
 </file>
@@ -6750,6 +6753,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6759,6 +6764,36 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6774,12 +6809,6 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6792,30 +6821,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6834,6 +6839,36 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6849,36 +6884,6 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6897,6 +6902,36 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6915,36 +6950,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6963,26 +6968,32 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6990,12 +7001,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7026,6 +7031,15 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7035,17 +7049,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Beräkning 2" xfId="13"/>
@@ -7138,7 +7141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7444,7 +7446,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7635,7 +7636,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7941,7 +7941,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8132,7 +8131,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8438,7 +8436,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8629,7 +8626,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8935,7 +8931,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12059,17 +12054,17 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="308.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="767" t="s">
+      <c r="A3" s="769" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="767"/>
-      <c r="C3" s="767"/>
-      <c r="D3" s="767"/>
-      <c r="E3" s="767"/>
-      <c r="F3" s="767"/>
-      <c r="G3" s="767"/>
-      <c r="H3" s="767"/>
-      <c r="I3" s="767"/>
+      <c r="B3" s="769"/>
+      <c r="C3" s="769"/>
+      <c r="D3" s="769"/>
+      <c r="E3" s="769"/>
+      <c r="F3" s="769"/>
+      <c r="G3" s="769"/>
+      <c r="H3" s="769"/>
+      <c r="I3" s="769"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13104,40 +13099,40 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="834" t="s">
+      <c r="A3" s="836" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="834"/>
-      <c r="C3" s="834"/>
-      <c r="D3" s="834"/>
+      <c r="B3" s="836"/>
+      <c r="C3" s="836"/>
+      <c r="D3" s="836"/>
       <c r="E3" s="80"/>
-      <c r="F3" s="834" t="s">
+      <c r="F3" s="836" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="834"/>
-      <c r="H3" s="834"/>
-      <c r="I3" s="834"/>
-      <c r="M3" s="834" t="s">
+      <c r="G3" s="836"/>
+      <c r="H3" s="836"/>
+      <c r="I3" s="836"/>
+      <c r="M3" s="836" t="s">
         <v>305</v>
       </c>
-      <c r="N3" s="835"/>
-      <c r="O3" s="835"/>
-      <c r="P3" s="835"/>
+      <c r="N3" s="837"/>
+      <c r="O3" s="837"/>
+      <c r="P3" s="837"/>
     </row>
     <row r="4" spans="1:16" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="836" t="s">
+      <c r="A4" s="838" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="836"/>
-      <c r="C4" s="836"/>
-      <c r="D4" s="836"/>
+      <c r="B4" s="838"/>
+      <c r="C4" s="838"/>
+      <c r="D4" s="838"/>
       <c r="E4" s="171"/>
-      <c r="F4" s="836" t="s">
+      <c r="F4" s="838" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="836"/>
-      <c r="H4" s="836"/>
-      <c r="I4" s="836"/>
+      <c r="G4" s="838"/>
+      <c r="H4" s="838"/>
+      <c r="I4" s="838"/>
       <c r="K4" s="61" t="s">
         <v>63</v>
       </c>
@@ -13149,19 +13144,19 @@
       <c r="P4" s="346"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="837" t="s">
+      <c r="A5" s="839" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="837"/>
-      <c r="C5" s="837"/>
-      <c r="D5" s="837"/>
+      <c r="B5" s="839"/>
+      <c r="C5" s="839"/>
+      <c r="D5" s="839"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="837" t="s">
+      <c r="F5" s="839" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="837"/>
-      <c r="H5" s="837"/>
-      <c r="I5" s="837"/>
+      <c r="G5" s="839"/>
+      <c r="H5" s="839"/>
+      <c r="I5" s="839"/>
       <c r="K5" s="59" t="s">
         <v>61</v>
       </c>
@@ -13378,12 +13373,12 @@
       <c r="K11" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="M11" s="834" t="s">
+      <c r="M11" s="836" t="s">
         <v>330</v>
       </c>
-      <c r="N11" s="835"/>
-      <c r="O11" s="835"/>
-      <c r="P11" s="835"/>
+      <c r="N11" s="837"/>
+      <c r="O11" s="837"/>
+      <c r="P11" s="837"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
@@ -13628,12 +13623,12 @@
       <c r="G19" s="174"/>
       <c r="H19" s="174"/>
       <c r="I19" s="174"/>
-      <c r="M19" s="834" t="s">
+      <c r="M19" s="836" t="s">
         <v>329</v>
       </c>
-      <c r="N19" s="835"/>
-      <c r="O19" s="835"/>
-      <c r="P19" s="835"/>
+      <c r="N19" s="837"/>
+      <c r="O19" s="837"/>
+      <c r="P19" s="837"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
@@ -14252,10 +14247,10 @@
   </sheetPr>
   <dimension ref="A1:I277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <selection pane="topRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14269,28 +14264,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="838" t="s">
+      <c r="A1" s="842" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="840" t="s">
+      <c r="B1" s="846" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="840"/>
-      <c r="D1" s="840" t="s">
+      <c r="C1" s="846"/>
+      <c r="D1" s="846" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="840"/>
-      <c r="F1" s="840"/>
-      <c r="G1" s="840"/>
-      <c r="H1" s="841" t="s">
+      <c r="E1" s="846"/>
+      <c r="F1" s="846"/>
+      <c r="G1" s="846"/>
+      <c r="H1" s="840" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="843" t="s">
+      <c r="I1" s="844" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="839"/>
+      <c r="A2" s="843"/>
       <c r="B2" s="593">
         <v>2030</v>
       </c>
@@ -14309,8 +14304,8 @@
       <c r="G2" s="593" t="s">
         <v>471</v>
       </c>
-      <c r="H2" s="842"/>
-      <c r="I2" s="844"/>
+      <c r="H2" s="841"/>
+      <c r="I2" s="845"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="594" t="s">
@@ -14597,20 +14592,20 @@
       <c r="A17" s="611" t="s">
         <v>423</v>
       </c>
-      <c r="B17" s="841" t="s">
+      <c r="B17" s="840" t="s">
         <v>424</v>
       </c>
-      <c r="C17" s="843"/>
+      <c r="C17" s="844"/>
       <c r="D17" s="847" t="s">
         <v>403</v>
       </c>
       <c r="E17" s="848"/>
       <c r="F17" s="612"/>
       <c r="G17" s="594"/>
-      <c r="H17" s="841" t="s">
+      <c r="H17" s="840" t="s">
         <v>405</v>
       </c>
-      <c r="I17" s="843" t="s">
+      <c r="I17" s="844" t="s">
         <v>420</v>
       </c>
     </row>
@@ -14630,8 +14625,8 @@
       </c>
       <c r="F18" s="592"/>
       <c r="G18" s="607"/>
-      <c r="H18" s="842"/>
-      <c r="I18" s="844"/>
+      <c r="H18" s="841"/>
+      <c r="I18" s="845"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="595" t="s">
@@ -14800,16 +14795,16 @@
         <v>432</v>
       </c>
       <c r="C30" s="848"/>
-      <c r="D30" s="849" t="s">
+      <c r="D30" s="851" t="s">
         <v>431</v>
       </c>
-      <c r="E30" s="850"/>
+      <c r="E30" s="852"/>
       <c r="F30" s="612"/>
       <c r="G30" s="594"/>
-      <c r="H30" s="841" t="s">
+      <c r="H30" s="840" t="s">
         <v>405</v>
       </c>
-      <c r="I30" s="843" t="s">
+      <c r="I30" s="844" t="s">
         <v>420</v>
       </c>
     </row>
@@ -14829,8 +14824,8 @@
       </c>
       <c r="F31" s="592"/>
       <c r="G31" s="607"/>
-      <c r="H31" s="842"/>
-      <c r="I31" s="844"/>
+      <c r="H31" s="841"/>
+      <c r="I31" s="845"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="595" t="s">
@@ -15429,9 +15424,17 @@
       <c r="I58" s="595"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="595"/>
-      <c r="B59" s="596"/>
-      <c r="C59" s="595"/>
+      <c r="A59" s="595" t="s">
+        <v>696</v>
+      </c>
+      <c r="B59" s="602">
+        <f>Resultat!F78</f>
+        <v>39.576689794488466</v>
+      </c>
+      <c r="C59" s="602">
+        <f>Resultat!G78</f>
+        <v>25.083524522303286</v>
+      </c>
       <c r="D59" s="601"/>
       <c r="G59" s="595"/>
       <c r="I59" s="595"/>
@@ -15447,13 +15450,13 @@
       <c r="D60" s="847" t="s">
         <v>403</v>
       </c>
-      <c r="E60" s="851"/>
-      <c r="F60" s="851"/>
+      <c r="E60" s="853"/>
+      <c r="F60" s="853"/>
       <c r="G60" s="848"/>
-      <c r="H60" s="845" t="s">
+      <c r="H60" s="849" t="s">
         <v>405</v>
       </c>
-      <c r="I60" s="843" t="s">
+      <c r="I60" s="844" t="s">
         <v>420</v>
       </c>
     </row>
@@ -15477,8 +15480,8 @@
       <c r="G61" s="609" t="s">
         <v>471</v>
       </c>
-      <c r="H61" s="846"/>
-      <c r="I61" s="844"/>
+      <c r="H61" s="850"/>
+      <c r="I61" s="845"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="595" t="s">
@@ -15857,7 +15860,7 @@
         <v>693</v>
       </c>
       <c r="B76" s="596"/>
-      <c r="C76" s="865">
+      <c r="C76" s="767">
         <v>0.25</v>
       </c>
       <c r="D76" s="596"/>
@@ -15869,7 +15872,7 @@
         <v>694</v>
       </c>
       <c r="B77" s="596"/>
-      <c r="C77" s="865">
+      <c r="C77" s="767">
         <v>0.2</v>
       </c>
       <c r="D77" s="596"/>
@@ -15885,23 +15888,23 @@
       <c r="I78" s="595"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="838" t="s">
+      <c r="A79" s="842" t="s">
         <v>408</v>
       </c>
-      <c r="B79" s="840" t="s">
+      <c r="B79" s="846" t="s">
         <v>424</v>
       </c>
-      <c r="C79" s="840"/>
-      <c r="D79" s="840" t="s">
+      <c r="C79" s="846"/>
+      <c r="D79" s="846" t="s">
         <v>403</v>
       </c>
-      <c r="E79" s="840"/>
-      <c r="F79" s="840"/>
-      <c r="G79" s="840"/>
+      <c r="E79" s="846"/>
+      <c r="F79" s="846"/>
+      <c r="G79" s="846"/>
       <c r="I79" s="595"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="839"/>
+      <c r="A80" s="843"/>
       <c r="B80" s="593">
         <v>2030</v>
       </c>
@@ -17502,15 +17505,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="D79:G79"/>
@@ -17522,6 +17516,15 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17592,13 +17595,13 @@
       <c r="O3" s="118"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="784" t="s">
+      <c r="A4" s="775" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="857" t="s">
+      <c r="B4" s="859" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="858"/>
+      <c r="C4" s="860"/>
       <c r="D4" s="740">
         <f>EMA!B19</f>
         <v>7.0000000000000007E-2</v>
@@ -17621,11 +17624,11 @@
       <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="854"/>
-      <c r="B5" s="852" t="s">
+      <c r="A5" s="856"/>
+      <c r="B5" s="854" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="853"/>
+      <c r="C5" s="855"/>
       <c r="D5" s="741">
         <f>EMA!B24</f>
         <v>-0.05</v>
@@ -17648,11 +17651,11 @@
       <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="854"/>
-      <c r="B6" s="852" t="s">
+      <c r="A6" s="856"/>
+      <c r="B6" s="854" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="853"/>
+      <c r="C6" s="855"/>
       <c r="D6" s="741">
         <v>0</v>
       </c>
@@ -17673,11 +17676,11 @@
       <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="854"/>
-      <c r="B7" s="852" t="s">
+      <c r="A7" s="856"/>
+      <c r="B7" s="854" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="853"/>
+      <c r="C7" s="855"/>
       <c r="D7" s="741">
         <f>EMA!B20</f>
         <v>-0.1</v>
@@ -17700,11 +17703,11 @@
       <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="854"/>
-      <c r="B8" s="852" t="s">
+      <c r="A8" s="856"/>
+      <c r="B8" s="854" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="853"/>
+      <c r="C8" s="855"/>
       <c r="D8" s="741">
         <f>EMA!B21</f>
         <v>-0.2</v>
@@ -17727,11 +17730,11 @@
       <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="854"/>
-      <c r="B9" s="852" t="s">
+      <c r="A9" s="856"/>
+      <c r="B9" s="854" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="853"/>
+      <c r="C9" s="855"/>
       <c r="D9" s="742">
         <f>EMA!B22</f>
         <v>-0.22</v>
@@ -17754,11 +17757,11 @@
       <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="788"/>
-      <c r="B10" s="855" t="s">
+      <c r="A10" s="776"/>
+      <c r="B10" s="857" t="s">
         <v>674</v>
       </c>
-      <c r="C10" s="856"/>
+      <c r="C10" s="858"/>
       <c r="D10" s="745">
         <f>EMA!B23</f>
         <v>0</v>
@@ -17781,7 +17784,7 @@
       <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="776" t="s">
+      <c r="A11" s="777" t="s">
         <v>260</v>
       </c>
       <c r="B11" s="711" t="s">
@@ -17810,7 +17813,7 @@
       <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="776"/>
+      <c r="A12" s="777"/>
       <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
@@ -17837,7 +17840,7 @@
       <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="776" t="s">
+      <c r="A13" s="777" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -17866,7 +17869,7 @@
       <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="775" t="s">
+      <c r="A14" s="778" t="s">
         <v>261</v>
       </c>
       <c r="B14" s="102" t="s">
@@ -17895,7 +17898,7 @@
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="776"/>
+      <c r="A15" s="777"/>
       <c r="B15" s="38" t="s">
         <v>281</v>
       </c>
@@ -17922,7 +17925,7 @@
       <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="776" t="s">
+      <c r="A16" s="777" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -17951,7 +17954,7 @@
       <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="775" t="s">
+      <c r="A17" s="778" t="s">
         <v>267</v>
       </c>
       <c r="B17" s="102" t="s">
@@ -17980,7 +17983,7 @@
       <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="776"/>
+      <c r="A18" s="777"/>
       <c r="B18" s="38" t="s">
         <v>281</v>
       </c>
@@ -18007,7 +18010,7 @@
       <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="781" t="s">
+      <c r="A19" s="779" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="103" t="s">
@@ -18036,7 +18039,7 @@
       <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="823" t="s">
+      <c r="A20" s="826" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="75" t="s">
@@ -18065,7 +18068,7 @@
       <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="823"/>
+      <c r="A21" s="826"/>
       <c r="B21" s="75" t="s">
         <v>291</v>
       </c>
@@ -18092,7 +18095,7 @@
       <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="782" t="s">
+      <c r="A22" s="772" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="102" t="s">
@@ -18121,7 +18124,7 @@
       <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="787"/>
+      <c r="A23" s="773"/>
       <c r="B23" s="38" t="s">
         <v>96</v>
       </c>
@@ -18148,7 +18151,7 @@
       <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="787"/>
+      <c r="A24" s="773"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -18175,7 +18178,7 @@
       <c r="O24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="787"/>
+      <c r="A25" s="773"/>
       <c r="B25" s="38" t="s">
         <v>97</v>
       </c>
@@ -18202,7 +18205,7 @@
       <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="787"/>
+      <c r="A26" s="773"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -18229,7 +18232,7 @@
       <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="783"/>
+      <c r="A27" s="780"/>
       <c r="B27" s="103" t="s">
         <v>99</v>
       </c>
@@ -18313,25 +18316,25 @@
       <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="859" t="s">
+      <c r="A2" s="864" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="859"/>
-      <c r="C2" s="859"/>
-      <c r="D2" s="859"/>
-      <c r="E2" s="859"/>
-      <c r="F2" s="859"/>
-      <c r="G2" s="859"/>
-      <c r="H2" s="859"/>
-      <c r="I2" s="859"/>
-      <c r="J2" s="859"/>
+      <c r="B2" s="864"/>
+      <c r="C2" s="864"/>
+      <c r="D2" s="864"/>
+      <c r="E2" s="864"/>
+      <c r="F2" s="864"/>
+      <c r="G2" s="864"/>
+      <c r="H2" s="864"/>
+      <c r="I2" s="864"/>
+      <c r="J2" s="864"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="860" t="s">
+      <c r="A3" s="865" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="861"/>
-      <c r="C3" s="861"/>
+      <c r="B3" s="866"/>
+      <c r="C3" s="866"/>
       <c r="D3" s="185"/>
       <c r="E3" s="185"/>
       <c r="F3" s="185"/>
@@ -18416,18 +18419,18 @@
       <c r="B7" s="182"/>
       <c r="C7" s="182"/>
       <c r="D7" s="182"/>
-      <c r="E7" s="864" t="s">
+      <c r="E7" s="861" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="863"/>
-      <c r="G7" s="864" t="s">
+      <c r="F7" s="862"/>
+      <c r="G7" s="861" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="863"/>
-      <c r="I7" s="862" t="s">
+      <c r="H7" s="862"/>
+      <c r="I7" s="863" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="863"/>
+      <c r="J7" s="862"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="184" t="s">
@@ -19043,18 +19046,18 @@
       <c r="B26" s="182"/>
       <c r="C26" s="182"/>
       <c r="D26" s="182"/>
-      <c r="E26" s="864" t="s">
+      <c r="E26" s="861" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="863"/>
-      <c r="G26" s="864" t="s">
+      <c r="F26" s="862"/>
+      <c r="G26" s="861" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="863"/>
-      <c r="I26" s="862" t="s">
+      <c r="H26" s="862"/>
+      <c r="I26" s="863" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="863"/>
+      <c r="J26" s="862"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="184" t="s">
@@ -19656,18 +19659,18 @@
       <c r="B45" s="182"/>
       <c r="C45" s="182"/>
       <c r="D45" s="182"/>
-      <c r="E45" s="864" t="s">
+      <c r="E45" s="861" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="863"/>
-      <c r="G45" s="864" t="s">
+      <c r="F45" s="862"/>
+      <c r="G45" s="861" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="863"/>
-      <c r="I45" s="862" t="s">
+      <c r="H45" s="862"/>
+      <c r="I45" s="863" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="863"/>
+      <c r="J45" s="862"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="184" t="s">
@@ -20262,18 +20265,18 @@
       <c r="B64" s="182"/>
       <c r="C64" s="182"/>
       <c r="D64" s="182"/>
-      <c r="E64" s="864" t="s">
+      <c r="E64" s="861" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="863"/>
-      <c r="G64" s="864" t="s">
+      <c r="F64" s="862"/>
+      <c r="G64" s="861" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="863"/>
-      <c r="I64" s="862" t="s">
+      <c r="H64" s="862"/>
+      <c r="I64" s="863" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="863"/>
+      <c r="J64" s="862"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="184" t="s">
@@ -20661,18 +20664,18 @@
       <c r="B77" s="182"/>
       <c r="C77" s="182"/>
       <c r="D77" s="182"/>
-      <c r="E77" s="864" t="s">
+      <c r="E77" s="861" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="863"/>
-      <c r="G77" s="864" t="s">
+      <c r="F77" s="862"/>
+      <c r="G77" s="861" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="863"/>
-      <c r="I77" s="862" t="s">
+      <c r="H77" s="862"/>
+      <c r="I77" s="863" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="863"/>
+      <c r="J77" s="862"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="184" t="s">
@@ -21055,6 +21058,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="E7:F7"/>
@@ -21067,11 +21075,6 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22371,22 +22374,22 @@
       <c r="A5" s="120"/>
       <c r="B5" s="121"/>
       <c r="C5" s="121"/>
-      <c r="D5" s="773" t="s">
+      <c r="D5" s="785" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="774"/>
-      <c r="F5" s="773" t="s">
+      <c r="E5" s="786"/>
+      <c r="F5" s="785" t="s">
         <v>472</v>
       </c>
-      <c r="G5" s="774"/>
-      <c r="H5" s="773" t="s">
+      <c r="G5" s="786"/>
+      <c r="H5" s="785" t="s">
         <v>473</v>
       </c>
-      <c r="I5" s="774"/>
-      <c r="J5" s="768" t="s">
+      <c r="I5" s="786"/>
+      <c r="J5" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="769"/>
+      <c r="K5" s="771"/>
       <c r="L5" s="118"/>
       <c r="M5" s="118"/>
       <c r="N5" s="118"/>
@@ -22402,18 +22405,18 @@
       </c>
       <c r="B6" s="127"/>
       <c r="C6" s="128"/>
-      <c r="D6" s="777" t="s">
+      <c r="D6" s="787" t="s">
         <v>475</v>
       </c>
-      <c r="E6" s="778"/>
-      <c r="F6" s="779" t="s">
+      <c r="E6" s="788"/>
+      <c r="F6" s="789" t="s">
         <v>468</v>
       </c>
-      <c r="G6" s="780"/>
-      <c r="H6" s="779" t="s">
+      <c r="G6" s="790"/>
+      <c r="H6" s="789" t="s">
         <v>469</v>
       </c>
-      <c r="I6" s="780"/>
+      <c r="I6" s="790"/>
       <c r="J6" s="62"/>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -22453,10 +22456,10 @@
       <c r="I7" s="123">
         <v>2040</v>
       </c>
-      <c r="J7" s="768" t="s">
+      <c r="J7" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="769"/>
+      <c r="K7" s="771"/>
       <c r="L7" s="118"/>
       <c r="M7" s="118"/>
       <c r="N7" s="118"/>
@@ -22494,10 +22497,10 @@
       <c r="I8" s="123">
         <v>2040</v>
       </c>
-      <c r="J8" s="768" t="s">
+      <c r="J8" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="769"/>
+      <c r="K8" s="771"/>
       <c r="L8" s="118"/>
       <c r="M8" s="118"/>
       <c r="N8" s="118"/>
@@ -22508,7 +22511,7 @@
       <c r="S8" s="118"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="775" t="s">
+      <c r="A9" s="778" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="102" t="s">
@@ -22544,7 +22547,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="776"/>
+      <c r="A10" s="777"/>
       <c r="B10" s="38" t="s">
         <v>12</v>
       </c>
@@ -22578,7 +22581,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="776"/>
+      <c r="A11" s="777"/>
       <c r="B11" s="38" t="s">
         <v>13</v>
       </c>
@@ -22611,7 +22614,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="776"/>
+      <c r="A12" s="777"/>
       <c r="B12" s="38" t="s">
         <v>37</v>
       </c>
@@ -22645,7 +22648,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="775" t="s">
+      <c r="A13" s="778" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="102" t="s">
@@ -22681,7 +22684,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="781"/>
+      <c r="A14" s="779"/>
       <c r="B14" s="103" t="s">
         <v>9</v>
       </c>
@@ -22715,7 +22718,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="775" t="s">
+      <c r="A15" s="778" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -22751,7 +22754,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="781"/>
+      <c r="A16" s="779"/>
       <c r="B16" s="103" t="s">
         <v>319</v>
       </c>
@@ -22850,10 +22853,10 @@
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="J18" s="768" t="s">
+      <c r="J18" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="769"/>
+      <c r="K18" s="771"/>
       <c r="L18" s="118"/>
       <c r="M18" s="118"/>
       <c r="N18" s="118"/>
@@ -22864,7 +22867,7 @@
       <c r="S18" s="118"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="775" t="s">
+      <c r="A19" s="778" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="102" t="s">
@@ -22900,7 +22903,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="781"/>
+      <c r="A20" s="779"/>
       <c r="B20" s="103" t="s">
         <v>319</v>
       </c>
@@ -22934,7 +22937,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="776" t="s">
+      <c r="A21" s="777" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="102" t="s">
@@ -22970,7 +22973,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="781"/>
+      <c r="A22" s="779"/>
       <c r="B22" s="103" t="s">
         <v>319</v>
       </c>
@@ -23067,10 +23070,10 @@
       <c r="I24" s="123">
         <v>2040</v>
       </c>
-      <c r="J24" s="768" t="s">
+      <c r="J24" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="769"/>
+      <c r="K24" s="771"/>
       <c r="L24" s="118"/>
       <c r="M24" s="118"/>
       <c r="N24" s="118"/>
@@ -23081,7 +23084,7 @@
       <c r="S24" s="118"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="775" t="s">
+      <c r="A25" s="778" t="s">
         <v>149</v>
       </c>
       <c r="B25" s="102" t="s">
@@ -23128,7 +23131,7 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="776"/>
+      <c r="A26" s="777"/>
       <c r="B26" s="38" t="s">
         <v>9</v>
       </c>
@@ -23173,7 +23176,7 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="781"/>
+      <c r="A27" s="779"/>
       <c r="B27" s="103" t="s">
         <v>7</v>
       </c>
@@ -23265,7 +23268,7 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="775" t="s">
+      <c r="A29" s="778" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="102" t="s">
@@ -23312,7 +23315,7 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="776"/>
+      <c r="A30" s="777"/>
       <c r="B30" s="38" t="s">
         <v>9</v>
       </c>
@@ -23357,7 +23360,7 @@
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="781"/>
+      <c r="A31" s="779"/>
       <c r="B31" s="103" t="s">
         <v>7</v>
       </c>
@@ -23402,7 +23405,7 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="782" t="s">
+      <c r="A32" s="772" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="102" t="s">
@@ -23440,7 +23443,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="787"/>
+      <c r="A33" s="773"/>
       <c r="B33" s="38" t="s">
         <v>9</v>
       </c>
@@ -23476,7 +23479,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="787"/>
+      <c r="A34" s="773"/>
       <c r="B34" s="38" t="s">
         <v>7</v>
       </c>
@@ -23512,7 +23515,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="783"/>
+      <c r="A35" s="780"/>
       <c r="B35" s="103" t="s">
         <v>20</v>
       </c>
@@ -23678,7 +23681,7 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="784" t="s">
+      <c r="A39" s="775" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="102" t="s">
@@ -23724,7 +23727,7 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="788"/>
+      <c r="A40" s="776"/>
       <c r="B40" s="103" t="s">
         <v>29</v>
       </c>
@@ -23796,10 +23799,10 @@
       <c r="I41" s="123">
         <v>2040</v>
       </c>
-      <c r="J41" s="768" t="s">
+      <c r="J41" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="769"/>
+      <c r="K41" s="771"/>
       <c r="L41" s="118"/>
       <c r="M41" s="118"/>
       <c r="N41" s="118"/>
@@ -23810,7 +23813,7 @@
       <c r="S41" s="118"/>
     </row>
     <row r="42" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="782" t="s">
+      <c r="A42" s="772" t="s">
         <v>149</v>
       </c>
       <c r="B42" s="102" t="s">
@@ -23857,7 +23860,7 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="787"/>
+      <c r="A43" s="773"/>
       <c r="B43" s="38" t="s">
         <v>116</v>
       </c>
@@ -23902,7 +23905,7 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="785"/>
+      <c r="A44" s="774"/>
       <c r="B44" s="38" t="s">
         <v>117</v>
       </c>
@@ -23947,7 +23950,7 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="785"/>
+      <c r="A45" s="774"/>
       <c r="B45" s="38" t="s">
         <v>118</v>
       </c>
@@ -23992,7 +23995,7 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="782" t="s">
+      <c r="A46" s="772" t="s">
         <v>375</v>
       </c>
       <c r="B46" s="102" t="s">
@@ -24039,7 +24042,7 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="787"/>
+      <c r="A47" s="773"/>
       <c r="B47" s="38" t="s">
         <v>116</v>
       </c>
@@ -24084,7 +24087,7 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="785"/>
+      <c r="A48" s="774"/>
       <c r="B48" s="38" t="s">
         <v>117</v>
       </c>
@@ -24129,7 +24132,7 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="785"/>
+      <c r="A49" s="774"/>
       <c r="B49" s="38" t="s">
         <v>118</v>
       </c>
@@ -24174,7 +24177,7 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="782" t="s">
+      <c r="A50" s="772" t="s">
         <v>374</v>
       </c>
       <c r="B50" s="102" t="s">
@@ -24221,7 +24224,7 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="787"/>
+      <c r="A51" s="773"/>
       <c r="B51" s="38" t="s">
         <v>116</v>
       </c>
@@ -24266,7 +24269,7 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="785"/>
+      <c r="A52" s="774"/>
       <c r="B52" s="38" t="s">
         <v>117</v>
       </c>
@@ -24311,7 +24314,7 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="785"/>
+      <c r="A53" s="774"/>
       <c r="B53" s="38" t="s">
         <v>118</v>
       </c>
@@ -24356,7 +24359,7 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="770" t="s">
+      <c r="A54" s="782" t="s">
         <v>627</v>
       </c>
       <c r="B54" s="630" t="s">
@@ -24400,7 +24403,7 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="771"/>
+      <c r="A55" s="783"/>
       <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
@@ -24442,7 +24445,7 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="771"/>
+      <c r="A56" s="783"/>
       <c r="B56" s="26" t="s">
         <v>117</v>
       </c>
@@ -24484,7 +24487,7 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="772"/>
+      <c r="A57" s="784"/>
       <c r="B57" s="620" t="s">
         <v>118</v>
       </c>
@@ -24526,7 +24529,7 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="776" t="s">
+      <c r="A58" s="777" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="38" t="s">
@@ -24564,7 +24567,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="776"/>
+      <c r="A59" s="777"/>
       <c r="B59" s="38" t="s">
         <v>7</v>
       </c>
@@ -24600,7 +24603,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="784" t="s">
+      <c r="A60" s="775" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="323" t="s">
@@ -24638,7 +24641,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="785"/>
+      <c r="A61" s="774"/>
       <c r="B61" s="38" t="s">
         <v>115</v>
       </c>
@@ -24683,7 +24686,7 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="785"/>
+      <c r="A62" s="774"/>
       <c r="B62" s="38" t="s">
         <v>116</v>
       </c>
@@ -24728,7 +24731,7 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="785"/>
+      <c r="A63" s="774"/>
       <c r="B63" s="38" t="s">
         <v>117</v>
       </c>
@@ -24773,7 +24776,7 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="786"/>
+      <c r="A64" s="781"/>
       <c r="B64" s="103" t="s">
         <v>118</v>
       </c>
@@ -24890,13 +24893,13 @@
       <c r="I66" s="408">
         <v>2040</v>
       </c>
-      <c r="J66" s="768" t="s">
+      <c r="J66" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="769"/>
+      <c r="K66" s="771"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="782" t="s">
+      <c r="A67" s="772" t="s">
         <v>307</v>
       </c>
       <c r="B67" s="102" t="s">
@@ -24934,7 +24937,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="783"/>
+      <c r="A68" s="780"/>
       <c r="B68" s="103" t="s">
         <v>7</v>
       </c>
@@ -24997,10 +25000,10 @@
       <c r="I69" s="408">
         <v>2040</v>
       </c>
-      <c r="J69" s="768" t="s">
+      <c r="J69" s="770" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="769"/>
+      <c r="K69" s="771"/>
     </row>
     <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="650" t="s">
@@ -25281,11 +25284,11 @@
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="866">
+      <c r="D79" s="768">
         <f>D61/D$60</f>
         <v>3.6964804599212475E-2</v>
       </c>
-      <c r="E79" s="866">
+      <c r="E79" s="768">
         <f>E61/E$60</f>
         <v>3.6964804599212482E-2</v>
       </c>
@@ -25297,12 +25300,12 @@
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
-      <c r="D80" s="866">
+      <c r="D80" s="768">
         <f t="shared" ref="D80" si="16">D62/D$60</f>
         <v>4.023291189209266E-2</v>
       </c>
-      <c r="E80" s="866">
-        <f t="shared" ref="D80:E82" si="17">E62/E$60</f>
+      <c r="E80" s="768">
+        <f t="shared" ref="E80:E82" si="17">E62/E$60</f>
         <v>4.0232911892092674E-2</v>
       </c>
       <c r="F80" s="151"/>
@@ -25310,11 +25313,11 @@
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
-      <c r="D81" s="866">
+      <c r="D81" s="768">
         <f t="shared" ref="D81" si="18">D63/D$60</f>
         <v>0.32927537091549419</v>
       </c>
-      <c r="E81" s="866">
+      <c r="E81" s="768">
         <f t="shared" si="17"/>
         <v>0.32927537091549425</v>
       </c>
@@ -25329,11 +25332,11 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
-      <c r="D82" s="866">
+      <c r="D82" s="768">
         <f t="shared" ref="D82" si="19">D64/D$60</f>
         <v>0.59352691259320067</v>
       </c>
-      <c r="E82" s="866">
+      <c r="E82" s="768">
         <f t="shared" si="17"/>
         <v>0.59352691259320067</v>
       </c>
@@ -25467,20 +25470,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="bhbLMjBtLJkCl6+oRAIq98NZkcBAWzm8GjbRfoftLGnxxPl6tbwDiFe+9aTX2EHNMDT88cd1rnVmqQcow+/x8w==" saltValue="u4cWX+yqQiFBZXUHKrq6Og==" spinCount="100000" sqref="F9:G23" name="Indata"/>
   </protectedRanges>
   <mergeCells count="30">
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A35"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="D5:E5"/>
@@ -25497,6 +25486,20 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25860,18 +25863,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="789" t="s">
+      <c r="D1" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="790"/>
-      <c r="F1" s="789" t="s">
+      <c r="E1" s="792"/>
+      <c r="F1" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="790"/>
-      <c r="H1" s="791" t="s">
+      <c r="G1" s="792"/>
+      <c r="H1" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="790"/>
+      <c r="I1" s="792"/>
     </row>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="715">
@@ -26047,87 +26050,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="310" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="789" t="s">
+      <c r="A3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="796" t="s">
+      <c r="B3" s="808" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="797"/>
-      <c r="D3" s="789" t="s">
+      <c r="C3" s="809"/>
+      <c r="D3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="790"/>
-      <c r="F3" s="789" t="s">
+      <c r="E3" s="792"/>
+      <c r="F3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="790"/>
-      <c r="H3" s="791" t="s">
+      <c r="G3" s="792"/>
+      <c r="H3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="790"/>
-      <c r="K3" s="789" t="s">
+      <c r="I3" s="792"/>
+      <c r="K3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="800" t="s">
+      <c r="L3" s="803" t="s">
         <v>232</v>
       </c>
-      <c r="M3" s="801"/>
-      <c r="N3" s="789" t="s">
+      <c r="M3" s="804"/>
+      <c r="N3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="790"/>
-      <c r="P3" s="789" t="s">
+      <c r="O3" s="792"/>
+      <c r="P3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="790"/>
-      <c r="R3" s="791" t="s">
+      <c r="Q3" s="792"/>
+      <c r="R3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="790"/>
-      <c r="U3" s="789" t="s">
+      <c r="S3" s="792"/>
+      <c r="U3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="800" t="s">
+      <c r="V3" s="803" t="s">
         <v>223</v>
       </c>
-      <c r="W3" s="801"/>
-      <c r="X3" s="789" t="s">
+      <c r="W3" s="804"/>
+      <c r="X3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="790"/>
-      <c r="Z3" s="789" t="s">
+      <c r="Y3" s="792"/>
+      <c r="Z3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="790"/>
-      <c r="AB3" s="791" t="s">
+      <c r="AA3" s="792"/>
+      <c r="AB3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="790"/>
-      <c r="AE3" s="789" t="s">
+      <c r="AC3" s="792"/>
+      <c r="AE3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="800" t="s">
+      <c r="AF3" s="803" t="s">
         <v>233</v>
       </c>
-      <c r="AG3" s="801"/>
-      <c r="AH3" s="789" t="s">
+      <c r="AG3" s="804"/>
+      <c r="AH3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="790"/>
-      <c r="AJ3" s="789" t="s">
+      <c r="AI3" s="792"/>
+      <c r="AJ3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="790"/>
-      <c r="AL3" s="791" t="s">
+      <c r="AK3" s="792"/>
+      <c r="AL3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="790"/>
+      <c r="AM3" s="792"/>
     </row>
     <row r="4" spans="1:39" s="118" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="795"/>
-      <c r="B4" s="798"/>
-      <c r="C4" s="799"/>
+      <c r="A4" s="807"/>
+      <c r="B4" s="810"/>
+      <c r="C4" s="811"/>
       <c r="D4" s="253">
         <v>2030</v>
       </c>
@@ -26146,9 +26149,9 @@
       <c r="I4" s="254">
         <v>2040</v>
       </c>
-      <c r="K4" s="795"/>
-      <c r="L4" s="802"/>
-      <c r="M4" s="803"/>
+      <c r="K4" s="807"/>
+      <c r="L4" s="805"/>
+      <c r="M4" s="806"/>
       <c r="N4" s="253">
         <v>2030</v>
       </c>
@@ -26167,9 +26170,9 @@
       <c r="S4" s="254">
         <v>2040</v>
       </c>
-      <c r="U4" s="795"/>
-      <c r="V4" s="802"/>
-      <c r="W4" s="803"/>
+      <c r="U4" s="807"/>
+      <c r="V4" s="805"/>
+      <c r="W4" s="806"/>
       <c r="X4" s="253">
         <v>2030</v>
       </c>
@@ -26188,9 +26191,9 @@
       <c r="AC4" s="254">
         <v>2040</v>
       </c>
-      <c r="AE4" s="795"/>
-      <c r="AF4" s="802"/>
-      <c r="AG4" s="803"/>
+      <c r="AE4" s="807"/>
+      <c r="AF4" s="805"/>
+      <c r="AG4" s="806"/>
       <c r="AH4" s="253">
         <v>2030</v>
       </c>
@@ -26251,7 +26254,7 @@
       <c r="AM5" s="189"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="804" t="s">
+      <c r="A6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="124" t="s">
@@ -26284,7 +26287,7 @@
         <f>Indata!I32</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="K6" s="804" t="s">
+      <c r="K6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="124" t="s">
@@ -26317,7 +26320,7 @@
         <f>'Modell - Drivmedelpriser'!J24</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="U6" s="804" t="s">
+      <c r="U6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="124" t="s">
@@ -26350,7 +26353,7 @@
         <f t="shared" ref="AC6:AC8" si="4">S6</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="AE6" s="804" t="s">
+      <c r="AE6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="124" t="s">
@@ -26385,7 +26388,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="805"/>
+      <c r="A7" s="798"/>
       <c r="B7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26416,7 +26419,7 @@
         <f>Indata!I33</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="K7" s="805"/>
+      <c r="K7" s="798"/>
       <c r="L7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26447,7 +26450,7 @@
         <f>'Modell - Drivmedelpriser'!J43</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="U7" s="805"/>
+      <c r="U7" s="798"/>
       <c r="V7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26478,7 +26481,7 @@
         <f t="shared" si="4"/>
         <v>22.557131724953557</v>
       </c>
-      <c r="AE7" s="805"/>
+      <c r="AE7" s="798"/>
       <c r="AF7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26511,7 +26514,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="805"/>
+      <c r="A8" s="798"/>
       <c r="B8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26542,7 +26545,7 @@
         <f>Indata!I34</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="K8" s="805"/>
+      <c r="K8" s="798"/>
       <c r="L8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26573,7 +26576,7 @@
         <f>'Modell - Drivmedelpriser'!J75</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="U8" s="805"/>
+      <c r="U8" s="798"/>
       <c r="V8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26604,7 +26607,7 @@
         <f t="shared" si="4"/>
         <v>4.1598749999999995</v>
       </c>
-      <c r="AE8" s="805"/>
+      <c r="AE8" s="798"/>
       <c r="AF8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26637,7 +26640,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="290" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="805"/>
+      <c r="A9" s="798"/>
       <c r="B9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26668,7 +26671,7 @@
         <f>Indata!I35</f>
         <v>21.927924171466245</v>
       </c>
-      <c r="K9" s="805"/>
+      <c r="K9" s="798"/>
       <c r="L9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26699,7 +26702,7 @@
         <f t="shared" si="12"/>
         <v>21.927924171466245</v>
       </c>
-      <c r="U9" s="805"/>
+      <c r="U9" s="798"/>
       <c r="V9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26730,7 +26733,7 @@
         <f t="shared" si="13"/>
         <v>21.927924171466245</v>
       </c>
-      <c r="AE9" s="805"/>
+      <c r="AE9" s="798"/>
       <c r="AF9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26763,7 +26766,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="806"/>
+      <c r="A10" s="799"/>
       <c r="B10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26788,7 +26791,7 @@
       <c r="I10" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="806"/>
+      <c r="K10" s="799"/>
       <c r="L10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26819,7 +26822,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U10" s="806"/>
+      <c r="U10" s="799"/>
       <c r="V10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26850,7 +26853,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="806"/>
+      <c r="AE10" s="799"/>
       <c r="AF10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26952,7 +26955,7 @@
       <c r="AM12" s="189"/>
     </row>
     <row r="13" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="804" t="s">
+      <c r="A13" s="797" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="124" t="s">
@@ -26985,7 +26988,7 @@
         <f>Indata!I29</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="K13" s="807" t="s">
+      <c r="K13" s="800" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="659" t="s">
@@ -27018,7 +27021,7 @@
         <f>I13*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)*(1-I52*Indata!I75)</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="U13" s="804" t="s">
+      <c r="U13" s="797" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="124" t="s">
@@ -27051,7 +27054,7 @@
         <f t="shared" ref="AC13:AC15" si="22">S13</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="AE13" s="804" t="s">
+      <c r="AE13" s="797" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="124" t="s">
@@ -27086,7 +27089,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="805"/>
+      <c r="A14" s="798"/>
       <c r="B14" s="125" t="s">
         <v>9</v>
       </c>
@@ -27117,7 +27120,7 @@
         <f>Indata!I30</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="K14" s="808"/>
+      <c r="K14" s="801"/>
       <c r="L14" s="660" t="s">
         <v>9</v>
       </c>
@@ -27148,7 +27151,7 @@
         <f>I14*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)*(1-I52*Indata!I75)</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="U14" s="805"/>
+      <c r="U14" s="798"/>
       <c r="V14" s="125" t="s">
         <v>9</v>
       </c>
@@ -27179,7 +27182,7 @@
         <f t="shared" si="22"/>
         <v>0.49160078067679608</v>
       </c>
-      <c r="AE14" s="805"/>
+      <c r="AE14" s="798"/>
       <c r="AF14" s="125" t="s">
         <v>9</v>
       </c>
@@ -27212,7 +27215,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="806"/>
+      <c r="A15" s="799"/>
       <c r="B15" s="126" t="s">
         <v>7</v>
       </c>
@@ -27243,7 +27246,7 @@
         <f>Indata!I31</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="K15" s="809"/>
+      <c r="K15" s="802"/>
       <c r="L15" s="661" t="s">
         <v>7</v>
       </c>
@@ -27274,7 +27277,7 @@
         <f>I15*(1-Indata!I$19)*(1-I52*Indata!I75)</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="U15" s="806"/>
+      <c r="U15" s="799"/>
       <c r="V15" s="126" t="s">
         <v>7</v>
       </c>
@@ -27305,7 +27308,7 @@
         <f t="shared" si="22"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="AE15" s="806"/>
+      <c r="AE15" s="799"/>
       <c r="AF15" s="126" t="s">
         <v>7</v>
       </c>
@@ -27407,7 +27410,7 @@
       <c r="AM17" s="200"/>
     </row>
     <row r="18" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="792" t="s">
+      <c r="A18" s="794" t="s">
         <v>149</v>
       </c>
       <c r="B18" s="124" t="s">
@@ -27440,7 +27443,7 @@
         <f>Indata!I25/SUM(Indata!I$25:I$26)*(1-I$20)</f>
         <v>0.30878176598734658</v>
       </c>
-      <c r="K18" s="792" t="s">
+      <c r="K18" s="794" t="s">
         <v>149</v>
       </c>
       <c r="L18" s="124" t="s">
@@ -27473,7 +27476,7 @@
         <f t="shared" si="30"/>
         <v>0.30878176598734658</v>
       </c>
-      <c r="U18" s="792" t="s">
+      <c r="U18" s="794" t="s">
         <v>149</v>
       </c>
       <c r="V18" s="124" t="s">
@@ -27506,7 +27509,7 @@
         <f t="shared" ref="AC18:AC21" si="35">S18</f>
         <v>0.30878176598734658</v>
       </c>
-      <c r="AE18" s="792" t="s">
+      <c r="AE18" s="794" t="s">
         <v>149</v>
       </c>
       <c r="AF18" s="124" t="s">
@@ -27541,7 +27544,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="793"/>
+      <c r="A19" s="795"/>
       <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
@@ -27572,7 +27575,7 @@
         <f>Indata!I26/SUM(Indata!I$25:I$26)*(1-I$20)</f>
         <v>0.31121823401265342</v>
       </c>
-      <c r="K19" s="793"/>
+      <c r="K19" s="795"/>
       <c r="L19" s="125" t="s">
         <v>9</v>
       </c>
@@ -27603,7 +27606,7 @@
         <f t="shared" si="30"/>
         <v>0.31121823401265342</v>
       </c>
-      <c r="U19" s="793"/>
+      <c r="U19" s="795"/>
       <c r="V19" s="125" t="s">
         <v>9</v>
       </c>
@@ -27634,7 +27637,7 @@
         <f t="shared" si="35"/>
         <v>0.31121823401265342</v>
       </c>
-      <c r="AE19" s="793"/>
+      <c r="AE19" s="795"/>
       <c r="AF19" s="125" t="s">
         <v>9</v>
       </c>
@@ -27667,7 +27670,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="793"/>
+      <c r="A20" s="795"/>
       <c r="B20" s="125" t="s">
         <v>7</v>
       </c>
@@ -27698,7 +27701,7 @@
         <f>Indata!I28</f>
         <v>0.38</v>
       </c>
-      <c r="K20" s="793"/>
+      <c r="K20" s="795"/>
       <c r="L20" s="125" t="s">
         <v>7</v>
       </c>
@@ -27729,7 +27732,7 @@
         <f>MIN(I20+(1-I20)*'Indata - Effektsamband-Faktorer'!$E$4*S$10,1)</f>
         <v>0.38</v>
       </c>
-      <c r="U20" s="793"/>
+      <c r="U20" s="795"/>
       <c r="V20" s="125" t="s">
         <v>7</v>
       </c>
@@ -27760,7 +27763,7 @@
         <f t="shared" si="35"/>
         <v>0.38</v>
       </c>
-      <c r="AE20" s="793"/>
+      <c r="AE20" s="795"/>
       <c r="AF20" s="125" t="s">
         <v>7</v>
       </c>
@@ -27793,7 +27796,7 @@
       </c>
     </row>
     <row r="21" spans="1:39" s="290" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="794"/>
+      <c r="A21" s="796"/>
       <c r="B21" s="177" t="s">
         <v>16</v>
       </c>
@@ -27824,7 +27827,7 @@
         <f t="shared" si="43"/>
         <v>1</v>
       </c>
-      <c r="K21" s="794"/>
+      <c r="K21" s="796"/>
       <c r="L21" s="177" t="s">
         <v>16</v>
       </c>
@@ -27855,7 +27858,7 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="U21" s="794"/>
+      <c r="U21" s="796"/>
       <c r="V21" s="177" t="s">
         <v>16</v>
       </c>
@@ -27886,7 +27889,7 @@
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="AE21" s="794"/>
+      <c r="AE21" s="796"/>
       <c r="AF21" s="177" t="s">
         <v>16</v>
       </c>
@@ -27988,7 +27991,7 @@
       <c r="AM23" s="189"/>
     </row>
     <row r="24" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="804" t="s">
+      <c r="A24" s="797" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="124" t="s">
@@ -28021,7 +28024,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K24" s="804" t="s">
+      <c r="K24" s="797" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="124" t="s">
@@ -28054,7 +28057,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U24" s="804" t="s">
+      <c r="U24" s="797" t="s">
         <v>21</v>
       </c>
       <c r="V24" s="124" t="s">
@@ -28087,7 +28090,7 @@
         <f t="shared" ref="AC24:AC26" si="50">S24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="804" t="s">
+      <c r="AE24" s="797" t="s">
         <v>21</v>
       </c>
       <c r="AF24" s="124" t="s">
@@ -28122,7 +28125,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="805"/>
+      <c r="A25" s="798"/>
       <c r="B25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28153,7 +28156,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K25" s="805"/>
+      <c r="K25" s="798"/>
       <c r="L25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28184,7 +28187,7 @@
         <f t="shared" ref="S25:S26" si="61">I25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="805"/>
+      <c r="U25" s="798"/>
       <c r="V25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28215,7 +28218,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="805"/>
+      <c r="AE25" s="798"/>
       <c r="AF25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28248,7 +28251,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="806"/>
+      <c r="A26" s="799"/>
       <c r="B26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28279,7 +28282,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="806"/>
+      <c r="K26" s="799"/>
       <c r="L26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28310,7 +28313,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="U26" s="806"/>
+      <c r="U26" s="799"/>
       <c r="V26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28341,7 +28344,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="806"/>
+      <c r="AE26" s="799"/>
       <c r="AF26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28449,7 +28452,7 @@
       <c r="AM28" s="189"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="804" t="s">
+      <c r="A29" s="797" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="124" t="s">
@@ -28482,7 +28485,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K29" s="807" t="s">
+      <c r="K29" s="800" t="s">
         <v>75</v>
       </c>
       <c r="L29" s="659" t="s">
@@ -28515,7 +28518,7 @@
         <f>I29*(1-Indata!I$74)+I29*(1+Indata!I$76)*I$52</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U29" s="804" t="s">
+      <c r="U29" s="797" t="s">
         <v>75</v>
       </c>
       <c r="V29" s="124" t="s">
@@ -28548,7 +28551,7 @@
         <f t="shared" ref="AC29:AC31" si="68">S29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE29" s="804" t="s">
+      <c r="AE29" s="797" t="s">
         <v>75</v>
       </c>
       <c r="AF29" s="124" t="s">
@@ -28583,7 +28586,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="805"/>
+      <c r="A30" s="798"/>
       <c r="B30" s="125" t="s">
         <v>9</v>
       </c>
@@ -28614,7 +28617,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K30" s="808"/>
+      <c r="K30" s="801"/>
       <c r="L30" s="660" t="s">
         <v>9</v>
       </c>
@@ -28645,7 +28648,7 @@
         <f>I30*(1-Indata!I$74)+I30*(1+Indata!I$76)*I$52</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U30" s="805"/>
+      <c r="U30" s="798"/>
       <c r="V30" s="125" t="s">
         <v>9</v>
       </c>
@@ -28676,7 +28679,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE30" s="805"/>
+      <c r="AE30" s="798"/>
       <c r="AF30" s="125" t="s">
         <v>9</v>
       </c>
@@ -28709,7 +28712,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="806"/>
+      <c r="A31" s="799"/>
       <c r="B31" s="126" t="s">
         <v>7</v>
       </c>
@@ -28740,7 +28743,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K31" s="809"/>
+      <c r="K31" s="802"/>
       <c r="L31" s="661" t="s">
         <v>7</v>
       </c>
@@ -28771,7 +28774,7 @@
         <f>I31*(1-Indata!I$74)+I31*(1+Indata!I$76)*I$52</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U31" s="806"/>
+      <c r="U31" s="799"/>
       <c r="V31" s="126" t="s">
         <v>7</v>
       </c>
@@ -28802,7 +28805,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE31" s="806"/>
+      <c r="AE31" s="799"/>
       <c r="AF31" s="126" t="s">
         <v>7</v>
       </c>
@@ -28913,7 +28916,7 @@
       <c r="AM33" s="75"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" s="792" t="s">
+      <c r="A34" s="794" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="124" t="s">
@@ -28946,7 +28949,7 @@
         <f t="shared" si="76"/>
         <v>30.723785715740984</v>
       </c>
-      <c r="K34" s="792" t="s">
+      <c r="K34" s="794" t="s">
         <v>17</v>
       </c>
       <c r="L34" s="124" t="s">
@@ -28979,7 +28982,7 @@
         <f t="shared" si="77"/>
         <v>30.723785715740984</v>
       </c>
-      <c r="U34" s="792" t="s">
+      <c r="U34" s="794" t="s">
         <v>17</v>
       </c>
       <c r="V34" s="124" t="s">
@@ -29012,7 +29015,7 @@
         <f>S34*(1+S$50)*(1+S$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
         <v>30.913829807482287</v>
       </c>
-      <c r="AE34" s="792" t="s">
+      <c r="AE34" s="794" t="s">
         <v>17</v>
       </c>
       <c r="AF34" s="124" t="s">
@@ -29047,7 +29050,7 @@
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="793"/>
+      <c r="A35" s="795"/>
       <c r="B35" s="125" t="s">
         <v>9</v>
       </c>
@@ -29078,7 +29081,7 @@
         <f t="shared" si="76"/>
         <v>30.966214284259014</v>
       </c>
-      <c r="K35" s="793"/>
+      <c r="K35" s="795"/>
       <c r="L35" s="125" t="s">
         <v>9</v>
       </c>
@@ -29109,7 +29112,7 @@
         <f t="shared" si="78"/>
         <v>30.966214284259014</v>
       </c>
-      <c r="U35" s="793"/>
+      <c r="U35" s="795"/>
       <c r="V35" s="125" t="s">
         <v>9</v>
       </c>
@@ -29140,7 +29143,7 @@
         <f>S35*(1+S$50)*(1+S$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
         <v>31.157757934601015</v>
       </c>
-      <c r="AE35" s="793"/>
+      <c r="AE35" s="795"/>
       <c r="AF35" s="125" t="s">
         <v>9</v>
       </c>
@@ -29173,7 +29176,7 @@
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="793"/>
+      <c r="A36" s="795"/>
       <c r="B36" s="125" t="s">
         <v>7</v>
       </c>
@@ -29204,7 +29207,7 @@
         <f t="shared" si="76"/>
         <v>37.81</v>
       </c>
-      <c r="K36" s="793"/>
+      <c r="K36" s="795"/>
       <c r="L36" s="125" t="s">
         <v>7</v>
       </c>
@@ -29235,7 +29238,7 @@
         <f t="shared" si="78"/>
         <v>37.81</v>
       </c>
-      <c r="U36" s="793"/>
+      <c r="U36" s="795"/>
       <c r="V36" s="125" t="s">
         <v>7</v>
       </c>
@@ -29266,7 +29269,7 @@
         <f>S36*(1+S$50)*(1+S$44*'Indata - Effektsamband-Faktorer'!$E$8)</f>
         <v>38.043876358051058</v>
       </c>
-      <c r="AE36" s="793"/>
+      <c r="AE36" s="795"/>
       <c r="AF36" s="125" t="s">
         <v>7</v>
       </c>
@@ -29299,7 +29302,7 @@
       </c>
     </row>
     <row r="37" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="794"/>
+      <c r="A37" s="796"/>
       <c r="B37" s="177" t="s">
         <v>16</v>
       </c>
@@ -29330,7 +29333,7 @@
         <f>Indata!I37*(1+Indata!I38)</f>
         <v>99.5</v>
       </c>
-      <c r="K37" s="794"/>
+      <c r="K37" s="796"/>
       <c r="L37" s="177" t="s">
         <v>16</v>
       </c>
@@ -29361,7 +29364,7 @@
         <f t="shared" si="79"/>
         <v>99.5</v>
       </c>
-      <c r="U37" s="794"/>
+      <c r="U37" s="796"/>
       <c r="V37" s="177" t="s">
         <v>16</v>
       </c>
@@ -29392,7 +29395,7 @@
         <f t="shared" ref="AC37" si="80">SUM(AC34:AC36)</f>
         <v>100.11546410013436</v>
       </c>
-      <c r="AE37" s="794"/>
+      <c r="AE37" s="796"/>
       <c r="AF37" s="177" t="s">
         <v>16</v>
       </c>
@@ -29497,7 +29500,7 @@
       <c r="AM39" s="189"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="804" t="s">
+      <c r="A40" s="797" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="124" t="s">
@@ -29530,7 +29533,7 @@
         <f t="shared" si="84"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="K40" s="804" t="s">
+      <c r="K40" s="797" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="124" t="s">
@@ -29563,7 +29566,7 @@
         <f t="shared" si="85"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="U40" s="804" t="s">
+      <c r="U40" s="797" t="s">
         <v>77</v>
       </c>
       <c r="V40" s="124" t="s">
@@ -29596,7 +29599,7 @@
         <f t="shared" ref="AC40:AC42" si="90">S40</f>
         <v>20.490767763608162</v>
       </c>
-      <c r="AE40" s="804" t="s">
+      <c r="AE40" s="797" t="s">
         <v>77</v>
       </c>
       <c r="AF40" s="124" t="s">
@@ -29631,7 +29634,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="805"/>
+      <c r="A41" s="798"/>
       <c r="B41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29662,7 +29665,7 @@
         <f t="shared" si="84"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="K41" s="805"/>
+      <c r="K41" s="798"/>
       <c r="L41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29693,7 +29696,7 @@
         <f t="shared" si="85"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="U41" s="805"/>
+      <c r="U41" s="798"/>
       <c r="V41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29724,7 +29727,7 @@
         <f t="shared" si="90"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="AE41" s="805"/>
+      <c r="AE41" s="798"/>
       <c r="AF41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29757,7 +29760,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="805"/>
+      <c r="A42" s="798"/>
       <c r="B42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29788,7 +29791,7 @@
         <f t="shared" si="84"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="K42" s="805"/>
+      <c r="K42" s="798"/>
       <c r="L42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29819,7 +29822,7 @@
         <f t="shared" si="85"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="U42" s="805"/>
+      <c r="U42" s="798"/>
       <c r="V42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29850,7 +29853,7 @@
         <f t="shared" si="90"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="AE42" s="805"/>
+      <c r="AE42" s="798"/>
       <c r="AF42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29883,7 +29886,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="805"/>
+      <c r="A43" s="798"/>
       <c r="B43" s="175" t="s">
         <v>76</v>
       </c>
@@ -29912,7 +29915,7 @@
         <f t="shared" si="98"/>
         <v>19.250316494987008</v>
       </c>
-      <c r="K43" s="805"/>
+      <c r="K43" s="798"/>
       <c r="L43" s="175" t="s">
         <v>76</v>
       </c>
@@ -29943,7 +29946,7 @@
         <f t="shared" ref="S43" si="99">SUMPRODUCT(S40:S42,S34:S36)/S37</f>
         <v>19.250316494987008</v>
       </c>
-      <c r="U43" s="805"/>
+      <c r="U43" s="798"/>
       <c r="V43" s="175" t="s">
         <v>76</v>
       </c>
@@ -29974,7 +29977,7 @@
         <f t="shared" si="100"/>
         <v>19.250316494987008</v>
       </c>
-      <c r="AE43" s="805"/>
+      <c r="AE43" s="798"/>
       <c r="AF43" s="175" t="s">
         <v>76</v>
       </c>
@@ -30007,7 +30010,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="806"/>
+      <c r="A44" s="799"/>
       <c r="B44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30032,7 +30035,7 @@
       <c r="I44" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="806"/>
+      <c r="K44" s="799"/>
       <c r="L44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30063,7 +30066,7 @@
         <f>S43/E43-1</f>
         <v>-2.0590298791616446E-2</v>
       </c>
-      <c r="U44" s="806"/>
+      <c r="U44" s="799"/>
       <c r="V44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30094,7 +30097,7 @@
         <f>AC43/E43-1</f>
         <v>-2.0590298791616446E-2</v>
       </c>
-      <c r="AE44" s="806"/>
+      <c r="AE44" s="799"/>
       <c r="AF44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30202,7 +30205,7 @@
       <c r="AM46" s="75"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="807" t="s">
+      <c r="A47" s="800" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="659" t="s">
@@ -30235,7 +30238,7 @@
         <f>Indata!I39</f>
         <v>11648700</v>
       </c>
-      <c r="K47" s="807" t="s">
+      <c r="K47" s="800" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="659" t="s">
@@ -30268,7 +30271,7 @@
         <f t="shared" si="101"/>
         <v>11648700</v>
       </c>
-      <c r="U47" s="804" t="s">
+      <c r="U47" s="797" t="s">
         <v>29</v>
       </c>
       <c r="V47" s="124" t="s">
@@ -30301,7 +30304,7 @@
         <f t="shared" ref="AC47:AC49" si="106">S47</f>
         <v>11648700</v>
       </c>
-      <c r="AE47" s="804" t="s">
+      <c r="AE47" s="797" t="s">
         <v>29</v>
       </c>
       <c r="AF47" s="124" t="s">
@@ -30336,7 +30339,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48" s="808"/>
+      <c r="A48" s="801"/>
       <c r="B48" s="660" t="s">
         <v>645</v>
       </c>
@@ -30367,7 +30370,7 @@
         <f>Indata!I40</f>
         <v>0.52928701904391762</v>
       </c>
-      <c r="K48" s="808"/>
+      <c r="K48" s="801"/>
       <c r="L48" s="660" t="s">
         <v>646</v>
       </c>
@@ -30398,7 +30401,7 @@
         <f>(1+'Indata - Effektsamband-Faktorer'!$D$7*S44)*I51</f>
         <v>0.53037683683078141</v>
       </c>
-      <c r="U48" s="805"/>
+      <c r="U48" s="798"/>
       <c r="V48" s="125" t="s">
         <v>29</v>
       </c>
@@ -30429,7 +30432,7 @@
         <f t="shared" si="106"/>
         <v>0.53037683683078141</v>
       </c>
-      <c r="AE48" s="805"/>
+      <c r="AE48" s="798"/>
       <c r="AF48" s="125" t="s">
         <v>29</v>
       </c>
@@ -30462,7 +30465,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="808"/>
+      <c r="A49" s="801"/>
       <c r="B49" s="660" t="s">
         <v>647</v>
       </c>
@@ -30493,7 +30496,7 @@
         <f t="shared" si="112"/>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K49" s="808"/>
+      <c r="K49" s="801"/>
       <c r="L49" s="660" t="s">
         <v>644</v>
       </c>
@@ -30524,7 +30527,7 @@
         <f t="shared" si="113"/>
         <v>6178200.6591907237</v>
       </c>
-      <c r="U49" s="805"/>
+      <c r="U49" s="798"/>
       <c r="V49" s="125" t="s">
         <v>34</v>
       </c>
@@ -30555,7 +30558,7 @@
         <f t="shared" si="106"/>
         <v>6178200.6591907237</v>
       </c>
-      <c r="AE49" s="805"/>
+      <c r="AE49" s="798"/>
       <c r="AF49" s="125" t="s">
         <v>34</v>
       </c>
@@ -30588,7 +30591,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="808"/>
+      <c r="A50" s="801"/>
       <c r="B50" s="660" t="s">
         <v>644</v>
       </c>
@@ -30619,7 +30622,7 @@
         <f>I49*Indata!I$74*Indata!I$77+I49*(1-Indata!I$74)</f>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K50" s="809"/>
+      <c r="K50" s="802"/>
       <c r="L50" s="661" t="s">
         <v>229</v>
       </c>
@@ -30650,7 +30653,7 @@
         <f>S49/E50-1</f>
         <v>2.0590298791616224E-3</v>
       </c>
-      <c r="U50" s="806"/>
+      <c r="U50" s="799"/>
       <c r="V50" s="126" t="s">
         <v>229</v>
       </c>
@@ -30681,7 +30684,7 @@
         <f>AC49/E49-1</f>
         <v>2.0590298791616224E-3</v>
       </c>
-      <c r="AE50" s="806"/>
+      <c r="AE50" s="799"/>
       <c r="AF50" s="126" t="s">
         <v>229</v>
       </c>
@@ -30841,7 +30844,7 @@
       <c r="AA53" s="205"/>
       <c r="AB53" s="75"/>
       <c r="AC53" s="75"/>
-      <c r="AE53" s="792" t="s">
+      <c r="AE53" s="794" t="s">
         <v>264</v>
       </c>
       <c r="AF53" s="124" t="s">
@@ -30894,7 +30897,7 @@
       <c r="AA54" s="75"/>
       <c r="AB54" s="75"/>
       <c r="AC54" s="75"/>
-      <c r="AE54" s="793"/>
+      <c r="AE54" s="795"/>
       <c r="AF54" s="125" t="s">
         <v>9</v>
       </c>
@@ -30949,7 +30952,7 @@
       <c r="AA55" s="75"/>
       <c r="AB55" s="75"/>
       <c r="AC55" s="75"/>
-      <c r="AE55" s="793"/>
+      <c r="AE55" s="795"/>
       <c r="AF55" s="125" t="s">
         <v>7</v>
       </c>
@@ -31003,7 +31006,7 @@
       <c r="AA56" s="75"/>
       <c r="AB56" s="75"/>
       <c r="AC56" s="75"/>
-      <c r="AE56" s="794"/>
+      <c r="AE56" s="796"/>
       <c r="AF56" s="177" t="s">
         <v>16</v>
       </c>
@@ -31054,7 +31057,7 @@
       <c r="AA57" s="75"/>
       <c r="AB57" s="75"/>
       <c r="AC57" s="75"/>
-      <c r="AE57" s="792" t="s">
+      <c r="AE57" s="794" t="s">
         <v>271</v>
       </c>
       <c r="AF57" s="124" t="s">
@@ -31107,7 +31110,7 @@
       <c r="AA58" s="75"/>
       <c r="AB58" s="75"/>
       <c r="AC58" s="75"/>
-      <c r="AE58" s="793"/>
+      <c r="AE58" s="795"/>
       <c r="AF58" s="125" t="s">
         <v>9</v>
       </c>
@@ -31158,7 +31161,7 @@
       <c r="AA59" s="75"/>
       <c r="AB59" s="75"/>
       <c r="AC59" s="75"/>
-      <c r="AE59" s="793"/>
+      <c r="AE59" s="795"/>
       <c r="AF59" s="125" t="s">
         <v>7</v>
       </c>
@@ -31203,7 +31206,7 @@
       <c r="AA60" s="75"/>
       <c r="AB60" s="75"/>
       <c r="AC60" s="75"/>
-      <c r="AE60" s="794"/>
+      <c r="AE60" s="796"/>
       <c r="AF60" s="177" t="s">
         <v>16</v>
       </c>
@@ -31254,7 +31257,7 @@
       <c r="AA61" s="75"/>
       <c r="AB61" s="75"/>
       <c r="AC61" s="75"/>
-      <c r="AE61" s="792" t="s">
+      <c r="AE61" s="794" t="s">
         <v>265</v>
       </c>
       <c r="AF61" s="124" t="s">
@@ -31307,7 +31310,7 @@
       <c r="AA62" s="75"/>
       <c r="AB62" s="75"/>
       <c r="AC62" s="75"/>
-      <c r="AE62" s="793"/>
+      <c r="AE62" s="795"/>
       <c r="AF62" s="125" t="s">
         <v>9</v>
       </c>
@@ -31358,7 +31361,7 @@
       <c r="AA63" s="75"/>
       <c r="AB63" s="75"/>
       <c r="AC63" s="75"/>
-      <c r="AE63" s="793"/>
+      <c r="AE63" s="795"/>
       <c r="AF63" s="125" t="s">
         <v>7</v>
       </c>
@@ -31403,7 +31406,7 @@
       <c r="AA64" s="75"/>
       <c r="AB64" s="75"/>
       <c r="AC64" s="75"/>
-      <c r="AE64" s="794"/>
+      <c r="AE64" s="796"/>
       <c r="AF64" s="177" t="s">
         <v>16</v>
       </c>
@@ -31558,7 +31561,7 @@
       <c r="AA68" s="75"/>
       <c r="AB68" s="75"/>
       <c r="AC68" s="75"/>
-      <c r="AE68" s="792" t="s">
+      <c r="AE68" s="794" t="s">
         <v>129</v>
       </c>
       <c r="AF68" s="124" t="s">
@@ -31611,7 +31614,7 @@
       <c r="AA69" s="75"/>
       <c r="AB69" s="75"/>
       <c r="AC69" s="75"/>
-      <c r="AE69" s="793"/>
+      <c r="AE69" s="795"/>
       <c r="AF69" s="125" t="s">
         <v>96</v>
       </c>
@@ -31662,7 +31665,7 @@
       <c r="AA70" s="75"/>
       <c r="AB70" s="75"/>
       <c r="AC70" s="75"/>
-      <c r="AE70" s="793"/>
+      <c r="AE70" s="795"/>
       <c r="AF70" s="125" t="s">
         <v>97</v>
       </c>
@@ -31713,7 +31716,7 @@
       <c r="AA71" s="75"/>
       <c r="AB71" s="75"/>
       <c r="AC71" s="75"/>
-      <c r="AE71" s="793"/>
+      <c r="AE71" s="795"/>
       <c r="AF71" s="125" t="s">
         <v>99</v>
       </c>
@@ -31746,7 +31749,7 @@
       </c>
     </row>
     <row r="72" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE72" s="793"/>
+      <c r="AE72" s="795"/>
       <c r="AF72" s="125" t="s">
         <v>7</v>
       </c>
@@ -31779,7 +31782,7 @@
       </c>
     </row>
     <row r="73" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE73" s="793"/>
+      <c r="AE73" s="795"/>
       <c r="AF73" s="175" t="s">
         <v>130</v>
       </c>
@@ -31812,7 +31815,7 @@
       </c>
     </row>
     <row r="74" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE74" s="793"/>
+      <c r="AE74" s="795"/>
       <c r="AF74" s="175" t="s">
         <v>131</v>
       </c>
@@ -31845,7 +31848,7 @@
       </c>
     </row>
     <row r="75" spans="4:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE75" s="794"/>
+      <c r="AE75" s="796"/>
       <c r="AF75" s="177" t="s">
         <v>132</v>
       </c>
@@ -31891,7 +31894,7 @@
       <c r="AM77" s="38"/>
     </row>
     <row r="78" spans="4:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE78" s="792" t="s">
+      <c r="AE78" s="794" t="s">
         <v>231</v>
       </c>
       <c r="AF78" s="124" t="s">
@@ -31926,7 +31929,7 @@
       </c>
     </row>
     <row r="79" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE79" s="793"/>
+      <c r="AE79" s="795"/>
       <c r="AF79" s="125" t="s">
         <v>96</v>
       </c>
@@ -31959,7 +31962,7 @@
       </c>
     </row>
     <row r="80" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="AE80" s="793"/>
+      <c r="AE80" s="795"/>
       <c r="AF80" s="125" t="s">
         <v>97</v>
       </c>
@@ -31992,7 +31995,7 @@
       </c>
     </row>
     <row r="81" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE81" s="793"/>
+      <c r="AE81" s="795"/>
       <c r="AF81" s="125" t="s">
         <v>99</v>
       </c>
@@ -32025,7 +32028,7 @@
       </c>
     </row>
     <row r="82" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE82" s="793"/>
+      <c r="AE82" s="795"/>
       <c r="AF82" s="125" t="s">
         <v>7</v>
       </c>
@@ -32058,7 +32061,7 @@
       </c>
     </row>
     <row r="83" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE83" s="793"/>
+      <c r="AE83" s="795"/>
       <c r="AF83" s="175" t="s">
         <v>130</v>
       </c>
@@ -32091,7 +32094,7 @@
       </c>
     </row>
     <row r="84" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE84" s="793"/>
+      <c r="AE84" s="795"/>
       <c r="AF84" s="175" t="s">
         <v>131</v>
       </c>
@@ -32124,7 +32127,7 @@
       </c>
     </row>
     <row r="85" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE85" s="794"/>
+      <c r="AE85" s="796"/>
       <c r="AF85" s="177" t="s">
         <v>132</v>
       </c>
@@ -32157,7 +32160,7 @@
       </c>
     </row>
     <row r="86" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE86" s="792" t="s">
+      <c r="AE86" s="794" t="s">
         <v>198</v>
       </c>
       <c r="AF86" s="124" t="s">
@@ -32192,7 +32195,7 @@
       </c>
     </row>
     <row r="87" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE87" s="793"/>
+      <c r="AE87" s="795"/>
       <c r="AF87" s="125" t="s">
         <v>9</v>
       </c>
@@ -32225,7 +32228,7 @@
       </c>
     </row>
     <row r="88" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE88" s="793"/>
+      <c r="AE88" s="795"/>
       <c r="AF88" s="125" t="s">
         <v>7</v>
       </c>
@@ -32258,7 +32261,7 @@
       </c>
     </row>
     <row r="89" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE89" s="794"/>
+      <c r="AE89" s="796"/>
       <c r="AF89" s="177" t="s">
         <v>16</v>
       </c>
@@ -32292,19 +32295,35 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="AE57:AE60"/>
-    <mergeCell ref="AE61:AE64"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U40:U44"/>
-    <mergeCell ref="U47:U50"/>
-    <mergeCell ref="AE34:AE37"/>
-    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="AE86:AE89"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AE53:AE56"/>
+    <mergeCell ref="AE68:AE75"/>
+    <mergeCell ref="AE78:AE85"/>
+    <mergeCell ref="AE47:AE50"/>
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AE24:AE26"/>
+    <mergeCell ref="AE29:AE31"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE6:AE10"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="K47:K50"/>
     <mergeCell ref="H3:I3"/>
@@ -32321,35 +32340,19 @@
     <mergeCell ref="K24:K26"/>
     <mergeCell ref="K29:K31"/>
     <mergeCell ref="K13:K15"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE6:AE10"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="AE86:AE89"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AE53:AE56"/>
-    <mergeCell ref="AE68:AE75"/>
-    <mergeCell ref="AE78:AE85"/>
-    <mergeCell ref="AE47:AE50"/>
-    <mergeCell ref="AE18:AE21"/>
-    <mergeCell ref="AE24:AE26"/>
-    <mergeCell ref="AE29:AE31"/>
-    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AE57:AE60"/>
+    <mergeCell ref="AE61:AE64"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U40:U44"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="AE34:AE37"/>
+    <mergeCell ref="AE40:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32400,87 +32403,87 @@
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:39" s="310" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="789" t="s">
+      <c r="A3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="796" t="s">
+      <c r="B3" s="808" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="797"/>
-      <c r="D3" s="789" t="s">
+      <c r="C3" s="809"/>
+      <c r="D3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="790"/>
-      <c r="F3" s="789" t="s">
+      <c r="E3" s="792"/>
+      <c r="F3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="790"/>
-      <c r="H3" s="791" t="s">
+      <c r="G3" s="792"/>
+      <c r="H3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="790"/>
-      <c r="K3" s="789" t="s">
+      <c r="I3" s="792"/>
+      <c r="K3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="796" t="s">
+      <c r="L3" s="808" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="797"/>
-      <c r="N3" s="789" t="s">
+      <c r="M3" s="809"/>
+      <c r="N3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="790"/>
-      <c r="P3" s="789" t="s">
+      <c r="O3" s="792"/>
+      <c r="P3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="790"/>
-      <c r="R3" s="791" t="s">
+      <c r="Q3" s="792"/>
+      <c r="R3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="790"/>
-      <c r="U3" s="789" t="s">
+      <c r="S3" s="792"/>
+      <c r="U3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="796" t="s">
+      <c r="V3" s="808" t="s">
         <v>236</v>
       </c>
-      <c r="W3" s="797"/>
-      <c r="X3" s="789" t="s">
+      <c r="W3" s="809"/>
+      <c r="X3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="790"/>
-      <c r="Z3" s="789" t="s">
+      <c r="Y3" s="792"/>
+      <c r="Z3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="790"/>
-      <c r="AB3" s="791" t="s">
+      <c r="AA3" s="792"/>
+      <c r="AB3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="790"/>
-      <c r="AE3" s="789" t="s">
+      <c r="AC3" s="792"/>
+      <c r="AE3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="796" t="s">
+      <c r="AF3" s="808" t="s">
         <v>233</v>
       </c>
-      <c r="AG3" s="797"/>
-      <c r="AH3" s="789" t="s">
+      <c r="AG3" s="809"/>
+      <c r="AH3" s="791" t="s">
         <v>64</v>
       </c>
-      <c r="AI3" s="790"/>
-      <c r="AJ3" s="789" t="s">
+      <c r="AI3" s="792"/>
+      <c r="AJ3" s="791" t="s">
         <v>65</v>
       </c>
-      <c r="AK3" s="790"/>
-      <c r="AL3" s="791" t="s">
+      <c r="AK3" s="792"/>
+      <c r="AL3" s="793" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" s="790"/>
+      <c r="AM3" s="792"/>
     </row>
     <row r="4" spans="1:39" s="118" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="795"/>
-      <c r="B4" s="798"/>
-      <c r="C4" s="799"/>
+      <c r="A4" s="807"/>
+      <c r="B4" s="810"/>
+      <c r="C4" s="811"/>
       <c r="D4" s="253">
         <v>2030</v>
       </c>
@@ -32499,9 +32502,9 @@
       <c r="I4" s="254">
         <v>2040</v>
       </c>
-      <c r="K4" s="795"/>
-      <c r="L4" s="798"/>
-      <c r="M4" s="799"/>
+      <c r="K4" s="807"/>
+      <c r="L4" s="810"/>
+      <c r="M4" s="811"/>
       <c r="N4" s="253">
         <v>2030</v>
       </c>
@@ -32520,9 +32523,9 @@
       <c r="S4" s="254">
         <v>2040</v>
       </c>
-      <c r="U4" s="795"/>
-      <c r="V4" s="798"/>
-      <c r="W4" s="799"/>
+      <c r="U4" s="807"/>
+      <c r="V4" s="810"/>
+      <c r="W4" s="811"/>
       <c r="X4" s="253">
         <v>2030</v>
       </c>
@@ -32541,9 +32544,9 @@
       <c r="AC4" s="254">
         <v>2040</v>
       </c>
-      <c r="AE4" s="795"/>
-      <c r="AF4" s="798"/>
-      <c r="AG4" s="799"/>
+      <c r="AE4" s="807"/>
+      <c r="AF4" s="810"/>
+      <c r="AG4" s="811"/>
       <c r="AH4" s="253">
         <v>2030</v>
       </c>
@@ -32604,7 +32607,7 @@
       <c r="AM5" s="73"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="804" t="s">
+      <c r="A6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="124" t="s">
@@ -32637,7 +32640,7 @@
         <f>Indata!I58</f>
         <v>16.350158148247193</v>
       </c>
-      <c r="K6" s="804" t="s">
+      <c r="K6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="124" t="s">
@@ -32670,7 +32673,7 @@
         <f>'Modell - Drivmedelpriser'!J58</f>
         <v>16.350158148247193</v>
       </c>
-      <c r="U6" s="804" t="s">
+      <c r="U6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="124" t="s">
@@ -32703,7 +32706,7 @@
         <f t="shared" si="0"/>
         <v>16.350158148247193</v>
       </c>
-      <c r="AE6" s="804" t="s">
+      <c r="AE6" s="797" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="124" t="s">
@@ -32738,7 +32741,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="805"/>
+      <c r="A7" s="798"/>
       <c r="B7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32769,7 +32772,7 @@
         <f>Indata!I59</f>
         <v>1.4034</v>
       </c>
-      <c r="K7" s="805"/>
+      <c r="K7" s="798"/>
       <c r="L7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32800,7 +32803,7 @@
         <f>'Modell - Drivmedelpriser'!J84</f>
         <v>1.4034</v>
       </c>
-      <c r="U7" s="805"/>
+      <c r="U7" s="798"/>
       <c r="V7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32831,7 +32834,7 @@
         <f t="shared" si="0"/>
         <v>1.4034</v>
       </c>
-      <c r="AE7" s="805"/>
+      <c r="AE7" s="798"/>
       <c r="AF7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32864,7 +32867,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="806"/>
+      <c r="A8" s="799"/>
       <c r="B8" s="176" t="s">
         <v>239</v>
       </c>
@@ -32889,7 +32892,7 @@
       <c r="I8" s="275" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="806"/>
+      <c r="K8" s="799"/>
       <c r="L8" s="176" t="s">
         <v>239</v>
       </c>
@@ -32920,7 +32923,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U8" s="806"/>
+      <c r="U8" s="799"/>
       <c r="V8" s="176" t="s">
         <v>239</v>
       </c>
@@ -32951,7 +32954,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="806"/>
+      <c r="AE8" s="799"/>
       <c r="AF8" s="176" t="s">
         <v>239</v>
       </c>
@@ -33035,7 +33038,7 @@
       <c r="AM10" s="74"/>
     </row>
     <row r="11" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="792" t="s">
+      <c r="A11" s="794" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="124" t="s">
@@ -33068,7 +33071,7 @@
         <f>Indata!I46</f>
         <v>1.0975404858629165</v>
       </c>
-      <c r="K11" s="810" t="s">
+      <c r="K11" s="812" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="651" t="s">
@@ -33101,7 +33104,7 @@
         <f>I11*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)*(100%+S$8*'Indata - Effektsamband-Faktorer'!$D$6)*(1-Indata!I$20)</f>
         <v>1.0975404858629165</v>
       </c>
-      <c r="U11" s="792" t="s">
+      <c r="U11" s="794" t="s">
         <v>38</v>
       </c>
       <c r="V11" s="124" t="s">
@@ -33134,7 +33137,7 @@
         <f t="shared" si="10"/>
         <v>1.0975404858629165</v>
       </c>
-      <c r="AE11" s="792" t="s">
+      <c r="AE11" s="794" t="s">
         <v>38</v>
       </c>
       <c r="AF11" s="124" t="s">
@@ -33169,7 +33172,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="793"/>
+      <c r="A12" s="795"/>
       <c r="B12" s="125" t="s">
         <v>137</v>
       </c>
@@ -33200,7 +33203,7 @@
         <f>Indata!I47</f>
         <v>1.4301687678393367</v>
       </c>
-      <c r="K12" s="811"/>
+      <c r="K12" s="813"/>
       <c r="L12" s="652" t="s">
         <v>137</v>
       </c>
@@ -33231,7 +33234,7 @@
         <f>I12*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)*(100%+S$8*'Indata - Effektsamband-Faktorer'!$D$6)*(1-Indata!I$20)</f>
         <v>1.4301687678393367</v>
       </c>
-      <c r="U12" s="793"/>
+      <c r="U12" s="795"/>
       <c r="V12" s="125" t="s">
         <v>137</v>
       </c>
@@ -33262,7 +33265,7 @@
         <f t="shared" si="10"/>
         <v>1.4301687678393367</v>
       </c>
-      <c r="AE12" s="793"/>
+      <c r="AE12" s="795"/>
       <c r="AF12" s="125" t="s">
         <v>137</v>
       </c>
@@ -33295,7 +33298,7 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="793"/>
+      <c r="A13" s="795"/>
       <c r="B13" s="125" t="s">
         <v>138</v>
       </c>
@@ -33326,7 +33329,7 @@
         <f>Indata!I48</f>
         <v>1.7743995375527619</v>
       </c>
-      <c r="K13" s="811"/>
+      <c r="K13" s="813"/>
       <c r="L13" s="652" t="s">
         <v>138</v>
       </c>
@@ -33357,7 +33360,7 @@
         <f>I13*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)*(100%+S$8*'Indata - Effektsamband-Faktorer'!$D$6)*(1-Indata!I$20)</f>
         <v>1.7743995375527619</v>
       </c>
-      <c r="U13" s="793"/>
+      <c r="U13" s="795"/>
       <c r="V13" s="125" t="s">
         <v>138</v>
       </c>
@@ -33388,7 +33391,7 @@
         <f t="shared" si="10"/>
         <v>1.7743995375527619</v>
       </c>
-      <c r="AE13" s="793"/>
+      <c r="AE13" s="795"/>
       <c r="AF13" s="125" t="s">
         <v>138</v>
       </c>
@@ -33421,7 +33424,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="793"/>
+      <c r="A14" s="795"/>
       <c r="B14" s="125" t="s">
         <v>139</v>
       </c>
@@ -33452,7 +33455,7 @@
         <f>Indata!I49</f>
         <v>2.3008116808806713</v>
       </c>
-      <c r="K14" s="811"/>
+      <c r="K14" s="813"/>
       <c r="L14" s="652" t="s">
         <v>139</v>
       </c>
@@ -33483,7 +33486,7 @@
         <f>I14*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)*(100%+S$8*'Indata - Effektsamband-Faktorer'!$D$6)*(1-Indata!I$20)</f>
         <v>2.3008116808806713</v>
       </c>
-      <c r="U14" s="793"/>
+      <c r="U14" s="795"/>
       <c r="V14" s="125" t="s">
         <v>139</v>
       </c>
@@ -33514,7 +33517,7 @@
         <f t="shared" si="10"/>
         <v>2.3008116808806713</v>
       </c>
-      <c r="AE14" s="793"/>
+      <c r="AE14" s="795"/>
       <c r="AF14" s="125" t="s">
         <v>139</v>
       </c>
@@ -33547,7 +33550,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="793"/>
+      <c r="A15" s="795"/>
       <c r="B15" s="175" t="s">
         <v>140</v>
       </c>
@@ -33578,7 +33581,7 @@
         <f t="shared" si="17"/>
         <v>2.0479699429183946</v>
       </c>
-      <c r="K15" s="811"/>
+      <c r="K15" s="813"/>
       <c r="L15" s="653" t="s">
         <v>140</v>
       </c>
@@ -33609,7 +33612,7 @@
         <f t="shared" si="18"/>
         <v>2.0479699429183946</v>
       </c>
-      <c r="U15" s="793"/>
+      <c r="U15" s="795"/>
       <c r="V15" s="175" t="s">
         <v>140</v>
       </c>
@@ -33640,7 +33643,7 @@
         <f t="shared" si="19"/>
         <v>2.0479699429183946</v>
       </c>
-      <c r="AE15" s="793"/>
+      <c r="AE15" s="795"/>
       <c r="AF15" s="175" t="s">
         <v>140</v>
       </c>
@@ -33673,7 +33676,7 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="793"/>
+      <c r="A16" s="795"/>
       <c r="B16" s="125" t="s">
         <v>141</v>
       </c>
@@ -33704,7 +33707,7 @@
         <f>Indata!I50</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="K16" s="811"/>
+      <c r="K16" s="813"/>
       <c r="L16" s="652" t="s">
         <v>141</v>
       </c>
@@ -33735,7 +33738,7 @@
         <f>I16*(1-Indata!I$20)*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="U16" s="793"/>
+      <c r="U16" s="795"/>
       <c r="V16" s="125" t="s">
         <v>141</v>
       </c>
@@ -33766,7 +33769,7 @@
         <f t="shared" si="21"/>
         <v>8.4732522945626005</v>
       </c>
-      <c r="AE16" s="793"/>
+      <c r="AE16" s="795"/>
       <c r="AF16" s="125" t="s">
         <v>141</v>
       </c>
@@ -33799,7 +33802,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="793"/>
+      <c r="A17" s="795"/>
       <c r="B17" s="125" t="s">
         <v>142</v>
       </c>
@@ -33830,7 +33833,7 @@
         <f>Indata!I51</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="K17" s="811"/>
+      <c r="K17" s="813"/>
       <c r="L17" s="652" t="s">
         <v>142</v>
       </c>
@@ -33861,7 +33864,7 @@
         <f>I17*(1-Indata!I$20)*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>8.4732522945626005</v>
       </c>
-      <c r="U17" s="793"/>
+      <c r="U17" s="795"/>
       <c r="V17" s="125" t="s">
         <v>142</v>
       </c>
@@ -33892,7 +33895,7 @@
         <f t="shared" si="21"/>
         <v>8.4732522945626005</v>
       </c>
-      <c r="AE17" s="793"/>
+      <c r="AE17" s="795"/>
       <c r="AF17" s="125" t="s">
         <v>142</v>
       </c>
@@ -33925,7 +33928,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="793"/>
+      <c r="A18" s="795"/>
       <c r="B18" s="125" t="s">
         <v>143</v>
       </c>
@@ -33956,7 +33959,7 @@
         <f>Indata!I52</f>
         <v>13.374188060932356</v>
       </c>
-      <c r="K18" s="811"/>
+      <c r="K18" s="813"/>
       <c r="L18" s="652" t="s">
         <v>143</v>
       </c>
@@ -33987,7 +33990,7 @@
         <f>I18*(1-Indata!I$20)*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>13.374188060932356</v>
       </c>
-      <c r="U18" s="793"/>
+      <c r="U18" s="795"/>
       <c r="V18" s="125" t="s">
         <v>143</v>
       </c>
@@ -34018,7 +34021,7 @@
         <f t="shared" si="21"/>
         <v>13.374188060932356</v>
       </c>
-      <c r="AE18" s="793"/>
+      <c r="AE18" s="795"/>
       <c r="AF18" s="125" t="s">
         <v>143</v>
       </c>
@@ -34051,7 +34054,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="793"/>
+      <c r="A19" s="795"/>
       <c r="B19" s="125" t="s">
         <v>144</v>
       </c>
@@ -34082,7 +34085,7 @@
         <f>Indata!I53</f>
         <v>15.182448650666799</v>
       </c>
-      <c r="K19" s="811"/>
+      <c r="K19" s="813"/>
       <c r="L19" s="652" t="s">
         <v>144</v>
       </c>
@@ -34113,7 +34116,7 @@
         <f>I19*(1-Indata!I$20)*(1+Indata!I$72*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>15.182448650666799</v>
       </c>
-      <c r="U19" s="793"/>
+      <c r="U19" s="795"/>
       <c r="V19" s="125" t="s">
         <v>144</v>
       </c>
@@ -34144,7 +34147,7 @@
         <f t="shared" si="21"/>
         <v>15.182448650666799</v>
       </c>
-      <c r="AE19" s="793"/>
+      <c r="AE19" s="795"/>
       <c r="AF19" s="125" t="s">
         <v>144</v>
       </c>
@@ -34177,7 +34180,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="794"/>
+      <c r="A20" s="796"/>
       <c r="B20" s="177" t="s">
         <v>145</v>
       </c>
@@ -34208,7 +34211,7 @@
         <f t="shared" si="28"/>
         <v>14.069098336087091</v>
       </c>
-      <c r="K20" s="812"/>
+      <c r="K20" s="814"/>
       <c r="L20" s="655" t="s">
         <v>145</v>
       </c>
@@ -34239,7 +34242,7 @@
         <f t="shared" si="29"/>
         <v>14.069098336087091</v>
       </c>
-      <c r="U20" s="794"/>
+      <c r="U20" s="796"/>
       <c r="V20" s="177" t="s">
         <v>145</v>
       </c>
@@ -34270,7 +34273,7 @@
         <f t="shared" si="30"/>
         <v>14.069098336087091</v>
       </c>
-      <c r="AE20" s="794"/>
+      <c r="AE20" s="796"/>
       <c r="AF20" s="177" t="s">
         <v>145</v>
       </c>
@@ -34381,7 +34384,7 @@
       <c r="AM22" s="63"/>
     </row>
     <row r="23" spans="1:39" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="792" t="s">
+      <c r="A23" s="794" t="s">
         <v>148</v>
       </c>
       <c r="B23" s="124" t="s">
@@ -34414,7 +34417,7 @@
         <f>Indata!I42</f>
         <v>0.3</v>
       </c>
-      <c r="K23" s="813" t="s">
+      <c r="K23" s="815" t="s">
         <v>148</v>
       </c>
       <c r="L23" s="746" t="s">
@@ -34447,7 +34450,7 @@
         <f>(MIN(I23+(1-I23)*'Indata - Effektsamband-Faktorer'!$E$10*S$8,1))</f>
         <v>0.3</v>
       </c>
-      <c r="U23" s="792" t="s">
+      <c r="U23" s="794" t="s">
         <v>148</v>
       </c>
       <c r="V23" s="124" t="s">
@@ -34480,7 +34483,7 @@
         <f t="shared" si="32"/>
         <v>0.3</v>
       </c>
-      <c r="AE23" s="792" t="s">
+      <c r="AE23" s="794" t="s">
         <v>148</v>
       </c>
       <c r="AF23" s="124" t="s">
@@ -34515,7 +34518,7 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="793"/>
+      <c r="A24" s="795"/>
       <c r="B24" s="125" t="s">
         <v>116</v>
       </c>
@@ -34546,7 +34549,7 @@
         <f>Indata!I43</f>
         <v>0.3</v>
       </c>
-      <c r="K24" s="814"/>
+      <c r="K24" s="816"/>
       <c r="L24" s="747" t="s">
         <v>116</v>
       </c>
@@ -34577,7 +34580,7 @@
         <f>(MIN(I24+(1-I24)*'Indata - Effektsamband-Faktorer'!$E$10*S$8,1))</f>
         <v>0.3</v>
       </c>
-      <c r="U24" s="793"/>
+      <c r="U24" s="795"/>
       <c r="V24" s="125" t="s">
         <v>116</v>
       </c>
@@ -34608,7 +34611,7 @@
         <f t="shared" si="32"/>
         <v>0.3</v>
       </c>
-      <c r="AE24" s="793"/>
+      <c r="AE24" s="795"/>
       <c r="AF24" s="125" t="s">
         <v>116</v>
       </c>
@@ -34641,7 +34644,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="793"/>
+      <c r="A25" s="795"/>
       <c r="B25" s="125" t="s">
         <v>117</v>
       </c>
@@ -34672,7 +34675,7 @@
         <f>Indata!I44</f>
         <v>0.3</v>
       </c>
-      <c r="K25" s="814"/>
+      <c r="K25" s="816"/>
       <c r="L25" s="747" t="s">
         <v>117</v>
       </c>
@@ -34703,7 +34706,7 @@
         <f>(MIN(I25+(1-I25)*'Indata - Effektsamband-Faktorer'!$E$10*S$8,1))</f>
         <v>0.3</v>
       </c>
-      <c r="U25" s="793"/>
+      <c r="U25" s="795"/>
       <c r="V25" s="125" t="s">
         <v>117</v>
       </c>
@@ -34734,7 +34737,7 @@
         <f t="shared" si="32"/>
         <v>0.3</v>
       </c>
-      <c r="AE25" s="793"/>
+      <c r="AE25" s="795"/>
       <c r="AF25" s="125" t="s">
         <v>117</v>
       </c>
@@ -34767,7 +34770,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="794"/>
+      <c r="A26" s="796"/>
       <c r="B26" s="126" t="s">
         <v>118</v>
       </c>
@@ -34798,7 +34801,7 @@
         <f>Indata!I45</f>
         <v>0.3</v>
       </c>
-      <c r="K26" s="815"/>
+      <c r="K26" s="817"/>
       <c r="L26" s="748" t="s">
         <v>118</v>
       </c>
@@ -34829,7 +34832,7 @@
         <f>(MIN(I26+(1-I26)*'Indata - Effektsamband-Faktorer'!$E$10*S$8,1))</f>
         <v>0.3</v>
       </c>
-      <c r="U26" s="794"/>
+      <c r="U26" s="796"/>
       <c r="V26" s="126" t="s">
         <v>118</v>
       </c>
@@ -34860,7 +34863,7 @@
         <f t="shared" si="32"/>
         <v>0.3</v>
       </c>
-      <c r="AE26" s="794"/>
+      <c r="AE26" s="796"/>
       <c r="AF26" s="126" t="s">
         <v>118</v>
       </c>
@@ -34962,7 +34965,7 @@
       <c r="AM28" s="74"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="804" t="s">
+      <c r="A29" s="797" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="124" t="s">
@@ -34995,7 +34998,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K29" s="804" t="s">
+      <c r="K29" s="797" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="124" t="s">
@@ -35028,7 +35031,7 @@
         <f t="shared" ref="S29:S32" si="43">I29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="804" t="s">
+      <c r="U29" s="797" t="s">
         <v>21</v>
       </c>
       <c r="V29" s="124" t="s">
@@ -35061,7 +35064,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="804" t="s">
+      <c r="AE29" s="797" t="s">
         <v>21</v>
       </c>
       <c r="AF29" s="124" t="s">
@@ -35096,7 +35099,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="805"/>
+      <c r="A30" s="798"/>
       <c r="B30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35127,7 +35130,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K30" s="805"/>
+      <c r="K30" s="798"/>
       <c r="L30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35158,7 +35161,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U30" s="805"/>
+      <c r="U30" s="798"/>
       <c r="V30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35189,7 +35192,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="805"/>
+      <c r="AE30" s="798"/>
       <c r="AF30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35222,7 +35225,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="805"/>
+      <c r="A31" s="798"/>
       <c r="B31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35253,7 +35256,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="805"/>
+      <c r="K31" s="798"/>
       <c r="L31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35284,7 +35287,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U31" s="805"/>
+      <c r="U31" s="798"/>
       <c r="V31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35315,7 +35318,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="805"/>
+      <c r="AE31" s="798"/>
       <c r="AF31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35348,7 +35351,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="806"/>
+      <c r="A32" s="799"/>
       <c r="B32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35379,7 +35382,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K32" s="806"/>
+      <c r="K32" s="799"/>
       <c r="L32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35410,7 +35413,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U32" s="806"/>
+      <c r="U32" s="799"/>
       <c r="V32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35441,7 +35444,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="806"/>
+      <c r="AE32" s="799"/>
       <c r="AF32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35554,7 +35557,7 @@
       <c r="AM35" s="38"/>
     </row>
     <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="792" t="s">
+      <c r="A36" s="794" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="124" t="s">
@@ -35587,7 +35590,7 @@
         <f>Indata!I61*(1+Indata!I$65)*(1-I23)</f>
         <v>0.18071916502918375</v>
       </c>
-      <c r="K36" s="813" t="s">
+      <c r="K36" s="815" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="746" t="s">
@@ -35620,7 +35623,7 @@
         <f>I46*(1-S23)</f>
         <v>0.18071916502918375</v>
       </c>
-      <c r="U36" s="792" t="s">
+      <c r="U36" s="794" t="s">
         <v>17</v>
       </c>
       <c r="V36" s="124" t="s">
@@ -35653,7 +35656,7 @@
         <f t="shared" ref="AC36:AC49" si="58">S36/S$50*AC$50</f>
         <v>0.18455940234999083</v>
       </c>
-      <c r="AE36" s="792" t="s">
+      <c r="AE36" s="794" t="s">
         <v>17</v>
       </c>
       <c r="AF36" s="124" t="s">
@@ -35688,7 +35691,7 @@
       </c>
     </row>
     <row r="37" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="793"/>
+      <c r="A37" s="795"/>
       <c r="B37" s="125" t="s">
         <v>137</v>
       </c>
@@ -35719,7 +35722,7 @@
         <f>Indata!I62*(1+Indata!I$65)*(1-I24)</f>
         <v>0.19669678556847037</v>
       </c>
-      <c r="K37" s="814"/>
+      <c r="K37" s="816"/>
       <c r="L37" s="747" t="s">
         <v>137</v>
       </c>
@@ -35750,7 +35753,7 @@
         <f t="shared" ref="S37:S39" si="61">I47*(1-S24)</f>
         <v>0.19669678556847037</v>
       </c>
-      <c r="U37" s="793"/>
+      <c r="U37" s="795"/>
       <c r="V37" s="125" t="s">
         <v>137</v>
       </c>
@@ -35781,7 +35784,7 @@
         <f t="shared" si="58"/>
         <v>0.20087654335288047</v>
       </c>
-      <c r="AE37" s="793"/>
+      <c r="AE37" s="795"/>
       <c r="AF37" s="125" t="s">
         <v>137</v>
       </c>
@@ -35814,7 +35817,7 @@
       </c>
     </row>
     <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="793"/>
+      <c r="A38" s="795"/>
       <c r="B38" s="125" t="s">
         <v>138</v>
       </c>
@@ -35845,7 +35848,7 @@
         <f>Indata!I63*(1+Indata!I$65)*(1-I25)</f>
         <v>1.6098115691862915</v>
       </c>
-      <c r="K38" s="814"/>
+      <c r="K38" s="816"/>
       <c r="L38" s="747" t="s">
         <v>138</v>
       </c>
@@ -35876,7 +35879,7 @@
         <f t="shared" si="61"/>
         <v>1.6098115691862915</v>
       </c>
-      <c r="U38" s="793"/>
+      <c r="U38" s="795"/>
       <c r="V38" s="125" t="s">
         <v>138</v>
       </c>
@@ -35907,7 +35910,7 @@
         <f t="shared" si="58"/>
         <v>1.6440196647496914</v>
       </c>
-      <c r="AE38" s="793"/>
+      <c r="AE38" s="795"/>
       <c r="AF38" s="125" t="s">
         <v>138</v>
       </c>
@@ -35940,7 +35943,7 @@
       </c>
     </row>
     <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="793"/>
+      <c r="A39" s="795"/>
       <c r="B39" s="125" t="s">
         <v>139</v>
       </c>
@@ -35971,7 +35974,7 @@
         <f>Indata!I64*(1+Indata!I$65)*(1-I26)</f>
         <v>2.9017247413902933</v>
       </c>
-      <c r="K39" s="814"/>
+      <c r="K39" s="816"/>
       <c r="L39" s="747" t="s">
         <v>139</v>
       </c>
@@ -36002,7 +36005,7 @@
         <f t="shared" si="61"/>
         <v>2.9017247413902933</v>
       </c>
-      <c r="U39" s="793"/>
+      <c r="U39" s="795"/>
       <c r="V39" s="125" t="s">
         <v>139</v>
       </c>
@@ -36033,7 +36036,7 @@
         <f t="shared" si="58"/>
         <v>2.9633856706270834</v>
       </c>
-      <c r="AE39" s="793"/>
+      <c r="AE39" s="795"/>
       <c r="AF39" s="125" t="s">
         <v>139</v>
       </c>
@@ -36066,7 +36069,7 @@
       </c>
     </row>
     <row r="40" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="793"/>
+      <c r="A40" s="795"/>
       <c r="B40" s="175" t="s">
         <v>159</v>
       </c>
@@ -36097,7 +36100,7 @@
         <f t="shared" si="63"/>
         <v>4.8889522611742393</v>
       </c>
-      <c r="K40" s="814"/>
+      <c r="K40" s="816"/>
       <c r="L40" s="756" t="s">
         <v>159</v>
       </c>
@@ -36128,7 +36131,7 @@
         <f t="shared" ref="S40" si="68">SUM(S36:S39)</f>
         <v>4.8889522611742393</v>
       </c>
-      <c r="U40" s="793"/>
+      <c r="U40" s="795"/>
       <c r="V40" s="175" t="s">
         <v>159</v>
       </c>
@@ -36159,7 +36162,7 @@
         <f t="shared" si="58"/>
         <v>4.9928412810796461</v>
       </c>
-      <c r="AE40" s="793"/>
+      <c r="AE40" s="795"/>
       <c r="AF40" s="175" t="s">
         <v>159</v>
       </c>
@@ -36192,7 +36195,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="793"/>
+      <c r="A41" s="795"/>
       <c r="B41" s="125" t="s">
         <v>141</v>
       </c>
@@ -36223,7 +36226,7 @@
         <f>Indata!I61*(1+Indata!I$65)*(I23)</f>
         <v>7.7451070726793039E-2</v>
       </c>
-      <c r="K41" s="814"/>
+      <c r="K41" s="816"/>
       <c r="L41" s="747" t="s">
         <v>141</v>
       </c>
@@ -36254,7 +36257,7 @@
         <f>I46*S23</f>
         <v>7.7451070726793039E-2</v>
       </c>
-      <c r="U41" s="793"/>
+      <c r="U41" s="795"/>
       <c r="V41" s="125" t="s">
         <v>141</v>
       </c>
@@ -36285,7 +36288,7 @@
         <f t="shared" si="58"/>
         <v>7.9096886721424634E-2</v>
       </c>
-      <c r="AE41" s="793"/>
+      <c r="AE41" s="795"/>
       <c r="AF41" s="125" t="s">
         <v>141</v>
       </c>
@@ -36318,7 +36321,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="793"/>
+      <c r="A42" s="795"/>
       <c r="B42" s="125" t="s">
         <v>142</v>
       </c>
@@ -36349,7 +36352,7 @@
         <f>Indata!I62*(1+Indata!I$65)*(I24)</f>
         <v>8.4298622386487304E-2</v>
       </c>
-      <c r="K42" s="814"/>
+      <c r="K42" s="816"/>
       <c r="L42" s="747" t="s">
         <v>142</v>
       </c>
@@ -36380,7 +36383,7 @@
         <f t="shared" ref="S42:S44" si="76">I47*S24</f>
         <v>8.4298622386487304E-2</v>
       </c>
-      <c r="U42" s="793"/>
+      <c r="U42" s="795"/>
       <c r="V42" s="125" t="s">
         <v>142</v>
       </c>
@@ -36411,7 +36414,7 @@
         <f t="shared" si="58"/>
         <v>8.6089947151234497E-2</v>
       </c>
-      <c r="AE42" s="793"/>
+      <c r="AE42" s="795"/>
       <c r="AF42" s="125" t="s">
         <v>142</v>
       </c>
@@ -36444,7 +36447,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="793"/>
+      <c r="A43" s="795"/>
       <c r="B43" s="125" t="s">
         <v>143</v>
       </c>
@@ -36475,7 +36478,7 @@
         <f>Indata!I63*(1+Indata!I$65)*(I25)</f>
         <v>0.68991924393698212</v>
       </c>
-      <c r="K43" s="814"/>
+      <c r="K43" s="816"/>
       <c r="L43" s="747" t="s">
         <v>143</v>
       </c>
@@ -36506,7 +36509,7 @@
         <f t="shared" si="76"/>
         <v>0.68991924393698212</v>
       </c>
-      <c r="U43" s="793"/>
+      <c r="U43" s="795"/>
       <c r="V43" s="125" t="s">
         <v>143</v>
       </c>
@@ -36537,7 +36540,7 @@
         <f t="shared" si="58"/>
         <v>0.70457985632129638</v>
       </c>
-      <c r="AE43" s="793"/>
+      <c r="AE43" s="795"/>
       <c r="AF43" s="125" t="s">
         <v>143</v>
       </c>
@@ -36570,7 +36573,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="793"/>
+      <c r="A44" s="795"/>
       <c r="B44" s="125" t="s">
         <v>144</v>
       </c>
@@ -36601,7 +36604,7 @@
         <f>Indata!I64*(1+Indata!I$65)*(I26)</f>
         <v>1.2435963177386971</v>
       </c>
-      <c r="K44" s="814"/>
+      <c r="K44" s="816"/>
       <c r="L44" s="747" t="s">
         <v>144</v>
       </c>
@@ -36632,7 +36635,7 @@
         <f t="shared" si="76"/>
         <v>1.2435963177386971</v>
       </c>
-      <c r="U44" s="793"/>
+      <c r="U44" s="795"/>
       <c r="V44" s="125" t="s">
         <v>144</v>
       </c>
@@ -36663,7 +36666,7 @@
         <f t="shared" si="58"/>
         <v>1.2700224302687497</v>
       </c>
-      <c r="AE44" s="793"/>
+      <c r="AE44" s="795"/>
       <c r="AF44" s="125" t="s">
         <v>144</v>
       </c>
@@ -36696,7 +36699,7 @@
       </c>
     </row>
     <row r="45" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="793"/>
+      <c r="A45" s="795"/>
       <c r="B45" s="175" t="s">
         <v>160</v>
       </c>
@@ -36727,7 +36730,7 @@
         <f t="shared" si="77"/>
         <v>2.0952652547889596</v>
       </c>
-      <c r="K45" s="814"/>
+      <c r="K45" s="816"/>
       <c r="L45" s="756" t="s">
         <v>160</v>
       </c>
@@ -36758,7 +36761,7 @@
         <f t="shared" ref="S45" si="82">SUM(S41:S44)</f>
         <v>2.0952652547889596</v>
       </c>
-      <c r="U45" s="793"/>
+      <c r="U45" s="795"/>
       <c r="V45" s="175" t="s">
         <v>160</v>
       </c>
@@ -36789,7 +36792,7 @@
         <f t="shared" si="58"/>
         <v>2.1397891204627051</v>
       </c>
-      <c r="AE45" s="793"/>
+      <c r="AE45" s="795"/>
       <c r="AF45" s="175" t="s">
         <v>160</v>
       </c>
@@ -36822,7 +36825,7 @@
       </c>
     </row>
     <row r="46" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="793"/>
+      <c r="A46" s="795"/>
       <c r="B46" s="125" t="s">
         <v>161</v>
       </c>
@@ -36853,7 +36856,7 @@
         <f t="shared" si="87"/>
         <v>0.25817023575597681</v>
       </c>
-      <c r="K46" s="814"/>
+      <c r="K46" s="816"/>
       <c r="L46" s="747" t="s">
         <v>161</v>
       </c>
@@ -36884,7 +36887,7 @@
         <f t="shared" si="88"/>
         <v>0.25817023575597681</v>
       </c>
-      <c r="U46" s="793"/>
+      <c r="U46" s="795"/>
       <c r="V46" s="125" t="s">
         <v>161</v>
       </c>
@@ -36915,7 +36918,7 @@
         <f t="shared" si="58"/>
         <v>0.26365628907141547</v>
       </c>
-      <c r="AE46" s="793"/>
+      <c r="AE46" s="795"/>
       <c r="AF46" s="125" t="s">
         <v>161</v>
       </c>
@@ -36948,7 +36951,7 @@
       </c>
     </row>
     <row r="47" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="793"/>
+      <c r="A47" s="795"/>
       <c r="B47" s="125" t="s">
         <v>162</v>
       </c>
@@ -36979,7 +36982,7 @@
         <f t="shared" si="90"/>
         <v>0.2809954079549577</v>
       </c>
-      <c r="K47" s="814"/>
+      <c r="K47" s="816"/>
       <c r="L47" s="747" t="s">
         <v>162</v>
       </c>
@@ -37010,7 +37013,7 @@
         <f t="shared" si="91"/>
         <v>0.2809954079549577</v>
       </c>
-      <c r="U47" s="793"/>
+      <c r="U47" s="795"/>
       <c r="V47" s="125" t="s">
         <v>162</v>
       </c>
@@ -37041,7 +37044,7 @@
         <f t="shared" si="58"/>
         <v>0.28696649050411499</v>
       </c>
-      <c r="AE47" s="793"/>
+      <c r="AE47" s="795"/>
       <c r="AF47" s="125" t="s">
         <v>162</v>
       </c>
@@ -37074,7 +37077,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="793"/>
+      <c r="A48" s="795"/>
       <c r="B48" s="125" t="s">
         <v>163</v>
       </c>
@@ -37105,7 +37108,7 @@
         <f t="shared" si="93"/>
         <v>2.2997308131232739</v>
       </c>
-      <c r="K48" s="814"/>
+      <c r="K48" s="816"/>
       <c r="L48" s="747" t="s">
         <v>163</v>
       </c>
@@ -37136,7 +37139,7 @@
         <f t="shared" si="94"/>
         <v>2.2997308131232739</v>
       </c>
-      <c r="U48" s="793"/>
+      <c r="U48" s="795"/>
       <c r="V48" s="125" t="s">
         <v>163</v>
       </c>
@@ -37167,7 +37170,7 @@
         <f t="shared" si="58"/>
         <v>2.3485995210709882</v>
       </c>
-      <c r="AE48" s="793"/>
+      <c r="AE48" s="795"/>
       <c r="AF48" s="125" t="s">
         <v>163</v>
       </c>
@@ -37200,7 +37203,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="793"/>
+      <c r="A49" s="795"/>
       <c r="B49" s="125" t="s">
         <v>164</v>
       </c>
@@ -37231,7 +37234,7 @@
         <f t="shared" si="96"/>
         <v>4.1453210591289906</v>
       </c>
-      <c r="K49" s="814"/>
+      <c r="K49" s="816"/>
       <c r="L49" s="747" t="s">
         <v>164</v>
       </c>
@@ -37262,7 +37265,7 @@
         <f t="shared" si="97"/>
         <v>4.1453210591289906</v>
       </c>
-      <c r="U49" s="793"/>
+      <c r="U49" s="795"/>
       <c r="V49" s="125" t="s">
         <v>164</v>
       </c>
@@ -37293,7 +37296,7 @@
         <f t="shared" si="58"/>
         <v>4.2334081008958329</v>
       </c>
-      <c r="AE49" s="793"/>
+      <c r="AE49" s="795"/>
       <c r="AF49" s="125" t="s">
         <v>164</v>
       </c>
@@ -37326,7 +37329,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="794"/>
+      <c r="A50" s="796"/>
       <c r="B50" s="177" t="s">
         <v>165</v>
       </c>
@@ -37357,7 +37360,7 @@
         <f t="shared" si="99"/>
         <v>6.9842175159631985</v>
       </c>
-      <c r="K50" s="815"/>
+      <c r="K50" s="817"/>
       <c r="L50" s="757" t="s">
         <v>165</v>
       </c>
@@ -37388,7 +37391,7 @@
         <f t="shared" ref="S50" si="103">SUM(S46:S49)</f>
         <v>6.9842175159631985</v>
       </c>
-      <c r="U50" s="794"/>
+      <c r="U50" s="796"/>
       <c r="V50" s="177" t="s">
         <v>165</v>
       </c>
@@ -37419,7 +37422,7 @@
         <f>S50*(1+S$86*'Indata - Effektsamband-Faktorer'!$E$9)</f>
         <v>7.1326304015423512</v>
       </c>
-      <c r="AE50" s="794"/>
+      <c r="AE50" s="796"/>
       <c r="AF50" s="177" t="s">
         <v>165</v>
       </c>
@@ -37522,7 +37525,7 @@
       <c r="AM52" s="649"/>
     </row>
     <row r="53" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="810" t="s">
+      <c r="A53" s="812" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="651" t="s">
@@ -37555,7 +37558,7 @@
         <f>D53</f>
         <v>171.96222222222224</v>
       </c>
-      <c r="K53" s="810" t="s">
+      <c r="K53" s="812" t="s">
         <v>77</v>
       </c>
       <c r="L53" s="651" t="s">
@@ -37588,7 +37591,7 @@
         <f>Indata!I54*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>171.96222222222224</v>
       </c>
-      <c r="U53" s="810" t="s">
+      <c r="U53" s="812" t="s">
         <v>77</v>
       </c>
       <c r="V53" s="651" t="s">
@@ -37621,7 +37624,7 @@
         <f t="shared" si="109"/>
         <v>171.96222222222224</v>
       </c>
-      <c r="AE53" s="810" t="s">
+      <c r="AE53" s="812" t="s">
         <v>77</v>
       </c>
       <c r="AF53" s="651" t="s">
@@ -37656,7 +37659,7 @@
       </c>
     </row>
     <row r="54" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="811"/>
+      <c r="A54" s="813"/>
       <c r="B54" s="652" t="s">
         <v>137</v>
       </c>
@@ -37687,7 +37690,7 @@
         <f t="shared" ref="I54:I56" si="119">D54</f>
         <v>151.47333333333327</v>
       </c>
-      <c r="K54" s="811"/>
+      <c r="K54" s="813"/>
       <c r="L54" s="652" t="s">
         <v>137</v>
       </c>
@@ -37718,7 +37721,7 @@
         <f>Indata!I55*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>151.47333333333327</v>
       </c>
-      <c r="U54" s="811"/>
+      <c r="U54" s="813"/>
       <c r="V54" s="652" t="s">
         <v>137</v>
       </c>
@@ -37749,7 +37752,7 @@
         <f t="shared" ref="AC54:AC56" si="125">S54</f>
         <v>151.47333333333327</v>
       </c>
-      <c r="AE54" s="811"/>
+      <c r="AE54" s="813"/>
       <c r="AF54" s="652" t="s">
         <v>137</v>
       </c>
@@ -37782,7 +37785,7 @@
       </c>
     </row>
     <row r="55" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="811"/>
+      <c r="A55" s="813"/>
       <c r="B55" s="652" t="s">
         <v>138</v>
       </c>
@@ -37813,7 +37816,7 @@
         <f t="shared" si="119"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="K55" s="811"/>
+      <c r="K55" s="813"/>
       <c r="L55" s="652" t="s">
         <v>138</v>
       </c>
@@ -37844,7 +37847,7 @@
         <f>Indata!I56*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>131.61270986021509</v>
       </c>
-      <c r="U55" s="811"/>
+      <c r="U55" s="813"/>
       <c r="V55" s="652" t="s">
         <v>138</v>
       </c>
@@ -37875,7 +37878,7 @@
         <f t="shared" si="125"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="AE55" s="811"/>
+      <c r="AE55" s="813"/>
       <c r="AF55" s="652" t="s">
         <v>138</v>
       </c>
@@ -37908,7 +37911,7 @@
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" s="811"/>
+      <c r="A56" s="813"/>
       <c r="B56" s="652" t="s">
         <v>139</v>
       </c>
@@ -37939,7 +37942,7 @@
         <f t="shared" si="119"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="K56" s="811"/>
+      <c r="K56" s="813"/>
       <c r="L56" s="652" t="s">
         <v>139</v>
       </c>
@@ -37970,7 +37973,7 @@
         <f>Indata!I57*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>138.28043235708435</v>
       </c>
-      <c r="U56" s="811"/>
+      <c r="U56" s="813"/>
       <c r="V56" s="652" t="s">
         <v>139</v>
       </c>
@@ -38001,7 +38004,7 @@
         <f t="shared" si="125"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="AE56" s="811"/>
+      <c r="AE56" s="813"/>
       <c r="AF56" s="652" t="s">
         <v>139</v>
       </c>
@@ -38034,7 +38037,7 @@
       </c>
     </row>
     <row r="57" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="811"/>
+      <c r="A57" s="813"/>
       <c r="B57" s="653" t="s">
         <v>184</v>
       </c>
@@ -38065,7 +38068,7 @@
         <f t="shared" si="127"/>
         <v>137.86074516226122</v>
       </c>
-      <c r="K57" s="811"/>
+      <c r="K57" s="813"/>
       <c r="L57" s="653" t="s">
         <v>184</v>
       </c>
@@ -38096,7 +38099,7 @@
         <f t="shared" ref="S57" si="131">SUMPRODUCT(S53:S56,S36:S39)/S40</f>
         <v>137.86074516226122</v>
       </c>
-      <c r="U57" s="811"/>
+      <c r="U57" s="813"/>
       <c r="V57" s="653" t="s">
         <v>184</v>
       </c>
@@ -38127,7 +38130,7 @@
         <f t="shared" si="132"/>
         <v>137.86074516226122</v>
       </c>
-      <c r="AE57" s="811"/>
+      <c r="AE57" s="813"/>
       <c r="AF57" s="653" t="s">
         <v>184</v>
       </c>
@@ -38160,7 +38163,7 @@
       </c>
     </row>
     <row r="58" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="811"/>
+      <c r="A58" s="813"/>
       <c r="B58" s="652" t="s">
         <v>141</v>
       </c>
@@ -38191,7 +38194,7 @@
         <f>D58</f>
         <v>171.96222222222224</v>
       </c>
-      <c r="K58" s="811"/>
+      <c r="K58" s="813"/>
       <c r="L58" s="652" t="s">
         <v>141</v>
       </c>
@@ -38222,7 +38225,7 @@
         <f>Indata!I54*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>171.96222222222224</v>
       </c>
-      <c r="U58" s="811"/>
+      <c r="U58" s="813"/>
       <c r="V58" s="652" t="s">
         <v>141</v>
       </c>
@@ -38253,7 +38256,7 @@
         <f t="shared" ref="AC58:AC61" si="138">S58</f>
         <v>171.96222222222224</v>
       </c>
-      <c r="AE58" s="811"/>
+      <c r="AE58" s="813"/>
       <c r="AF58" s="652" t="s">
         <v>141</v>
       </c>
@@ -38286,7 +38289,7 @@
       </c>
     </row>
     <row r="59" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="811"/>
+      <c r="A59" s="813"/>
       <c r="B59" s="652" t="s">
         <v>142</v>
       </c>
@@ -38317,7 +38320,7 @@
         <f t="shared" ref="I59:I61" si="148">D59</f>
         <v>151.47333333333327</v>
       </c>
-      <c r="K59" s="811"/>
+      <c r="K59" s="813"/>
       <c r="L59" s="652" t="s">
         <v>142</v>
       </c>
@@ -38348,7 +38351,7 @@
         <f>Indata!I55*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>151.47333333333327</v>
       </c>
-      <c r="U59" s="811"/>
+      <c r="U59" s="813"/>
       <c r="V59" s="652" t="s">
         <v>142</v>
       </c>
@@ -38379,7 +38382,7 @@
         <f t="shared" si="138"/>
         <v>151.47333333333327</v>
       </c>
-      <c r="AE59" s="811"/>
+      <c r="AE59" s="813"/>
       <c r="AF59" s="652" t="s">
         <v>142</v>
       </c>
@@ -38412,7 +38415,7 @@
       </c>
     </row>
     <row r="60" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="811"/>
+      <c r="A60" s="813"/>
       <c r="B60" s="652" t="s">
         <v>143</v>
       </c>
@@ -38443,7 +38446,7 @@
         <f t="shared" si="148"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="K60" s="811"/>
+      <c r="K60" s="813"/>
       <c r="L60" s="652" t="s">
         <v>143</v>
       </c>
@@ -38474,7 +38477,7 @@
         <f>Indata!I56*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>131.61270986021509</v>
       </c>
-      <c r="U60" s="811"/>
+      <c r="U60" s="813"/>
       <c r="V60" s="652" t="s">
         <v>143</v>
       </c>
@@ -38505,7 +38508,7 @@
         <f t="shared" si="138"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="AE60" s="811"/>
+      <c r="AE60" s="813"/>
       <c r="AF60" s="652" t="s">
         <v>143</v>
       </c>
@@ -38538,7 +38541,7 @@
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A61" s="811"/>
+      <c r="A61" s="813"/>
       <c r="B61" s="652" t="s">
         <v>144</v>
       </c>
@@ -38569,7 +38572,7 @@
         <f t="shared" si="148"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="K61" s="811"/>
+      <c r="K61" s="813"/>
       <c r="L61" s="652" t="s">
         <v>144</v>
       </c>
@@ -38600,7 +38603,7 @@
         <f>Indata!I57*(1+Indata!I$71*'Förarlösa lastbilar - beräkning'!I$5)</f>
         <v>138.28043235708435</v>
       </c>
-      <c r="U61" s="811"/>
+      <c r="U61" s="813"/>
       <c r="V61" s="652" t="s">
         <v>144</v>
       </c>
@@ -38631,7 +38634,7 @@
         <f t="shared" si="138"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="AE61" s="811"/>
+      <c r="AE61" s="813"/>
       <c r="AF61" s="652" t="s">
         <v>144</v>
       </c>
@@ -38664,7 +38667,7 @@
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="811"/>
+      <c r="A62" s="813"/>
       <c r="B62" s="653" t="s">
         <v>185</v>
       </c>
@@ -38695,7 +38698,7 @@
         <f t="shared" si="151"/>
         <v>137.86074516226122</v>
       </c>
-      <c r="K62" s="811"/>
+      <c r="K62" s="813"/>
       <c r="L62" s="653" t="s">
         <v>185</v>
       </c>
@@ -38726,7 +38729,7 @@
         <f t="shared" ref="S62" si="156">SUMPRODUCT(S58:S61,S41:S44)/S45</f>
         <v>137.86074516226122</v>
       </c>
-      <c r="U62" s="811"/>
+      <c r="U62" s="813"/>
       <c r="V62" s="653" t="s">
         <v>185</v>
       </c>
@@ -38757,7 +38760,7 @@
         <f t="shared" si="157"/>
         <v>137.86074516226122</v>
       </c>
-      <c r="AE62" s="811"/>
+      <c r="AE62" s="813"/>
       <c r="AF62" s="653" t="s">
         <v>185</v>
       </c>
@@ -38790,7 +38793,7 @@
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="811"/>
+      <c r="A63" s="813"/>
       <c r="B63" s="652" t="s">
         <v>161</v>
       </c>
@@ -38821,7 +38824,7 @@
         <f t="shared" si="159"/>
         <v>171.96222222222224</v>
       </c>
-      <c r="K63" s="811"/>
+      <c r="K63" s="813"/>
       <c r="L63" s="652" t="s">
         <v>161</v>
       </c>
@@ -38852,7 +38855,7 @@
         <f t="shared" si="160"/>
         <v>171.96222222222224</v>
       </c>
-      <c r="U63" s="811"/>
+      <c r="U63" s="813"/>
       <c r="V63" s="652" t="s">
         <v>161</v>
       </c>
@@ -38883,7 +38886,7 @@
         <f t="shared" si="161"/>
         <v>171.96222222222224</v>
       </c>
-      <c r="AE63" s="811"/>
+      <c r="AE63" s="813"/>
       <c r="AF63" s="652" t="s">
         <v>161</v>
       </c>
@@ -38916,7 +38919,7 @@
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="811"/>
+      <c r="A64" s="813"/>
       <c r="B64" s="652" t="s">
         <v>162</v>
       </c>
@@ -38947,7 +38950,7 @@
         <f t="shared" si="164"/>
         <v>151.47333333333324</v>
       </c>
-      <c r="K64" s="811"/>
+      <c r="K64" s="813"/>
       <c r="L64" s="652" t="s">
         <v>162</v>
       </c>
@@ -38978,7 +38981,7 @@
         <f t="shared" si="165"/>
         <v>151.47333333333324</v>
       </c>
-      <c r="U64" s="811"/>
+      <c r="U64" s="813"/>
       <c r="V64" s="652" t="s">
         <v>162</v>
       </c>
@@ -39009,7 +39012,7 @@
         <f t="shared" si="166"/>
         <v>151.47333333333324</v>
       </c>
-      <c r="AE64" s="811"/>
+      <c r="AE64" s="813"/>
       <c r="AF64" s="652" t="s">
         <v>162</v>
       </c>
@@ -39042,7 +39045,7 @@
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="811"/>
+      <c r="A65" s="813"/>
       <c r="B65" s="652" t="s">
         <v>163</v>
       </c>
@@ -39073,7 +39076,7 @@
         <f t="shared" si="168"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="K65" s="811"/>
+      <c r="K65" s="813"/>
       <c r="L65" s="652" t="s">
         <v>163</v>
       </c>
@@ -39104,7 +39107,7 @@
         <f t="shared" si="169"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="U65" s="811"/>
+      <c r="U65" s="813"/>
       <c r="V65" s="652" t="s">
         <v>163</v>
       </c>
@@ -39135,7 +39138,7 @@
         <f t="shared" si="170"/>
         <v>131.61270986021509</v>
       </c>
-      <c r="AE65" s="811"/>
+      <c r="AE65" s="813"/>
       <c r="AF65" s="652" t="s">
         <v>163</v>
       </c>
@@ -39168,7 +39171,7 @@
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="811"/>
+      <c r="A66" s="813"/>
       <c r="B66" s="652" t="s">
         <v>164</v>
       </c>
@@ -39199,7 +39202,7 @@
         <f t="shared" si="172"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="K66" s="811"/>
+      <c r="K66" s="813"/>
       <c r="L66" s="652" t="s">
         <v>164</v>
       </c>
@@ -39230,7 +39233,7 @@
         <f t="shared" si="173"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="U66" s="811"/>
+      <c r="U66" s="813"/>
       <c r="V66" s="652" t="s">
         <v>164</v>
       </c>
@@ -39261,7 +39264,7 @@
         <f t="shared" si="174"/>
         <v>138.28043235708435</v>
       </c>
-      <c r="AE66" s="811"/>
+      <c r="AE66" s="813"/>
       <c r="AF66" s="652" t="s">
         <v>164</v>
       </c>
@@ -39294,7 +39297,7 @@
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="811"/>
+      <c r="A67" s="813"/>
       <c r="B67" s="653" t="s">
         <v>186</v>
       </c>
@@ -39325,7 +39328,7 @@
         <f t="shared" si="176"/>
         <v>137.86074516226125</v>
       </c>
-      <c r="K67" s="811"/>
+      <c r="K67" s="813"/>
       <c r="L67" s="653" t="s">
         <v>186</v>
       </c>
@@ -39356,7 +39359,7 @@
         <f t="shared" ref="S67" si="181">SUMPRODUCT(S63:S66,S46:S49)/S50</f>
         <v>137.86074516226125</v>
       </c>
-      <c r="U67" s="811"/>
+      <c r="U67" s="813"/>
       <c r="V67" s="653" t="s">
         <v>186</v>
       </c>
@@ -39387,7 +39390,7 @@
         <f t="shared" si="182"/>
         <v>137.86074516226122</v>
       </c>
-      <c r="AE67" s="811"/>
+      <c r="AE67" s="813"/>
       <c r="AF67" s="653" t="s">
         <v>186</v>
       </c>
@@ -39420,7 +39423,7 @@
       </c>
     </row>
     <row r="68" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="812"/>
+      <c r="A68" s="814"/>
       <c r="B68" s="654" t="s">
         <v>229</v>
       </c>
@@ -39445,7 +39448,7 @@
       <c r="I68" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="812"/>
+      <c r="K68" s="814"/>
       <c r="L68" s="654" t="s">
         <v>229</v>
       </c>
@@ -39476,7 +39479,7 @@
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="U68" s="812"/>
+      <c r="U68" s="814"/>
       <c r="V68" s="654" t="s">
         <v>229</v>
       </c>
@@ -39499,7 +39502,7 @@
       <c r="AC68" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="AE68" s="812"/>
+      <c r="AE68" s="814"/>
       <c r="AF68" s="654" t="s">
         <v>229</v>
       </c>
@@ -39583,7 +39586,7 @@
       <c r="AM70" s="73"/>
     </row>
     <row r="71" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="810" t="s">
+      <c r="A71" s="812" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="651" t="s">
@@ -39616,7 +39619,7 @@
         <f t="shared" si="185"/>
         <v>189.90718274018499</v>
       </c>
-      <c r="K71" s="792" t="s">
+      <c r="K71" s="794" t="s">
         <v>77</v>
       </c>
       <c r="L71" s="124" t="s">
@@ -39649,7 +39652,7 @@
         <f t="shared" si="186"/>
         <v>189.90718274018499</v>
       </c>
-      <c r="U71" s="792" t="s">
+      <c r="U71" s="794" t="s">
         <v>77</v>
       </c>
       <c r="V71" s="124" t="s">
@@ -39682,7 +39685,7 @@
         <f t="shared" si="187"/>
         <v>189.90718274018499</v>
       </c>
-      <c r="AE71" s="792" t="s">
+      <c r="AE71" s="794" t="s">
         <v>77</v>
       </c>
       <c r="AF71" s="124" t="s">
@@ -39717,7 +39720,7 @@
       </c>
     </row>
     <row r="72" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="811"/>
+      <c r="A72" s="813"/>
       <c r="B72" s="652" t="s">
         <v>137</v>
       </c>
@@ -39748,7 +39751,7 @@
         <f t="shared" si="192"/>
         <v>174.85681886619025</v>
       </c>
-      <c r="K72" s="793"/>
+      <c r="K72" s="795"/>
       <c r="L72" s="125" t="s">
         <v>137</v>
       </c>
@@ -39779,7 +39782,7 @@
         <f t="shared" si="193"/>
         <v>174.85681886619025</v>
       </c>
-      <c r="U72" s="793"/>
+      <c r="U72" s="795"/>
       <c r="V72" s="125" t="s">
         <v>137</v>
       </c>
@@ -39810,7 +39813,7 @@
         <f t="shared" si="187"/>
         <v>174.85681886619025</v>
       </c>
-      <c r="AE72" s="793"/>
+      <c r="AE72" s="795"/>
       <c r="AF72" s="125" t="s">
         <v>137</v>
       </c>
@@ -39843,7 +39846,7 @@
       </c>
     </row>
     <row r="73" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="811"/>
+      <c r="A73" s="813"/>
       <c r="B73" s="652" t="s">
         <v>138</v>
       </c>
@@ -39874,7 +39877,7 @@
         <f t="shared" si="195"/>
         <v>160.62442291737943</v>
       </c>
-      <c r="K73" s="793"/>
+      <c r="K73" s="795"/>
       <c r="L73" s="125" t="s">
         <v>138</v>
       </c>
@@ -39905,7 +39908,7 @@
         <f t="shared" si="196"/>
         <v>160.62442291737943</v>
       </c>
-      <c r="U73" s="793"/>
+      <c r="U73" s="795"/>
       <c r="V73" s="125" t="s">
         <v>138</v>
       </c>
@@ -39936,7 +39939,7 @@
         <f t="shared" si="187"/>
         <v>160.62442291737943</v>
       </c>
-      <c r="AE73" s="793"/>
+      <c r="AE73" s="795"/>
       <c r="AF73" s="125" t="s">
         <v>138</v>
       </c>
@@ -39969,7 +39972,7 @@
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A74" s="811"/>
+      <c r="A74" s="813"/>
       <c r="B74" s="652" t="s">
         <v>139</v>
       </c>
@@ -40000,7 +40003,7 @@
         <f t="shared" si="197"/>
         <v>175.89906720881777</v>
       </c>
-      <c r="K74" s="793"/>
+      <c r="K74" s="795"/>
       <c r="L74" s="125" t="s">
         <v>139</v>
       </c>
@@ -40031,7 +40034,7 @@
         <f t="shared" si="198"/>
         <v>175.89906720881777</v>
       </c>
-      <c r="U74" s="793"/>
+      <c r="U74" s="795"/>
       <c r="V74" s="125" t="s">
         <v>139</v>
       </c>
@@ -40062,7 +40065,7 @@
         <f t="shared" si="187"/>
         <v>175.89906720881777</v>
       </c>
-      <c r="AE74" s="793"/>
+      <c r="AE74" s="795"/>
       <c r="AF74" s="125" t="s">
         <v>139</v>
       </c>
@@ -40095,7 +40098,7 @@
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A75" s="811"/>
+      <c r="A75" s="813"/>
       <c r="B75" s="653" t="s">
         <v>184</v>
       </c>
@@ -40126,7 +40129,7 @@
         <f t="shared" ref="I75" si="204">SUMPRODUCT(I71:I74,I36:I39)/I40</f>
         <v>171.34537761183375</v>
       </c>
-      <c r="K75" s="793"/>
+      <c r="K75" s="795"/>
       <c r="L75" s="175" t="s">
         <v>184</v>
       </c>
@@ -40157,7 +40160,7 @@
         <f t="shared" si="205"/>
         <v>171.34537761183375</v>
       </c>
-      <c r="U75" s="793"/>
+      <c r="U75" s="795"/>
       <c r="V75" s="175" t="s">
         <v>184</v>
       </c>
@@ -40188,7 +40191,7 @@
         <f t="shared" ref="AC75" si="209">SUMPRODUCT(AC71:AC74,AC36:AC39)/AC40</f>
         <v>171.34537761183375</v>
       </c>
-      <c r="AE75" s="793"/>
+      <c r="AE75" s="795"/>
       <c r="AF75" s="175" t="s">
         <v>184</v>
       </c>
@@ -40221,7 +40224,7 @@
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A76" s="811"/>
+      <c r="A76" s="813"/>
       <c r="B76" s="652" t="s">
         <v>141</v>
       </c>
@@ -40252,7 +40255,7 @@
         <f t="shared" si="213"/>
         <v>183.85358449241139</v>
       </c>
-      <c r="K76" s="793"/>
+      <c r="K76" s="795"/>
       <c r="L76" s="125" t="s">
         <v>141</v>
       </c>
@@ -40283,7 +40286,7 @@
         <f t="shared" si="214"/>
         <v>183.85358449241139</v>
       </c>
-      <c r="U76" s="793"/>
+      <c r="U76" s="795"/>
       <c r="V76" s="125" t="s">
         <v>141</v>
       </c>
@@ -40314,7 +40317,7 @@
         <f t="shared" si="215"/>
         <v>183.85358449241139</v>
       </c>
-      <c r="AE76" s="793"/>
+      <c r="AE76" s="795"/>
       <c r="AF76" s="125" t="s">
         <v>141</v>
       </c>
@@ -40347,7 +40350,7 @@
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A77" s="811"/>
+      <c r="A77" s="813"/>
       <c r="B77" s="652" t="s">
         <v>142</v>
       </c>
@@ -40378,7 +40381,7 @@
         <f t="shared" si="219"/>
         <v>163.36469560352242</v>
       </c>
-      <c r="K77" s="793"/>
+      <c r="K77" s="795"/>
       <c r="L77" s="125" t="s">
         <v>142</v>
       </c>
@@ -40409,7 +40412,7 @@
         <f t="shared" si="220"/>
         <v>163.36469560352242</v>
       </c>
-      <c r="U77" s="793"/>
+      <c r="U77" s="795"/>
       <c r="V77" s="125" t="s">
         <v>142</v>
       </c>
@@ -40440,7 +40443,7 @@
         <f t="shared" si="215"/>
         <v>163.36469560352242</v>
       </c>
-      <c r="AE77" s="793"/>
+      <c r="AE77" s="795"/>
       <c r="AF77" s="125" t="s">
         <v>142</v>
       </c>
@@ -40473,7 +40476,7 @@
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A78" s="811"/>
+      <c r="A78" s="813"/>
       <c r="B78" s="652" t="s">
         <v>143</v>
       </c>
@@ -40504,7 +40507,7 @@
         <f t="shared" si="223"/>
         <v>150.38204538492755</v>
       </c>
-      <c r="K78" s="793"/>
+      <c r="K78" s="795"/>
       <c r="L78" s="125" t="s">
         <v>143</v>
       </c>
@@ -40535,7 +40538,7 @@
         <f t="shared" si="224"/>
         <v>150.38204538492755</v>
       </c>
-      <c r="U78" s="793"/>
+      <c r="U78" s="795"/>
       <c r="V78" s="125" t="s">
         <v>143</v>
       </c>
@@ -40566,7 +40569,7 @@
         <f t="shared" si="215"/>
         <v>150.38204538492755</v>
       </c>
-      <c r="AE78" s="793"/>
+      <c r="AE78" s="795"/>
       <c r="AF78" s="125" t="s">
         <v>143</v>
       </c>
@@ -40599,7 +40602,7 @@
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A79" s="811"/>
+      <c r="A79" s="813"/>
       <c r="B79" s="652" t="s">
         <v>144</v>
       </c>
@@ -40630,7 +40633,7 @@
         <f t="shared" si="225"/>
         <v>159.58748079343013</v>
       </c>
-      <c r="K79" s="793"/>
+      <c r="K79" s="795"/>
       <c r="L79" s="125" t="s">
         <v>144</v>
       </c>
@@ -40661,7 +40664,7 @@
         <f t="shared" si="226"/>
         <v>159.58748079343013</v>
       </c>
-      <c r="U79" s="793"/>
+      <c r="U79" s="795"/>
       <c r="V79" s="125" t="s">
         <v>144</v>
       </c>
@@ -40692,7 +40695,7 @@
         <f t="shared" si="215"/>
         <v>159.58748079343013</v>
       </c>
-      <c r="AE79" s="793"/>
+      <c r="AE79" s="795"/>
       <c r="AF79" s="125" t="s">
         <v>144</v>
       </c>
@@ -40725,7 +40728,7 @@
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A80" s="811"/>
+      <c r="A80" s="813"/>
       <c r="B80" s="653" t="s">
         <v>185</v>
       </c>
@@ -40756,7 +40759,7 @@
         <f t="shared" ref="I80" si="231">SUMPRODUCT(I76:I79,I41:I44)/I45</f>
         <v>157.60531776712583</v>
       </c>
-      <c r="K80" s="793"/>
+      <c r="K80" s="795"/>
       <c r="L80" s="175" t="s">
         <v>185</v>
       </c>
@@ -40787,7 +40790,7 @@
         <f t="shared" si="233"/>
         <v>157.60531776712583</v>
       </c>
-      <c r="U80" s="793"/>
+      <c r="U80" s="795"/>
       <c r="V80" s="175" t="s">
         <v>185</v>
       </c>
@@ -40818,7 +40821,7 @@
         <f t="shared" ref="AC80" si="238">SUMPRODUCT(AC76:AC79,AC41:AC44)/AC45</f>
         <v>157.60531776712585</v>
       </c>
-      <c r="AE80" s="793"/>
+      <c r="AE80" s="795"/>
       <c r="AF80" s="175" t="s">
         <v>185</v>
       </c>
@@ -40851,7 +40854,7 @@
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A81" s="811"/>
+      <c r="A81" s="813"/>
       <c r="B81" s="652" t="s">
         <v>161</v>
       </c>
@@ -40882,7 +40885,7 @@
         <f t="shared" si="242"/>
         <v>188.09110326585289</v>
       </c>
-      <c r="K81" s="793"/>
+      <c r="K81" s="795"/>
       <c r="L81" s="125" t="s">
         <v>161</v>
       </c>
@@ -40913,7 +40916,7 @@
         <f t="shared" si="243"/>
         <v>188.09110326585289</v>
       </c>
-      <c r="U81" s="793"/>
+      <c r="U81" s="795"/>
       <c r="V81" s="125" t="s">
         <v>161</v>
       </c>
@@ -40944,7 +40947,7 @@
         <f t="shared" si="244"/>
         <v>188.09110326585289</v>
       </c>
-      <c r="AE81" s="793"/>
+      <c r="AE81" s="795"/>
       <c r="AF81" s="125" t="s">
         <v>161</v>
       </c>
@@ -40977,7 +40980,7 @@
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A82" s="811"/>
+      <c r="A82" s="813"/>
       <c r="B82" s="652" t="s">
         <v>162</v>
       </c>
@@ -41008,7 +41011,7 @@
         <f t="shared" si="248"/>
         <v>171.40918188738988</v>
       </c>
-      <c r="K82" s="793"/>
+      <c r="K82" s="795"/>
       <c r="L82" s="125" t="s">
         <v>162</v>
       </c>
@@ -41039,7 +41042,7 @@
         <f t="shared" si="249"/>
         <v>171.40918188738988</v>
       </c>
-      <c r="U82" s="793"/>
+      <c r="U82" s="795"/>
       <c r="V82" s="125" t="s">
         <v>162</v>
       </c>
@@ -41070,7 +41073,7 @@
         <f t="shared" si="244"/>
         <v>171.40918188738988</v>
       </c>
-      <c r="AE82" s="793"/>
+      <c r="AE82" s="795"/>
       <c r="AF82" s="125" t="s">
         <v>162</v>
       </c>
@@ -41103,7 +41106,7 @@
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A83" s="811"/>
+      <c r="A83" s="813"/>
       <c r="B83" s="652" t="s">
         <v>163</v>
       </c>
@@ -41134,7 +41137,7 @@
         <f t="shared" si="248"/>
         <v>157.55170965764387</v>
       </c>
-      <c r="K83" s="793"/>
+      <c r="K83" s="795"/>
       <c r="L83" s="125" t="s">
         <v>163</v>
       </c>
@@ -41165,7 +41168,7 @@
         <f t="shared" si="252"/>
         <v>157.55170965764387</v>
       </c>
-      <c r="U83" s="793"/>
+      <c r="U83" s="795"/>
       <c r="V83" s="125" t="s">
         <v>163</v>
       </c>
@@ -41196,7 +41199,7 @@
         <f t="shared" si="244"/>
         <v>157.55170965764387</v>
       </c>
-      <c r="AE83" s="793"/>
+      <c r="AE83" s="795"/>
       <c r="AF83" s="125" t="s">
         <v>163</v>
       </c>
@@ -41229,7 +41232,7 @@
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A84" s="811"/>
+      <c r="A84" s="813"/>
       <c r="B84" s="652" t="s">
         <v>164</v>
       </c>
@@ -41260,7 +41263,7 @@
         <f t="shared" si="248"/>
         <v>171.00559128420147</v>
       </c>
-      <c r="K84" s="793"/>
+      <c r="K84" s="795"/>
       <c r="L84" s="125" t="s">
         <v>164</v>
       </c>
@@ -41291,7 +41294,7 @@
         <f t="shared" si="253"/>
         <v>171.00559128420147</v>
       </c>
-      <c r="U84" s="793"/>
+      <c r="U84" s="795"/>
       <c r="V84" s="125" t="s">
         <v>164</v>
       </c>
@@ -41322,7 +41325,7 @@
         <f t="shared" si="244"/>
         <v>171.00559128420147</v>
       </c>
-      <c r="AE84" s="793"/>
+      <c r="AE84" s="795"/>
       <c r="AF84" s="125" t="s">
         <v>164</v>
       </c>
@@ -41355,7 +41358,7 @@
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A85" s="811"/>
+      <c r="A85" s="813"/>
       <c r="B85" s="653" t="s">
         <v>186</v>
       </c>
@@ -41386,7 +41389,7 @@
         <f t="shared" si="255"/>
         <v>167.22335965842137</v>
       </c>
-      <c r="K85" s="793"/>
+      <c r="K85" s="795"/>
       <c r="L85" s="175" t="s">
         <v>186</v>
       </c>
@@ -41417,7 +41420,7 @@
         <f t="shared" si="256"/>
         <v>167.22335965842137</v>
       </c>
-      <c r="U85" s="793"/>
+      <c r="U85" s="795"/>
       <c r="V85" s="175" t="s">
         <v>186</v>
       </c>
@@ -41448,7 +41451,7 @@
         <f t="shared" si="257"/>
         <v>167.22335965842134</v>
       </c>
-      <c r="AE85" s="793"/>
+      <c r="AE85" s="795"/>
       <c r="AF85" s="175" t="s">
         <v>186</v>
       </c>
@@ -41481,7 +41484,7 @@
       </c>
     </row>
     <row r="86" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="812"/>
+      <c r="A86" s="814"/>
       <c r="B86" s="654" t="s">
         <v>229</v>
       </c>
@@ -41506,7 +41509,7 @@
       <c r="I86" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="K86" s="794"/>
+      <c r="K86" s="796"/>
       <c r="L86" s="176" t="s">
         <v>229</v>
       </c>
@@ -41537,7 +41540,7 @@
         <f>S85/E85-1</f>
         <v>-1.8574957472602183E-2</v>
       </c>
-      <c r="U86" s="794"/>
+      <c r="U86" s="796"/>
       <c r="V86" s="176" t="s">
         <v>229</v>
       </c>
@@ -41568,7 +41571,7 @@
         <f>AC85/E85-1</f>
         <v>-1.8574957472602405E-2</v>
       </c>
-      <c r="AE86" s="794"/>
+      <c r="AE86" s="796"/>
       <c r="AF86" s="176" t="s">
         <v>229</v>
       </c>
@@ -41647,7 +41650,7 @@
         <f>D15*D6/D57</f>
         <v>0.25779656394328893</v>
       </c>
-      <c r="AE89" s="792" t="s">
+      <c r="AE89" s="794" t="s">
         <v>260</v>
       </c>
       <c r="AF89" s="124" t="s">
@@ -41682,7 +41685,7 @@
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE90" s="793"/>
+      <c r="AE90" s="795"/>
       <c r="AF90" s="125" t="s">
         <v>7</v>
       </c>
@@ -41715,7 +41718,7 @@
       </c>
     </row>
     <row r="91" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE91" s="794"/>
+      <c r="AE91" s="796"/>
       <c r="AF91" s="177" t="s">
         <v>16</v>
       </c>
@@ -41748,7 +41751,7 @@
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE92" s="792" t="s">
+      <c r="AE92" s="794" t="s">
         <v>271</v>
       </c>
       <c r="AF92" s="124" t="s">
@@ -41783,7 +41786,7 @@
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE93" s="793"/>
+      <c r="AE93" s="795"/>
       <c r="AF93" s="125" t="s">
         <v>7</v>
       </c>
@@ -41810,7 +41813,7 @@
       </c>
     </row>
     <row r="94" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE94" s="794"/>
+      <c r="AE94" s="796"/>
       <c r="AF94" s="177" t="s">
         <v>16</v>
       </c>
@@ -41843,7 +41846,7 @@
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE95" s="792" t="s">
+      <c r="AE95" s="794" t="s">
         <v>265</v>
       </c>
       <c r="AF95" s="124" t="s">
@@ -41878,7 +41881,7 @@
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE96" s="793"/>
+      <c r="AE96" s="795"/>
       <c r="AF96" s="125" t="s">
         <v>7</v>
       </c>
@@ -41905,7 +41908,7 @@
       </c>
     </row>
     <row r="97" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE97" s="794"/>
+      <c r="AE97" s="796"/>
       <c r="AF97" s="177" t="s">
         <v>16</v>
       </c>
@@ -41986,7 +41989,7 @@
       <c r="AM100" s="38"/>
     </row>
     <row r="101" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE101" s="792" t="s">
+      <c r="AE101" s="794" t="s">
         <v>129</v>
       </c>
       <c r="AF101" s="124" t="s">
@@ -42021,7 +42024,7 @@
       </c>
     </row>
     <row r="102" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE102" s="793"/>
+      <c r="AE102" s="795"/>
       <c r="AF102" s="125" t="s">
         <v>99</v>
       </c>
@@ -42054,7 +42057,7 @@
       </c>
     </row>
     <row r="103" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE103" s="794"/>
+      <c r="AE103" s="796"/>
       <c r="AF103" s="126" t="s">
         <v>7</v>
       </c>
@@ -42100,7 +42103,7 @@
       <c r="AM105" s="38"/>
     </row>
     <row r="106" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE106" s="792" t="s">
+      <c r="AE106" s="794" t="s">
         <v>238</v>
       </c>
       <c r="AF106" s="124" t="s">
@@ -42135,7 +42138,7 @@
       </c>
     </row>
     <row r="107" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE107" s="793"/>
+      <c r="AE107" s="795"/>
       <c r="AF107" s="125" t="s">
         <v>99</v>
       </c>
@@ -42168,7 +42171,7 @@
       </c>
     </row>
     <row r="108" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE108" s="793"/>
+      <c r="AE108" s="795"/>
       <c r="AF108" s="125" t="s">
         <v>7</v>
       </c>
@@ -42201,7 +42204,7 @@
       </c>
     </row>
     <row r="109" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE109" s="793"/>
+      <c r="AE109" s="795"/>
       <c r="AF109" s="175" t="s">
         <v>16</v>
       </c>
@@ -42234,7 +42237,7 @@
       </c>
     </row>
     <row r="110" spans="31:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE110" s="792" t="s">
+      <c r="AE110" s="794" t="s">
         <v>197</v>
       </c>
       <c r="AF110" s="124" t="s">
@@ -42269,7 +42272,7 @@
       </c>
     </row>
     <row r="111" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE111" s="793"/>
+      <c r="AE111" s="795"/>
       <c r="AF111" s="125" t="s">
         <v>116</v>
       </c>
@@ -42302,7 +42305,7 @@
       </c>
     </row>
     <row r="112" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE112" s="793"/>
+      <c r="AE112" s="795"/>
       <c r="AF112" s="125" t="s">
         <v>117</v>
       </c>
@@ -42335,7 +42338,7 @@
       </c>
     </row>
     <row r="113" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE113" s="793"/>
+      <c r="AE113" s="795"/>
       <c r="AF113" s="125" t="s">
         <v>118</v>
       </c>
@@ -42368,7 +42371,7 @@
       </c>
     </row>
     <row r="114" spans="31:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE114" s="794"/>
+      <c r="AE114" s="796"/>
       <c r="AF114" s="177" t="s">
         <v>16</v>
       </c>
@@ -42402,15 +42405,35 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="AE106:AE109"/>
-    <mergeCell ref="AE92:AE94"/>
-    <mergeCell ref="AE95:AE97"/>
-    <mergeCell ref="U53:U68"/>
-    <mergeCell ref="AE53:AE68"/>
-    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="AE110:AE114"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="K71:K86"/>
+    <mergeCell ref="A71:A86"/>
+    <mergeCell ref="U71:U86"/>
+    <mergeCell ref="AE71:AE86"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="A11:A20"/>
     <mergeCell ref="K11:K20"/>
     <mergeCell ref="AE89:AE91"/>
@@ -42427,35 +42450,15 @@
     <mergeCell ref="A53:A68"/>
     <mergeCell ref="K53:K68"/>
     <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AE110:AE114"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="K71:K86"/>
-    <mergeCell ref="A71:A86"/>
-    <mergeCell ref="U71:U86"/>
-    <mergeCell ref="AE71:AE86"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="AE106:AE109"/>
+    <mergeCell ref="AE92:AE94"/>
+    <mergeCell ref="AE95:AE97"/>
+    <mergeCell ref="U53:U68"/>
+    <mergeCell ref="AE53:AE68"/>
+    <mergeCell ref="AE6:AE8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42473,7 +42476,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42556,18 +42559,18 @@
       <c r="C4" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="773" t="s">
+      <c r="D4" s="785" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="774"/>
-      <c r="F4" s="773" t="s">
+      <c r="E4" s="786"/>
+      <c r="F4" s="785" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="774"/>
-      <c r="H4" s="773" t="s">
+      <c r="G4" s="786"/>
+      <c r="H4" s="785" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="774"/>
+      <c r="I4" s="786"/>
       <c r="J4" s="38"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -42583,21 +42586,21 @@
       </c>
       <c r="B5" s="278"/>
       <c r="C5" s="279"/>
-      <c r="D5" s="830" t="str">
+      <c r="D5" s="818" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik - Trafikverkets basscenario, ändras ej av EMA!</v>
       </c>
-      <c r="E5" s="831"/>
-      <c r="F5" s="830" t="str">
+      <c r="E5" s="819"/>
+      <c r="F5" s="818" t="str">
         <f>Indata!F6</f>
         <v>Policy scenario (EMA)</v>
       </c>
-      <c r="G5" s="831"/>
-      <c r="H5" s="830" t="str">
+      <c r="G5" s="819"/>
+      <c r="H5" s="818" t="str">
         <f>Indata!H6</f>
         <v>Reference scenario (EMA -beslutad politik, varierande X)</v>
       </c>
-      <c r="I5" s="831"/>
+      <c r="I5" s="819"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -42645,7 +42648,7 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="827" t="s">
+      <c r="A7" s="820" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="280" t="s">
@@ -42680,7 +42683,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="828"/>
+      <c r="A8" s="822"/>
       <c r="B8" s="75" t="s">
         <v>102</v>
       </c>
@@ -42713,7 +42716,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="828"/>
+      <c r="A9" s="822"/>
       <c r="B9" s="75" t="s">
         <v>103</v>
       </c>
@@ -42746,7 +42749,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="828"/>
+      <c r="A10" s="822"/>
       <c r="B10" s="75" t="s">
         <v>180</v>
       </c>
@@ -42779,7 +42782,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="829"/>
+      <c r="A11" s="821"/>
       <c r="B11" s="281" t="s">
         <v>181</v>
       </c>
@@ -42812,7 +42815,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="827" t="s">
+      <c r="A12" s="820" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="280" t="s">
@@ -42847,7 +42850,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="828"/>
+      <c r="A13" s="822"/>
       <c r="B13" s="75" t="s">
         <v>102</v>
       </c>
@@ -42880,7 +42883,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="828"/>
+      <c r="A14" s="822"/>
       <c r="B14" s="75" t="s">
         <v>103</v>
       </c>
@@ -42913,7 +42916,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="828"/>
+      <c r="A15" s="822"/>
       <c r="B15" s="75" t="s">
         <v>352</v>
       </c>
@@ -42946,7 +42949,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="829"/>
+      <c r="A16" s="821"/>
       <c r="B16" s="281" t="s">
         <v>318</v>
       </c>
@@ -42979,7 +42982,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="827" t="s">
+      <c r="A17" s="820" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="280" t="s">
@@ -43014,7 +43017,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="829"/>
+      <c r="A18" s="821"/>
       <c r="B18" s="281" t="s">
         <v>319</v>
       </c>
@@ -43082,7 +43085,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="827" t="s">
+      <c r="A20" s="820" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="280" t="s">
@@ -43119,7 +43122,7 @@
       <c r="K20" s="403"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="828"/>
+      <c r="A21" s="822"/>
       <c r="B21" s="75" t="s">
         <v>102</v>
       </c>
@@ -43152,7 +43155,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="828"/>
+      <c r="A22" s="822"/>
       <c r="B22" s="75" t="s">
         <v>103</v>
       </c>
@@ -43185,7 +43188,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="828"/>
+      <c r="A23" s="822"/>
       <c r="B23" s="370" t="s">
         <v>179</v>
       </c>
@@ -43218,7 +43221,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="828"/>
+      <c r="A24" s="822"/>
       <c r="B24" s="75" t="s">
         <v>352</v>
       </c>
@@ -43251,7 +43254,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="828"/>
+      <c r="A25" s="822"/>
       <c r="B25" s="75" t="s">
         <v>318</v>
       </c>
@@ -43284,7 +43287,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="829"/>
+      <c r="A26" s="821"/>
       <c r="B26" s="371" t="s">
         <v>353</v>
       </c>
@@ -43317,7 +43320,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="827" t="s">
+      <c r="A27" s="820" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="280" t="s">
@@ -43352,7 +43355,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="828"/>
+      <c r="A28" s="822"/>
       <c r="B28" s="75" t="s">
         <v>102</v>
       </c>
@@ -43385,7 +43388,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="828"/>
+      <c r="A29" s="822"/>
       <c r="B29" s="75" t="s">
         <v>103</v>
       </c>
@@ -43418,7 +43421,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="828"/>
+      <c r="A30" s="822"/>
       <c r="B30" s="370" t="s">
         <v>104</v>
       </c>
@@ -43451,7 +43454,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="828"/>
+      <c r="A31" s="822"/>
       <c r="B31" s="75" t="s">
         <v>354</v>
       </c>
@@ -43484,7 +43487,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="828"/>
+      <c r="A32" s="822"/>
       <c r="B32" s="75" t="s">
         <v>318</v>
       </c>
@@ -43517,7 +43520,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="828"/>
+      <c r="A33" s="822"/>
       <c r="B33" s="370" t="s">
         <v>355</v>
       </c>
@@ -43550,7 +43553,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="829"/>
+      <c r="A34" s="821"/>
       <c r="B34" s="371" t="s">
         <v>332</v>
       </c>
@@ -43583,7 +43586,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="828" t="s">
+      <c r="A35" s="822" t="s">
         <v>285</v>
       </c>
       <c r="B35" s="75" t="s">
@@ -43618,7 +43621,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="829"/>
+      <c r="A36" s="821"/>
       <c r="B36" s="281" t="s">
         <v>319</v>
       </c>
@@ -43651,7 +43654,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="825" t="s">
+      <c r="A37" s="823" t="s">
         <v>274</v>
       </c>
       <c r="B37" s="280" t="s">
@@ -43686,7 +43689,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="826"/>
+      <c r="A38" s="824"/>
       <c r="B38" s="75" t="s">
         <v>319</v>
       </c>
@@ -43719,7 +43722,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="826"/>
+      <c r="A39" s="824"/>
       <c r="B39" s="75" t="s">
         <v>310</v>
       </c>
@@ -43746,7 +43749,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="826"/>
+      <c r="A40" s="824"/>
       <c r="B40" s="370" t="s">
         <v>16</v>
       </c>
@@ -43779,7 +43782,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="826"/>
+      <c r="A41" s="824"/>
       <c r="B41" s="492" t="s">
         <v>356</v>
       </c>
@@ -43812,7 +43815,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="827" t="s">
+      <c r="A42" s="820" t="s">
         <v>271</v>
       </c>
       <c r="B42" s="280" t="s">
@@ -43847,7 +43850,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="828"/>
+      <c r="A43" s="822"/>
       <c r="B43" s="75" t="s">
         <v>319</v>
       </c>
@@ -43880,7 +43883,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="828"/>
+      <c r="A44" s="822"/>
       <c r="B44" s="370" t="s">
         <v>16</v>
       </c>
@@ -43946,7 +43949,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="828" t="s">
+      <c r="A46" s="822" t="s">
         <v>265</v>
       </c>
       <c r="B46" s="75" t="s">
@@ -43981,7 +43984,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="828"/>
+      <c r="A47" s="822"/>
       <c r="B47" s="75" t="s">
         <v>319</v>
       </c>
@@ -44014,7 +44017,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="828"/>
+      <c r="A48" s="822"/>
       <c r="B48" s="370" t="s">
         <v>16</v>
       </c>
@@ -44078,7 +44081,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="827" t="s">
+      <c r="A50" s="820" t="s">
         <v>266</v>
       </c>
       <c r="B50" s="280" t="s">
@@ -44113,7 +44116,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="828"/>
+      <c r="A51" s="822"/>
       <c r="B51" s="75" t="s">
         <v>319</v>
       </c>
@@ -44146,7 +44149,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="828"/>
+      <c r="A52" s="822"/>
       <c r="B52" s="370" t="s">
         <v>16</v>
       </c>
@@ -44210,7 +44213,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="822" t="s">
+      <c r="A54" s="825" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="280" t="s">
@@ -44245,7 +44248,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="823"/>
+      <c r="A55" s="826"/>
       <c r="B55" s="75" t="s">
         <v>315</v>
       </c>
@@ -44278,7 +44281,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="823"/>
+      <c r="A56" s="826"/>
       <c r="B56" s="75" t="s">
         <v>103</v>
       </c>
@@ -44311,7 +44314,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="823"/>
+      <c r="A57" s="826"/>
       <c r="B57" s="75" t="s">
         <v>312</v>
       </c>
@@ -44348,7 +44351,7 @@
       <c r="O57" s="495"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="823"/>
+      <c r="A58" s="826"/>
       <c r="B58" s="75" t="s">
         <v>313</v>
       </c>
@@ -44381,7 +44384,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="823"/>
+      <c r="A59" s="826"/>
       <c r="B59" s="75" t="s">
         <v>314</v>
       </c>
@@ -44414,7 +44417,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="823"/>
+      <c r="A60" s="826"/>
       <c r="B60" s="370" t="s">
         <v>194</v>
       </c>
@@ -44451,7 +44454,7 @@
       <c r="O60" s="495"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="823"/>
+      <c r="A61" s="826"/>
       <c r="B61" s="370" t="s">
         <v>195</v>
       </c>
@@ -44484,7 +44487,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="823"/>
+      <c r="A62" s="826"/>
       <c r="B62" s="370" t="s">
         <v>196</v>
       </c>
@@ -44517,7 +44520,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="824"/>
+      <c r="A63" s="827"/>
       <c r="B63" s="371" t="s">
         <v>358</v>
       </c>
@@ -44550,7 +44553,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="823" t="s">
+      <c r="A64" s="826" t="s">
         <v>240</v>
       </c>
       <c r="B64" s="75" t="s">
@@ -44585,7 +44588,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="823"/>
+      <c r="A65" s="826"/>
       <c r="B65" s="75" t="s">
         <v>193</v>
       </c>
@@ -44618,7 +44621,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="823"/>
+      <c r="A66" s="826"/>
       <c r="B66" s="75" t="s">
         <v>103</v>
       </c>
@@ -44651,7 +44654,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="823"/>
+      <c r="A67" s="826"/>
       <c r="B67" s="75" t="s">
         <v>317</v>
       </c>
@@ -44684,7 +44687,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="823"/>
+      <c r="A68" s="826"/>
       <c r="B68" s="75" t="s">
         <v>316</v>
       </c>
@@ -44717,7 +44720,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="823"/>
+      <c r="A69" s="826"/>
       <c r="B69" s="75" t="s">
         <v>318</v>
       </c>
@@ -44750,7 +44753,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="823"/>
+      <c r="A70" s="826"/>
       <c r="B70" s="370" t="s">
         <v>194</v>
       </c>
@@ -44783,7 +44786,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="823"/>
+      <c r="A71" s="826"/>
       <c r="B71" s="370" t="s">
         <v>195</v>
       </c>
@@ -44816,7 +44819,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="824"/>
+      <c r="A72" s="827"/>
       <c r="B72" s="371" t="s">
         <v>196</v>
       </c>
@@ -44849,7 +44852,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="822" t="s">
+      <c r="A73" s="825" t="s">
         <v>199</v>
       </c>
       <c r="B73" s="280" t="s">
@@ -44884,7 +44887,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="823"/>
+      <c r="A74" s="826"/>
       <c r="B74" s="75" t="s">
         <v>319</v>
       </c>
@@ -44917,7 +44920,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="824"/>
+      <c r="A75" s="827"/>
       <c r="B75" s="371" t="s">
         <v>273</v>
       </c>
@@ -44950,7 +44953,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="822" t="s">
+      <c r="A76" s="825" t="s">
         <v>200</v>
       </c>
       <c r="B76" s="280" t="s">
@@ -44985,7 +44988,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="823"/>
+      <c r="A77" s="826"/>
       <c r="B77" s="75" t="s">
         <v>319</v>
       </c>
@@ -45018,7 +45021,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="823"/>
+      <c r="A78" s="826"/>
       <c r="B78" s="370" t="s">
         <v>273</v>
       </c>
@@ -45051,7 +45054,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="816" t="s">
+      <c r="A79" s="828" t="s">
         <v>489</v>
       </c>
       <c r="B79" s="280" t="s">
@@ -45074,7 +45077,7 @@
       <c r="I79" s="559"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="817"/>
+      <c r="A80" s="829"/>
       <c r="B80" s="75" t="s">
         <v>319</v>
       </c>
@@ -45095,7 +45098,7 @@
       <c r="I80" s="560"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="818"/>
+      <c r="A81" s="830"/>
       <c r="B81" s="371" t="s">
         <v>273</v>
       </c>
@@ -45116,7 +45119,7 @@
       <c r="I81" s="576"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="819" t="s">
+      <c r="A82" s="831" t="s">
         <v>490</v>
       </c>
       <c r="B82" s="280" t="s">
@@ -45139,7 +45142,7 @@
       <c r="I82" s="562"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="820"/>
+      <c r="A83" s="832"/>
       <c r="B83" s="75" t="s">
         <v>319</v>
       </c>
@@ -45160,7 +45163,7 @@
       <c r="I83" s="564"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="821"/>
+      <c r="A84" s="833"/>
       <c r="B84" s="371" t="s">
         <v>273</v>
       </c>
@@ -45181,7 +45184,7 @@
       <c r="I84" s="581"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="816" t="s">
+      <c r="A85" s="828" t="s">
         <v>491</v>
       </c>
       <c r="B85" s="280" t="s">
@@ -45204,7 +45207,7 @@
       <c r="I85" s="580"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="817"/>
+      <c r="A86" s="829"/>
       <c r="B86" s="75" t="s">
         <v>319</v>
       </c>
@@ -45225,7 +45228,7 @@
       <c r="I86" s="564"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="818"/>
+      <c r="A87" s="830"/>
       <c r="B87" s="371" t="s">
         <v>273</v>
       </c>
@@ -45247,29 +45250,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45330,18 +45333,18 @@
   <sheetData>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="832" t="s">
+      <c r="E4" s="834" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="833"/>
-      <c r="G4" s="773" t="s">
+      <c r="F4" s="835"/>
+      <c r="G4" s="785" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="774"/>
-      <c r="I4" s="773" t="s">
+      <c r="H4" s="786"/>
+      <c r="I4" s="785" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="774"/>
+      <c r="J4" s="786"/>
     </row>
     <row r="5" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="550" t="s">
@@ -45349,21 +45352,21 @@
       </c>
       <c r="B5" s="550"/>
       <c r="C5" s="550"/>
-      <c r="E5" s="830" t="str">
+      <c r="E5" s="818" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik - Trafikverkets basscenario, ändras ej av EMA!</v>
       </c>
-      <c r="F5" s="831"/>
-      <c r="G5" s="830" t="str">
+      <c r="F5" s="819"/>
+      <c r="G5" s="818" t="str">
         <f>Indata!F6</f>
         <v>Policy scenario (EMA)</v>
       </c>
-      <c r="H5" s="831"/>
-      <c r="I5" s="830" t="str">
+      <c r="H5" s="819"/>
+      <c r="I5" s="818" t="str">
         <f>Indata!H6</f>
         <v>Reference scenario (EMA -beslutad politik, varierande X)</v>
       </c>
-      <c r="J5" s="831"/>
+      <c r="J5" s="819"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120" t="s">
@@ -45633,29 +45636,29 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="773" t="s">
+      <c r="G16" s="785" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="774"/>
-      <c r="I16" s="773" t="s">
+      <c r="H16" s="786"/>
+      <c r="I16" s="785" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="774"/>
+      <c r="J16" s="786"/>
     </row>
     <row r="17" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="550" t="s">
         <v>476</v>
       </c>
-      <c r="G17" s="830" t="str">
+      <c r="G17" s="818" t="str">
         <f>G5</f>
         <v>Policy scenario (EMA)</v>
       </c>
-      <c r="H17" s="831"/>
-      <c r="I17" s="830" t="str">
+      <c r="H17" s="819"/>
+      <c r="I17" s="818" t="str">
         <f>I5</f>
         <v>Reference scenario (EMA -beslutad politik, varierande X)</v>
       </c>
-      <c r="J17" s="831"/>
+      <c r="J17" s="819"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="122">

--- a/models/Master.xlsx
+++ b/models/Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="11805" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="11220" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Beskrivning" sheetId="19" r:id="rId1"/>
@@ -6764,63 +6764,63 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6839,6 +6839,33 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6857,33 +6884,6 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6902,54 +6902,54 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6968,26 +6968,32 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6995,12 +7001,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7031,23 +7031,23 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -12034,10 +12034,10 @@
   <sheetPr>
     <tabColor rgb="FFD70000"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12047,146 +12047,142 @@
     <col min="3" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="117" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" ht="308.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="769" t="s">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" ht="308.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="769" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="769"/>
-      <c r="C3" s="769"/>
-      <c r="D3" s="769"/>
-      <c r="E3" s="769"/>
-      <c r="F3" s="769"/>
-      <c r="G3" s="769"/>
-      <c r="H3" s="769"/>
-      <c r="I3" s="769"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="B4" s="769"/>
+      <c r="C4" s="769"/>
+      <c r="D4" s="769"/>
+      <c r="E4" s="769"/>
+      <c r="F4" s="769"/>
+      <c r="G4" s="769"/>
+      <c r="H4" s="769"/>
+      <c r="I4" s="769"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B6" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="38"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="284" t="s">
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="284" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="285" t="s">
+      <c r="B7" s="285" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="286" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="287" t="s">
-        <v>340</v>
       </c>
       <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="286" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="B8" s="287" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="286" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="B9" s="287" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="286" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="B10" s="287" t="s">
-        <v>208</v>
+        <v>368</v>
       </c>
       <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="286" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="287" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="286" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="287" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="286" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="287" t="s">
+      <c r="B13" s="287" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="288" t="s">
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="289" t="s">
+      <c r="B14" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="361" t="s">
+      <c r="C14" s="38"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="361" t="s">
         <v>341</v>
-      </c>
-      <c r="B15" s="205"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="205" t="s">
-        <v>342</v>
       </c>
       <c r="B16" s="205"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="205" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="205"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="205" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B18" s="205"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="205" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="205"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="205" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="205"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="205" t="s">
         <v>346</v>
       </c>
-      <c r="B20" s="205"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="205"/>
       <c r="B21" s="205"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12209,9 +12205,13 @@
       <c r="A26" s="205"/>
       <c r="B26" s="205"/>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="205"/>
+      <c r="B27" s="205"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14247,7 +14247,7 @@
   </sheetPr>
   <dimension ref="A1:I277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A59" sqref="A59"/>
@@ -14264,28 +14264,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="842" t="s">
+      <c r="A1" s="840" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="846" t="s">
+      <c r="B1" s="842" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="846"/>
-      <c r="D1" s="846" t="s">
+      <c r="C1" s="842"/>
+      <c r="D1" s="842" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="846"/>
-      <c r="F1" s="846"/>
-      <c r="G1" s="846"/>
-      <c r="H1" s="840" t="s">
+      <c r="E1" s="842"/>
+      <c r="F1" s="842"/>
+      <c r="G1" s="842"/>
+      <c r="H1" s="843" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="844" t="s">
+      <c r="I1" s="845" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="843"/>
+      <c r="A2" s="841"/>
       <c r="B2" s="593">
         <v>2030</v>
       </c>
@@ -14304,8 +14304,8 @@
       <c r="G2" s="593" t="s">
         <v>471</v>
       </c>
-      <c r="H2" s="841"/>
-      <c r="I2" s="845"/>
+      <c r="H2" s="844"/>
+      <c r="I2" s="846"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="594" t="s">
@@ -14592,20 +14592,20 @@
       <c r="A17" s="611" t="s">
         <v>423</v>
       </c>
-      <c r="B17" s="840" t="s">
+      <c r="B17" s="843" t="s">
         <v>424</v>
       </c>
-      <c r="C17" s="844"/>
-      <c r="D17" s="847" t="s">
+      <c r="C17" s="845"/>
+      <c r="D17" s="849" t="s">
         <v>403</v>
       </c>
-      <c r="E17" s="848"/>
+      <c r="E17" s="850"/>
       <c r="F17" s="612"/>
       <c r="G17" s="594"/>
-      <c r="H17" s="840" t="s">
+      <c r="H17" s="843" t="s">
         <v>405</v>
       </c>
-      <c r="I17" s="844" t="s">
+      <c r="I17" s="845" t="s">
         <v>420</v>
       </c>
     </row>
@@ -14625,8 +14625,8 @@
       </c>
       <c r="F18" s="592"/>
       <c r="G18" s="607"/>
-      <c r="H18" s="841"/>
-      <c r="I18" s="845"/>
+      <c r="H18" s="844"/>
+      <c r="I18" s="846"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="595" t="s">
@@ -14791,20 +14791,20 @@
       <c r="A30" s="611" t="s">
         <v>430</v>
       </c>
-      <c r="B30" s="847" t="s">
+      <c r="B30" s="849" t="s">
         <v>432</v>
       </c>
-      <c r="C30" s="848"/>
+      <c r="C30" s="850"/>
       <c r="D30" s="851" t="s">
         <v>431</v>
       </c>
       <c r="E30" s="852"/>
       <c r="F30" s="612"/>
       <c r="G30" s="594"/>
-      <c r="H30" s="840" t="s">
+      <c r="H30" s="843" t="s">
         <v>405</v>
       </c>
-      <c r="I30" s="844" t="s">
+      <c r="I30" s="845" t="s">
         <v>420</v>
       </c>
     </row>
@@ -14824,8 +14824,8 @@
       </c>
       <c r="F31" s="592"/>
       <c r="G31" s="607"/>
-      <c r="H31" s="841"/>
-      <c r="I31" s="845"/>
+      <c r="H31" s="844"/>
+      <c r="I31" s="846"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="595" t="s">
@@ -15443,20 +15443,20 @@
       <c r="A60" s="611" t="s">
         <v>511</v>
       </c>
-      <c r="B60" s="847" t="s">
+      <c r="B60" s="849" t="s">
         <v>424</v>
       </c>
-      <c r="C60" s="848"/>
-      <c r="D60" s="847" t="s">
+      <c r="C60" s="850"/>
+      <c r="D60" s="849" t="s">
         <v>403</v>
       </c>
       <c r="E60" s="853"/>
       <c r="F60" s="853"/>
-      <c r="G60" s="848"/>
-      <c r="H60" s="849" t="s">
+      <c r="G60" s="850"/>
+      <c r="H60" s="847" t="s">
         <v>405</v>
       </c>
-      <c r="I60" s="844" t="s">
+      <c r="I60" s="845" t="s">
         <v>420</v>
       </c>
     </row>
@@ -15480,8 +15480,8 @@
       <c r="G61" s="609" t="s">
         <v>471</v>
       </c>
-      <c r="H61" s="850"/>
-      <c r="I61" s="845"/>
+      <c r="H61" s="848"/>
+      <c r="I61" s="846"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="595" t="s">
@@ -15888,23 +15888,23 @@
       <c r="I78" s="595"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="842" t="s">
+      <c r="A79" s="840" t="s">
         <v>408</v>
       </c>
-      <c r="B79" s="846" t="s">
+      <c r="B79" s="842" t="s">
         <v>424</v>
       </c>
-      <c r="C79" s="846"/>
-      <c r="D79" s="846" t="s">
+      <c r="C79" s="842"/>
+      <c r="D79" s="842" t="s">
         <v>403</v>
       </c>
-      <c r="E79" s="846"/>
-      <c r="F79" s="846"/>
-      <c r="G79" s="846"/>
+      <c r="E79" s="842"/>
+      <c r="F79" s="842"/>
+      <c r="G79" s="842"/>
       <c r="I79" s="595"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="843"/>
+      <c r="A80" s="841"/>
       <c r="B80" s="593">
         <v>2030</v>
       </c>
@@ -17505,6 +17505,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="D79:G79"/>
@@ -17516,15 +17525,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17538,7 +17538,7 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -17595,7 +17595,7 @@
       <c r="O3" s="118"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="775" t="s">
+      <c r="A4" s="786" t="s">
         <v>289</v>
       </c>
       <c r="B4" s="859" t="s">
@@ -17757,7 +17757,7 @@
       <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="776"/>
+      <c r="A10" s="790"/>
       <c r="B10" s="857" t="s">
         <v>674</v>
       </c>
@@ -17784,7 +17784,7 @@
       <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="777" t="s">
+      <c r="A11" s="778" t="s">
         <v>260</v>
       </c>
       <c r="B11" s="711" t="s">
@@ -17813,7 +17813,7 @@
       <c r="O11" s="38"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="777"/>
+      <c r="A12" s="778"/>
       <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
@@ -17840,7 +17840,7 @@
       <c r="O12" s="38"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="777" t="s">
+      <c r="A13" s="778" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="38" t="s">
@@ -17869,7 +17869,7 @@
       <c r="O13" s="38"/>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="778" t="s">
+      <c r="A14" s="777" t="s">
         <v>261</v>
       </c>
       <c r="B14" s="102" t="s">
@@ -17898,7 +17898,7 @@
       <c r="O14" s="38"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="777"/>
+      <c r="A15" s="778"/>
       <c r="B15" s="38" t="s">
         <v>281</v>
       </c>
@@ -17925,7 +17925,7 @@
       <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="777" t="s">
+      <c r="A16" s="778" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="38" t="s">
@@ -17954,7 +17954,7 @@
       <c r="O16" s="38"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="778" t="s">
+      <c r="A17" s="777" t="s">
         <v>267</v>
       </c>
       <c r="B17" s="102" t="s">
@@ -17983,7 +17983,7 @@
       <c r="O17" s="38"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="777"/>
+      <c r="A18" s="778"/>
       <c r="B18" s="38" t="s">
         <v>281</v>
       </c>
@@ -18010,7 +18010,7 @@
       <c r="O18" s="38"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="779" t="s">
+      <c r="A19" s="783" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="103" t="s">
@@ -18039,7 +18039,7 @@
       <c r="O19" s="38"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="826" t="s">
+      <c r="A20" s="825" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="75" t="s">
@@ -18068,7 +18068,7 @@
       <c r="O20" s="38"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="826"/>
+      <c r="A21" s="825"/>
       <c r="B21" s="75" t="s">
         <v>291</v>
       </c>
@@ -18095,7 +18095,7 @@
       <c r="O21" s="38"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="772" t="s">
+      <c r="A22" s="784" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="102" t="s">
@@ -18124,7 +18124,7 @@
       <c r="O22" s="38"/>
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="773"/>
+      <c r="A23" s="789"/>
       <c r="B23" s="38" t="s">
         <v>96</v>
       </c>
@@ -18151,7 +18151,7 @@
       <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="773"/>
+      <c r="A24" s="789"/>
       <c r="B24" s="38" t="s">
         <v>133</v>
       </c>
@@ -18178,7 +18178,7 @@
       <c r="O24" s="38"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="773"/>
+      <c r="A25" s="789"/>
       <c r="B25" s="38" t="s">
         <v>97</v>
       </c>
@@ -18205,7 +18205,7 @@
       <c r="O25" s="38"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="773"/>
+      <c r="A26" s="789"/>
       <c r="B26" s="38" t="s">
         <v>134</v>
       </c>
@@ -18232,7 +18232,7 @@
       <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="780"/>
+      <c r="A27" s="785"/>
       <c r="B27" s="103" t="s">
         <v>99</v>
       </c>
@@ -18316,25 +18316,25 @@
       <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="864" t="s">
+      <c r="A2" s="861" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="864"/>
-      <c r="C2" s="864"/>
-      <c r="D2" s="864"/>
-      <c r="E2" s="864"/>
-      <c r="F2" s="864"/>
-      <c r="G2" s="864"/>
-      <c r="H2" s="864"/>
-      <c r="I2" s="864"/>
-      <c r="J2" s="864"/>
+      <c r="B2" s="861"/>
+      <c r="C2" s="861"/>
+      <c r="D2" s="861"/>
+      <c r="E2" s="861"/>
+      <c r="F2" s="861"/>
+      <c r="G2" s="861"/>
+      <c r="H2" s="861"/>
+      <c r="I2" s="861"/>
+      <c r="J2" s="861"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="865" t="s">
+      <c r="A3" s="862" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="866"/>
-      <c r="C3" s="866"/>
+      <c r="B3" s="863"/>
+      <c r="C3" s="863"/>
       <c r="D3" s="185"/>
       <c r="E3" s="185"/>
       <c r="F3" s="185"/>
@@ -18419,18 +18419,18 @@
       <c r="B7" s="182"/>
       <c r="C7" s="182"/>
       <c r="D7" s="182"/>
-      <c r="E7" s="861" t="s">
+      <c r="E7" s="866" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="862"/>
-      <c r="G7" s="861" t="s">
+      <c r="F7" s="865"/>
+      <c r="G7" s="866" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="862"/>
-      <c r="I7" s="863" t="s">
+      <c r="H7" s="865"/>
+      <c r="I7" s="864" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="862"/>
+      <c r="J7" s="865"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="184" t="s">
@@ -19046,18 +19046,18 @@
       <c r="B26" s="182"/>
       <c r="C26" s="182"/>
       <c r="D26" s="182"/>
-      <c r="E26" s="861" t="s">
+      <c r="E26" s="866" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="862"/>
-      <c r="G26" s="861" t="s">
+      <c r="F26" s="865"/>
+      <c r="G26" s="866" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="862"/>
-      <c r="I26" s="863" t="s">
+      <c r="H26" s="865"/>
+      <c r="I26" s="864" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="862"/>
+      <c r="J26" s="865"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="184" t="s">
@@ -19659,18 +19659,18 @@
       <c r="B45" s="182"/>
       <c r="C45" s="182"/>
       <c r="D45" s="182"/>
-      <c r="E45" s="861" t="s">
+      <c r="E45" s="866" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="862"/>
-      <c r="G45" s="861" t="s">
+      <c r="F45" s="865"/>
+      <c r="G45" s="866" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="862"/>
-      <c r="I45" s="863" t="s">
+      <c r="H45" s="865"/>
+      <c r="I45" s="864" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="862"/>
+      <c r="J45" s="865"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="184" t="s">
@@ -20265,18 +20265,18 @@
       <c r="B64" s="182"/>
       <c r="C64" s="182"/>
       <c r="D64" s="182"/>
-      <c r="E64" s="861" t="s">
+      <c r="E64" s="866" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="862"/>
-      <c r="G64" s="861" t="s">
+      <c r="F64" s="865"/>
+      <c r="G64" s="866" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="862"/>
-      <c r="I64" s="863" t="s">
+      <c r="H64" s="865"/>
+      <c r="I64" s="864" t="s">
         <v>66</v>
       </c>
-      <c r="J64" s="862"/>
+      <c r="J64" s="865"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="184" t="s">
@@ -20664,18 +20664,18 @@
       <c r="B77" s="182"/>
       <c r="C77" s="182"/>
       <c r="D77" s="182"/>
-      <c r="E77" s="861" t="s">
+      <c r="E77" s="866" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="862"/>
-      <c r="G77" s="861" t="s">
+      <c r="F77" s="865"/>
+      <c r="G77" s="866" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="862"/>
-      <c r="I77" s="863" t="s">
+      <c r="H77" s="865"/>
+      <c r="I77" s="864" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="862"/>
+      <c r="J77" s="865"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="184" t="s">
@@ -21058,11 +21058,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="E7:F7"/>
@@ -21075,6 +21070,11 @@
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21086,7 +21086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -22320,18 +22320,21 @@
   </sheetPr>
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" style="38" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="40.140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="38" customWidth="1"/>
     <col min="7" max="9" width="21.7109375" style="38" customWidth="1"/>
     <col min="10" max="10" width="108.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="8.85546875" style="38"/>
@@ -22374,18 +22377,18 @@
       <c r="A5" s="120"/>
       <c r="B5" s="121"/>
       <c r="C5" s="121"/>
-      <c r="D5" s="785" t="s">
+      <c r="D5" s="775" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="786"/>
-      <c r="F5" s="785" t="s">
+      <c r="E5" s="776"/>
+      <c r="F5" s="775" t="s">
         <v>472</v>
       </c>
-      <c r="G5" s="786"/>
-      <c r="H5" s="785" t="s">
+      <c r="G5" s="776"/>
+      <c r="H5" s="775" t="s">
         <v>473</v>
       </c>
-      <c r="I5" s="786"/>
+      <c r="I5" s="776"/>
       <c r="J5" s="770" t="s">
         <v>15</v>
       </c>
@@ -22405,18 +22408,18 @@
       </c>
       <c r="B6" s="127"/>
       <c r="C6" s="128"/>
-      <c r="D6" s="787" t="s">
+      <c r="D6" s="779" t="s">
         <v>475</v>
       </c>
-      <c r="E6" s="788"/>
-      <c r="F6" s="789" t="s">
+      <c r="E6" s="780"/>
+      <c r="F6" s="781" t="s">
         <v>468</v>
       </c>
-      <c r="G6" s="790"/>
-      <c r="H6" s="789" t="s">
+      <c r="G6" s="782"/>
+      <c r="H6" s="781" t="s">
         <v>469</v>
       </c>
-      <c r="I6" s="790"/>
+      <c r="I6" s="782"/>
       <c r="J6" s="62"/>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -22511,7 +22514,7 @@
       <c r="S8" s="118"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="778" t="s">
+      <c r="A9" s="777" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="102" t="s">
@@ -22547,7 +22550,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="777"/>
+      <c r="A10" s="778"/>
       <c r="B10" s="38" t="s">
         <v>12</v>
       </c>
@@ -22581,7 +22584,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="777"/>
+      <c r="A11" s="778"/>
       <c r="B11" s="38" t="s">
         <v>13</v>
       </c>
@@ -22614,7 +22617,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="777"/>
+      <c r="A12" s="778"/>
       <c r="B12" s="38" t="s">
         <v>37</v>
       </c>
@@ -22648,7 +22651,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="778" t="s">
+      <c r="A13" s="777" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="102" t="s">
@@ -22684,7 +22687,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="779"/>
+      <c r="A14" s="783"/>
       <c r="B14" s="103" t="s">
         <v>9</v>
       </c>
@@ -22718,7 +22721,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="778" t="s">
+      <c r="A15" s="777" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="102" t="s">
@@ -22754,7 +22757,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="779"/>
+      <c r="A16" s="783"/>
       <c r="B16" s="103" t="s">
         <v>319</v>
       </c>
@@ -22867,7 +22870,7 @@
       <c r="S18" s="118"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="778" t="s">
+      <c r="A19" s="777" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="102" t="s">
@@ -22903,7 +22906,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="779"/>
+      <c r="A20" s="783"/>
       <c r="B20" s="103" t="s">
         <v>319</v>
       </c>
@@ -22937,7 +22940,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="777" t="s">
+      <c r="A21" s="778" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="102" t="s">
@@ -22973,7 +22976,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="779"/>
+      <c r="A22" s="783"/>
       <c r="B22" s="103" t="s">
         <v>319</v>
       </c>
@@ -23084,7 +23087,7 @@
       <c r="S24" s="118"/>
     </row>
     <row r="25" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="778" t="s">
+      <c r="A25" s="777" t="s">
         <v>149</v>
       </c>
       <c r="B25" s="102" t="s">
@@ -23131,7 +23134,7 @@
       <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="777"/>
+      <c r="A26" s="778"/>
       <c r="B26" s="38" t="s">
         <v>9</v>
       </c>
@@ -23176,7 +23179,7 @@
       <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="779"/>
+      <c r="A27" s="783"/>
       <c r="B27" s="103" t="s">
         <v>7</v>
       </c>
@@ -23268,7 +23271,7 @@
       <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="778" t="s">
+      <c r="A29" s="777" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="102" t="s">
@@ -23315,7 +23318,7 @@
       <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="777"/>
+      <c r="A30" s="778"/>
       <c r="B30" s="38" t="s">
         <v>9</v>
       </c>
@@ -23360,7 +23363,7 @@
       <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="779"/>
+      <c r="A31" s="783"/>
       <c r="B31" s="103" t="s">
         <v>7</v>
       </c>
@@ -23405,7 +23408,7 @@
       <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="772" t="s">
+      <c r="A32" s="784" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="102" t="s">
@@ -23443,7 +23446,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="773"/>
+      <c r="A33" s="789"/>
       <c r="B33" s="38" t="s">
         <v>9</v>
       </c>
@@ -23479,7 +23482,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="773"/>
+      <c r="A34" s="789"/>
       <c r="B34" s="38" t="s">
         <v>7</v>
       </c>
@@ -23515,7 +23518,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="780"/>
+      <c r="A35" s="785"/>
       <c r="B35" s="103" t="s">
         <v>20</v>
       </c>
@@ -23681,7 +23684,7 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="775" t="s">
+      <c r="A39" s="786" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="102" t="s">
@@ -23727,7 +23730,7 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="776"/>
+      <c r="A40" s="790"/>
       <c r="B40" s="103" t="s">
         <v>29</v>
       </c>
@@ -23813,7 +23816,7 @@
       <c r="S41" s="118"/>
     </row>
     <row r="42" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="772" t="s">
+      <c r="A42" s="784" t="s">
         <v>149</v>
       </c>
       <c r="B42" s="102" t="s">
@@ -23860,7 +23863,7 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="773"/>
+      <c r="A43" s="789"/>
       <c r="B43" s="38" t="s">
         <v>116</v>
       </c>
@@ -23905,7 +23908,7 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="774"/>
+      <c r="A44" s="787"/>
       <c r="B44" s="38" t="s">
         <v>117</v>
       </c>
@@ -23950,7 +23953,7 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="774"/>
+      <c r="A45" s="787"/>
       <c r="B45" s="38" t="s">
         <v>118</v>
       </c>
@@ -23995,7 +23998,7 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="772" t="s">
+      <c r="A46" s="784" t="s">
         <v>375</v>
       </c>
       <c r="B46" s="102" t="s">
@@ -24042,7 +24045,7 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="773"/>
+      <c r="A47" s="789"/>
       <c r="B47" s="38" t="s">
         <v>116</v>
       </c>
@@ -24087,7 +24090,7 @@
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="774"/>
+      <c r="A48" s="787"/>
       <c r="B48" s="38" t="s">
         <v>117</v>
       </c>
@@ -24132,7 +24135,7 @@
       <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="774"/>
+      <c r="A49" s="787"/>
       <c r="B49" s="38" t="s">
         <v>118</v>
       </c>
@@ -24177,7 +24180,7 @@
       <c r="S49" s="26"/>
     </row>
     <row r="50" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="772" t="s">
+      <c r="A50" s="784" t="s">
         <v>374</v>
       </c>
       <c r="B50" s="102" t="s">
@@ -24224,7 +24227,7 @@
       <c r="S50" s="26"/>
     </row>
     <row r="51" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="773"/>
+      <c r="A51" s="789"/>
       <c r="B51" s="38" t="s">
         <v>116</v>
       </c>
@@ -24269,7 +24272,7 @@
       <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="774"/>
+      <c r="A52" s="787"/>
       <c r="B52" s="38" t="s">
         <v>117</v>
       </c>
@@ -24314,7 +24317,7 @@
       <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="774"/>
+      <c r="A53" s="787"/>
       <c r="B53" s="38" t="s">
         <v>118</v>
       </c>
@@ -24359,7 +24362,7 @@
       <c r="S53" s="26"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="782" t="s">
+      <c r="A54" s="772" t="s">
         <v>627</v>
       </c>
       <c r="B54" s="630" t="s">
@@ -24403,7 +24406,7 @@
       <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="783"/>
+      <c r="A55" s="773"/>
       <c r="B55" s="26" t="s">
         <v>116</v>
       </c>
@@ -24445,7 +24448,7 @@
       <c r="S55" s="26"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="783"/>
+      <c r="A56" s="773"/>
       <c r="B56" s="26" t="s">
         <v>117</v>
       </c>
@@ -24487,7 +24490,7 @@
       <c r="S56" s="26"/>
     </row>
     <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="784"/>
+      <c r="A57" s="774"/>
       <c r="B57" s="620" t="s">
         <v>118</v>
       </c>
@@ -24529,7 +24532,7 @@
       <c r="S57" s="26"/>
     </row>
     <row r="58" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="777" t="s">
+      <c r="A58" s="778" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="38" t="s">
@@ -24567,7 +24570,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="777"/>
+      <c r="A59" s="778"/>
       <c r="B59" s="38" t="s">
         <v>7</v>
       </c>
@@ -24603,7 +24606,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="775" t="s">
+      <c r="A60" s="786" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="323" t="s">
@@ -24641,7 +24644,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="774"/>
+      <c r="A61" s="787"/>
       <c r="B61" s="38" t="s">
         <v>115</v>
       </c>
@@ -24686,7 +24689,7 @@
       <c r="S61" s="26"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="774"/>
+      <c r="A62" s="787"/>
       <c r="B62" s="38" t="s">
         <v>116</v>
       </c>
@@ -24731,7 +24734,7 @@
       <c r="S62" s="26"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="774"/>
+      <c r="A63" s="787"/>
       <c r="B63" s="38" t="s">
         <v>117</v>
       </c>
@@ -24776,7 +24779,7 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="781"/>
+      <c r="A64" s="788"/>
       <c r="B64" s="103" t="s">
         <v>118</v>
       </c>
@@ -24899,7 +24902,7 @@
       <c r="K66" s="771"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="772" t="s">
+      <c r="A67" s="784" t="s">
         <v>307</v>
       </c>
       <c r="B67" s="102" t="s">
@@ -24937,7 +24940,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="780"/>
+      <c r="A68" s="785"/>
       <c r="B68" s="103" t="s">
         <v>7</v>
       </c>
@@ -25470,6 +25473,20 @@
     <protectedRange algorithmName="SHA-512" hashValue="bhbLMjBtLJkCl6+oRAIq98NZkcBAWzm8GjbRfoftLGnxxPl6tbwDiFe+9aTX2EHNMDT88cd1rnVmqQcow+/x8w==" saltValue="u4cWX+yqQiFBZXUHKrq6Og==" spinCount="100000" sqref="F9:G23" name="Indata"/>
   </protectedRanges>
   <mergeCells count="30">
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="D5:E5"/>
@@ -25486,20 +25503,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25533,7 +25536,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25853,7 +25856,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26014,8 +26017,8 @@
   </sheetPr>
   <dimension ref="A1:AM89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -26053,10 +26056,10 @@
       <c r="A3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="808" t="s">
+      <c r="B3" s="798" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="809"/>
+      <c r="C3" s="799"/>
       <c r="D3" s="791" t="s">
         <v>64</v>
       </c>
@@ -26072,10 +26075,10 @@
       <c r="K3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="803" t="s">
+      <c r="L3" s="802" t="s">
         <v>232</v>
       </c>
-      <c r="M3" s="804"/>
+      <c r="M3" s="803"/>
       <c r="N3" s="791" t="s">
         <v>64</v>
       </c>
@@ -26091,10 +26094,10 @@
       <c r="U3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="803" t="s">
+      <c r="V3" s="802" t="s">
         <v>223</v>
       </c>
-      <c r="W3" s="804"/>
+      <c r="W3" s="803"/>
       <c r="X3" s="791" t="s">
         <v>64</v>
       </c>
@@ -26110,10 +26113,10 @@
       <c r="AE3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="803" t="s">
+      <c r="AF3" s="802" t="s">
         <v>233</v>
       </c>
-      <c r="AG3" s="804"/>
+      <c r="AG3" s="803"/>
       <c r="AH3" s="791" t="s">
         <v>64</v>
       </c>
@@ -26128,9 +26131,9 @@
       <c r="AM3" s="792"/>
     </row>
     <row r="4" spans="1:39" s="118" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="807"/>
-      <c r="B4" s="810"/>
-      <c r="C4" s="811"/>
+      <c r="A4" s="797"/>
+      <c r="B4" s="800"/>
+      <c r="C4" s="801"/>
       <c r="D4" s="253">
         <v>2030</v>
       </c>
@@ -26149,9 +26152,9 @@
       <c r="I4" s="254">
         <v>2040</v>
       </c>
-      <c r="K4" s="807"/>
-      <c r="L4" s="805"/>
-      <c r="M4" s="806"/>
+      <c r="K4" s="797"/>
+      <c r="L4" s="804"/>
+      <c r="M4" s="805"/>
       <c r="N4" s="253">
         <v>2030</v>
       </c>
@@ -26170,9 +26173,9 @@
       <c r="S4" s="254">
         <v>2040</v>
       </c>
-      <c r="U4" s="807"/>
-      <c r="V4" s="805"/>
-      <c r="W4" s="806"/>
+      <c r="U4" s="797"/>
+      <c r="V4" s="804"/>
+      <c r="W4" s="805"/>
       <c r="X4" s="253">
         <v>2030</v>
       </c>
@@ -26191,9 +26194,9 @@
       <c r="AC4" s="254">
         <v>2040</v>
       </c>
-      <c r="AE4" s="807"/>
-      <c r="AF4" s="805"/>
-      <c r="AG4" s="806"/>
+      <c r="AE4" s="797"/>
+      <c r="AF4" s="804"/>
+      <c r="AG4" s="805"/>
       <c r="AH4" s="253">
         <v>2030</v>
       </c>
@@ -26254,7 +26257,7 @@
       <c r="AM5" s="189"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="797" t="s">
+      <c r="A6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="124" t="s">
@@ -26287,7 +26290,7 @@
         <f>Indata!I32</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="K6" s="797" t="s">
+      <c r="K6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="124" t="s">
@@ -26320,7 +26323,7 @@
         <f>'Modell - Drivmedelpriser'!J24</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="U6" s="797" t="s">
+      <c r="U6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="124" t="s">
@@ -26353,7 +26356,7 @@
         <f t="shared" ref="AC6:AC8" si="4">S6</f>
         <v>21.293751803814949</v>
       </c>
-      <c r="AE6" s="797" t="s">
+      <c r="AE6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="124" t="s">
@@ -26388,7 +26391,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="798"/>
+      <c r="A7" s="807"/>
       <c r="B7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26419,7 +26422,7 @@
         <f>Indata!I33</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="K7" s="798"/>
+      <c r="K7" s="807"/>
       <c r="L7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26450,7 +26453,7 @@
         <f>'Modell - Drivmedelpriser'!J43</f>
         <v>22.557131724953557</v>
       </c>
-      <c r="U7" s="798"/>
+      <c r="U7" s="807"/>
       <c r="V7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26481,7 +26484,7 @@
         <f t="shared" si="4"/>
         <v>22.557131724953557</v>
       </c>
-      <c r="AE7" s="798"/>
+      <c r="AE7" s="807"/>
       <c r="AF7" s="125" t="s">
         <v>9</v>
       </c>
@@ -26514,7 +26517,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="798"/>
+      <c r="A8" s="807"/>
       <c r="B8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26545,7 +26548,7 @@
         <f>Indata!I34</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="K8" s="798"/>
+      <c r="K8" s="807"/>
       <c r="L8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26576,7 +26579,7 @@
         <f>'Modell - Drivmedelpriser'!J75</f>
         <v>4.1598749999999995</v>
       </c>
-      <c r="U8" s="798"/>
+      <c r="U8" s="807"/>
       <c r="V8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26607,7 +26610,7 @@
         <f t="shared" si="4"/>
         <v>4.1598749999999995</v>
       </c>
-      <c r="AE8" s="798"/>
+      <c r="AE8" s="807"/>
       <c r="AF8" s="125" t="s">
         <v>7</v>
       </c>
@@ -26640,7 +26643,7 @@
       </c>
     </row>
     <row r="9" spans="1:39" s="290" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="798"/>
+      <c r="A9" s="807"/>
       <c r="B9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26671,7 +26674,7 @@
         <f>Indata!I35</f>
         <v>21.927924171466245</v>
       </c>
-      <c r="K9" s="798"/>
+      <c r="K9" s="807"/>
       <c r="L9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26702,7 +26705,7 @@
         <f t="shared" si="12"/>
         <v>21.927924171466245</v>
       </c>
-      <c r="U9" s="798"/>
+      <c r="U9" s="807"/>
       <c r="V9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26733,7 +26736,7 @@
         <f t="shared" si="13"/>
         <v>21.927924171466245</v>
       </c>
-      <c r="AE9" s="798"/>
+      <c r="AE9" s="807"/>
       <c r="AF9" s="175" t="s">
         <v>20</v>
       </c>
@@ -26766,7 +26769,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="799"/>
+      <c r="A10" s="808"/>
       <c r="B10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26791,7 +26794,7 @@
       <c r="I10" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="799"/>
+      <c r="K10" s="808"/>
       <c r="L10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26822,7 +26825,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U10" s="799"/>
+      <c r="U10" s="808"/>
       <c r="V10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26853,7 +26856,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="799"/>
+      <c r="AE10" s="808"/>
       <c r="AF10" s="176" t="s">
         <v>229</v>
       </c>
@@ -26955,7 +26958,7 @@
       <c r="AM12" s="189"/>
     </row>
     <row r="13" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="797" t="s">
+      <c r="A13" s="806" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="124" t="s">
@@ -26988,7 +26991,7 @@
         <f>Indata!I29</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="K13" s="800" t="s">
+      <c r="K13" s="809" t="s">
         <v>38</v>
       </c>
       <c r="L13" s="659" t="s">
@@ -27021,7 +27024,7 @@
         <f>I13*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)*(1-I52*Indata!I75)</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="U13" s="797" t="s">
+      <c r="U13" s="806" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="124" t="s">
@@ -27054,7 +27057,7 @@
         <f t="shared" ref="AC13:AC15" si="22">S13</f>
         <v>0.49219920755019081</v>
       </c>
-      <c r="AE13" s="797" t="s">
+      <c r="AE13" s="806" t="s">
         <v>38</v>
       </c>
       <c r="AF13" s="124" t="s">
@@ -27089,7 +27092,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="798"/>
+      <c r="A14" s="807"/>
       <c r="B14" s="125" t="s">
         <v>9</v>
       </c>
@@ -27120,7 +27123,7 @@
         <f>Indata!I30</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="K14" s="801"/>
+      <c r="K14" s="810"/>
       <c r="L14" s="660" t="s">
         <v>9</v>
       </c>
@@ -27151,7 +27154,7 @@
         <f>I14*(100%+S$10*'Indata - Effektsamband-Faktorer'!$E$5)*(1-Indata!I$19)*(1-I52*Indata!I75)</f>
         <v>0.49160078067679608</v>
       </c>
-      <c r="U14" s="798"/>
+      <c r="U14" s="807"/>
       <c r="V14" s="125" t="s">
         <v>9</v>
       </c>
@@ -27182,7 +27185,7 @@
         <f t="shared" si="22"/>
         <v>0.49160078067679608</v>
       </c>
-      <c r="AE14" s="798"/>
+      <c r="AE14" s="807"/>
       <c r="AF14" s="125" t="s">
         <v>9</v>
       </c>
@@ -27215,7 +27218,7 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="799"/>
+      <c r="A15" s="808"/>
       <c r="B15" s="126" t="s">
         <v>7</v>
       </c>
@@ -27246,7 +27249,7 @@
         <f>Indata!I31</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="K15" s="802"/>
+      <c r="K15" s="811"/>
       <c r="L15" s="661" t="s">
         <v>7</v>
       </c>
@@ -27277,7 +27280,7 @@
         <f>I15*(1-Indata!I$19)*(1-I52*Indata!I75)</f>
         <v>1.6150000000000002</v>
       </c>
-      <c r="U15" s="799"/>
+      <c r="U15" s="808"/>
       <c r="V15" s="126" t="s">
         <v>7</v>
       </c>
@@ -27308,7 +27311,7 @@
         <f t="shared" si="22"/>
         <v>1.6150000000000002</v>
       </c>
-      <c r="AE15" s="799"/>
+      <c r="AE15" s="808"/>
       <c r="AF15" s="126" t="s">
         <v>7</v>
       </c>
@@ -27991,7 +27994,7 @@
       <c r="AM23" s="189"/>
     </row>
     <row r="24" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="797" t="s">
+      <c r="A24" s="806" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="124" t="s">
@@ -28024,7 +28027,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K24" s="797" t="s">
+      <c r="K24" s="806" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="124" t="s">
@@ -28057,7 +28060,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="U24" s="797" t="s">
+      <c r="U24" s="806" t="s">
         <v>21</v>
       </c>
       <c r="V24" s="124" t="s">
@@ -28090,7 +28093,7 @@
         <f t="shared" ref="AC24:AC26" si="50">S24</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="797" t="s">
+      <c r="AE24" s="806" t="s">
         <v>21</v>
       </c>
       <c r="AF24" s="124" t="s">
@@ -28125,7 +28128,7 @@
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="798"/>
+      <c r="A25" s="807"/>
       <c r="B25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28156,7 +28159,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K25" s="798"/>
+      <c r="K25" s="807"/>
       <c r="L25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28187,7 +28190,7 @@
         <f t="shared" ref="S25:S26" si="61">I25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="798"/>
+      <c r="U25" s="807"/>
       <c r="V25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28218,7 +28221,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="798"/>
+      <c r="AE25" s="807"/>
       <c r="AF25" s="125" t="s">
         <v>9</v>
       </c>
@@ -28251,7 +28254,7 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="799"/>
+      <c r="A26" s="808"/>
       <c r="B26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28282,7 +28285,7 @@
         <f>Indata!I$15*10</f>
         <v>0</v>
       </c>
-      <c r="K26" s="799"/>
+      <c r="K26" s="808"/>
       <c r="L26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28313,7 +28316,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="U26" s="799"/>
+      <c r="U26" s="808"/>
       <c r="V26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28344,7 +28347,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="799"/>
+      <c r="AE26" s="808"/>
       <c r="AF26" s="126" t="s">
         <v>7</v>
       </c>
@@ -28452,7 +28455,7 @@
       <c r="AM28" s="189"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="797" t="s">
+      <c r="A29" s="806" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="124" t="s">
@@ -28485,7 +28488,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K29" s="800" t="s">
+      <c r="K29" s="809" t="s">
         <v>75</v>
       </c>
       <c r="L29" s="659" t="s">
@@ -28518,7 +28521,7 @@
         <f>I29*(1-Indata!I$74)+I29*(1+Indata!I$76)*I$52</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U29" s="797" t="s">
+      <c r="U29" s="806" t="s">
         <v>75</v>
       </c>
       <c r="V29" s="124" t="s">
@@ -28551,7 +28554,7 @@
         <f t="shared" ref="AC29:AC31" si="68">S29</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE29" s="797" t="s">
+      <c r="AE29" s="806" t="s">
         <v>75</v>
       </c>
       <c r="AF29" s="124" t="s">
@@ -28586,7 +28589,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="798"/>
+      <c r="A30" s="807"/>
       <c r="B30" s="125" t="s">
         <v>9</v>
       </c>
@@ -28617,7 +28620,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K30" s="801"/>
+      <c r="K30" s="810"/>
       <c r="L30" s="660" t="s">
         <v>9</v>
       </c>
@@ -28648,7 +28651,7 @@
         <f>I30*(1-Indata!I$74)+I30*(1+Indata!I$76)*I$52</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U30" s="798"/>
+      <c r="U30" s="807"/>
       <c r="V30" s="125" t="s">
         <v>9</v>
       </c>
@@ -28679,7 +28682,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE30" s="798"/>
+      <c r="AE30" s="807"/>
       <c r="AF30" s="125" t="s">
         <v>9</v>
       </c>
@@ -28712,7 +28715,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="799"/>
+      <c r="A31" s="808"/>
       <c r="B31" s="126" t="s">
         <v>7</v>
       </c>
@@ -28743,7 +28746,7 @@
         <f>Indata!I$36</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="K31" s="802"/>
+      <c r="K31" s="811"/>
       <c r="L31" s="661" t="s">
         <v>7</v>
       </c>
@@ -28774,7 +28777,7 @@
         <f>I31*(1-Indata!I$74)+I31*(1+Indata!I$76)*I$52</f>
         <v>10.009999999999998</v>
       </c>
-      <c r="U31" s="799"/>
+      <c r="U31" s="808"/>
       <c r="V31" s="126" t="s">
         <v>7</v>
       </c>
@@ -28805,7 +28808,7 @@
         <f t="shared" si="68"/>
         <v>10.009999999999998</v>
       </c>
-      <c r="AE31" s="799"/>
+      <c r="AE31" s="808"/>
       <c r="AF31" s="126" t="s">
         <v>7</v>
       </c>
@@ -29500,7 +29503,7 @@
       <c r="AM39" s="189"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="797" t="s">
+      <c r="A40" s="806" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="124" t="s">
@@ -29533,7 +29536,7 @@
         <f t="shared" si="84"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="K40" s="797" t="s">
+      <c r="K40" s="806" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="124" t="s">
@@ -29566,7 +29569,7 @@
         <f t="shared" si="85"/>
         <v>20.490767763608162</v>
       </c>
-      <c r="U40" s="797" t="s">
+      <c r="U40" s="806" t="s">
         <v>77</v>
       </c>
       <c r="V40" s="124" t="s">
@@ -29599,7 +29602,7 @@
         <f t="shared" ref="AC40:AC42" si="90">S40</f>
         <v>20.490767763608162</v>
       </c>
-      <c r="AE40" s="797" t="s">
+      <c r="AE40" s="806" t="s">
         <v>77</v>
       </c>
       <c r="AF40" s="124" t="s">
@@ -29634,7 +29637,7 @@
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="798"/>
+      <c r="A41" s="807"/>
       <c r="B41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29665,7 +29668,7 @@
         <f t="shared" si="84"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="K41" s="798"/>
+      <c r="K41" s="807"/>
       <c r="L41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29696,7 +29699,7 @@
         <f t="shared" si="85"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="U41" s="798"/>
+      <c r="U41" s="807"/>
       <c r="V41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29727,7 +29730,7 @@
         <f t="shared" si="90"/>
         <v>21.099103565816492</v>
       </c>
-      <c r="AE41" s="798"/>
+      <c r="AE41" s="807"/>
       <c r="AF41" s="125" t="s">
         <v>9</v>
       </c>
@@ -29760,7 +29763,7 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="798"/>
+      <c r="A42" s="807"/>
       <c r="B42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29791,7 +29794,7 @@
         <f t="shared" si="84"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="K42" s="798"/>
+      <c r="K42" s="807"/>
       <c r="L42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29822,7 +29825,7 @@
         <f t="shared" si="85"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="U42" s="798"/>
+      <c r="U42" s="807"/>
       <c r="V42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29856,7 @@
         <f t="shared" si="90"/>
         <v>16.728198124999999</v>
       </c>
-      <c r="AE42" s="798"/>
+      <c r="AE42" s="807"/>
       <c r="AF42" s="125" t="s">
         <v>7</v>
       </c>
@@ -29886,7 +29889,7 @@
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="798"/>
+      <c r="A43" s="807"/>
       <c r="B43" s="175" t="s">
         <v>76</v>
       </c>
@@ -29915,7 +29918,7 @@
         <f t="shared" si="98"/>
         <v>19.250316494987008</v>
       </c>
-      <c r="K43" s="798"/>
+      <c r="K43" s="807"/>
       <c r="L43" s="175" t="s">
         <v>76</v>
       </c>
@@ -29946,7 +29949,7 @@
         <f t="shared" ref="S43" si="99">SUMPRODUCT(S40:S42,S34:S36)/S37</f>
         <v>19.250316494987008</v>
       </c>
-      <c r="U43" s="798"/>
+      <c r="U43" s="807"/>
       <c r="V43" s="175" t="s">
         <v>76</v>
       </c>
@@ -29977,7 +29980,7 @@
         <f t="shared" si="100"/>
         <v>19.250316494987008</v>
       </c>
-      <c r="AE43" s="798"/>
+      <c r="AE43" s="807"/>
       <c r="AF43" s="175" t="s">
         <v>76</v>
       </c>
@@ -30010,7 +30013,7 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="799"/>
+      <c r="A44" s="808"/>
       <c r="B44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30035,7 +30038,7 @@
       <c r="I44" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="K44" s="799"/>
+      <c r="K44" s="808"/>
       <c r="L44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30066,7 +30069,7 @@
         <f>S43/E43-1</f>
         <v>-2.0590298791616446E-2</v>
       </c>
-      <c r="U44" s="799"/>
+      <c r="U44" s="808"/>
       <c r="V44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30097,7 +30100,7 @@
         <f>AC43/E43-1</f>
         <v>-2.0590298791616446E-2</v>
       </c>
-      <c r="AE44" s="799"/>
+      <c r="AE44" s="808"/>
       <c r="AF44" s="176" t="s">
         <v>229</v>
       </c>
@@ -30205,7 +30208,7 @@
       <c r="AM46" s="75"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47" s="800" t="s">
+      <c r="A47" s="809" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="659" t="s">
@@ -30238,7 +30241,7 @@
         <f>Indata!I39</f>
         <v>11648700</v>
       </c>
-      <c r="K47" s="800" t="s">
+      <c r="K47" s="809" t="s">
         <v>29</v>
       </c>
       <c r="L47" s="659" t="s">
@@ -30271,7 +30274,7 @@
         <f t="shared" si="101"/>
         <v>11648700</v>
       </c>
-      <c r="U47" s="797" t="s">
+      <c r="U47" s="806" t="s">
         <v>29</v>
       </c>
       <c r="V47" s="124" t="s">
@@ -30304,7 +30307,7 @@
         <f t="shared" ref="AC47:AC49" si="106">S47</f>
         <v>11648700</v>
       </c>
-      <c r="AE47" s="797" t="s">
+      <c r="AE47" s="806" t="s">
         <v>29</v>
       </c>
       <c r="AF47" s="124" t="s">
@@ -30339,7 +30342,7 @@
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48" s="801"/>
+      <c r="A48" s="810"/>
       <c r="B48" s="660" t="s">
         <v>645</v>
       </c>
@@ -30370,7 +30373,7 @@
         <f>Indata!I40</f>
         <v>0.52928701904391762</v>
       </c>
-      <c r="K48" s="801"/>
+      <c r="K48" s="810"/>
       <c r="L48" s="660" t="s">
         <v>646</v>
       </c>
@@ -30401,7 +30404,7 @@
         <f>(1+'Indata - Effektsamband-Faktorer'!$D$7*S44)*I51</f>
         <v>0.53037683683078141</v>
       </c>
-      <c r="U48" s="798"/>
+      <c r="U48" s="807"/>
       <c r="V48" s="125" t="s">
         <v>29</v>
       </c>
@@ -30432,7 +30435,7 @@
         <f t="shared" si="106"/>
         <v>0.53037683683078141</v>
       </c>
-      <c r="AE48" s="798"/>
+      <c r="AE48" s="807"/>
       <c r="AF48" s="125" t="s">
         <v>29</v>
       </c>
@@ -30465,7 +30468,7 @@
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" s="801"/>
+      <c r="A49" s="810"/>
       <c r="B49" s="660" t="s">
         <v>647</v>
       </c>
@@ -30496,7 +30499,7 @@
         <f t="shared" si="112"/>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K49" s="801"/>
+      <c r="K49" s="810"/>
       <c r="L49" s="660" t="s">
         <v>644</v>
       </c>
@@ -30527,7 +30530,7 @@
         <f t="shared" si="113"/>
         <v>6178200.6591907237</v>
       </c>
-      <c r="U49" s="798"/>
+      <c r="U49" s="807"/>
       <c r="V49" s="125" t="s">
         <v>34</v>
       </c>
@@ -30558,7 +30561,7 @@
         <f t="shared" si="106"/>
         <v>6178200.6591907237</v>
       </c>
-      <c r="AE49" s="798"/>
+      <c r="AE49" s="807"/>
       <c r="AF49" s="125" t="s">
         <v>34</v>
       </c>
@@ -30591,7 +30594,7 @@
       </c>
     </row>
     <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="801"/>
+      <c r="A50" s="810"/>
       <c r="B50" s="660" t="s">
         <v>644</v>
       </c>
@@ -30622,7 +30625,7 @@
         <f>I49*Indata!I$74*Indata!I$77+I49*(1-Indata!I$74)</f>
         <v>6165505.6987368828</v>
       </c>
-      <c r="K50" s="802"/>
+      <c r="K50" s="811"/>
       <c r="L50" s="661" t="s">
         <v>229</v>
       </c>
@@ -30653,7 +30656,7 @@
         <f>S49/E50-1</f>
         <v>2.0590298791616224E-3</v>
       </c>
-      <c r="U50" s="799"/>
+      <c r="U50" s="808"/>
       <c r="V50" s="126" t="s">
         <v>229</v>
       </c>
@@ -30684,7 +30687,7 @@
         <f>AC49/E49-1</f>
         <v>2.0590298791616224E-3</v>
       </c>
-      <c r="AE50" s="799"/>
+      <c r="AE50" s="808"/>
       <c r="AF50" s="126" t="s">
         <v>229</v>
       </c>
@@ -32295,6 +32298,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="AE57:AE60"/>
+    <mergeCell ref="AE61:AE64"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U40:U44"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="AE34:AE37"/>
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="U6:U10"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE6:AE10"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AE86:AE89"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -32311,48 +32356,6 @@
     <mergeCell ref="AE24:AE26"/>
     <mergeCell ref="AE29:AE31"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE6:AE10"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="U6:U10"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="AE57:AE60"/>
-    <mergeCell ref="AE61:AE64"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U40:U44"/>
-    <mergeCell ref="U47:U50"/>
-    <mergeCell ref="AE34:AE37"/>
-    <mergeCell ref="AE40:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32367,9 +32370,9 @@
   </sheetPr>
   <dimension ref="A1:AM114"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH89" sqref="AH89"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32406,10 +32409,10 @@
       <c r="A3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="808" t="s">
+      <c r="B3" s="798" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="809"/>
+      <c r="C3" s="799"/>
       <c r="D3" s="791" t="s">
         <v>64</v>
       </c>
@@ -32425,10 +32428,10 @@
       <c r="K3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="808" t="s">
+      <c r="L3" s="798" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="809"/>
+      <c r="M3" s="799"/>
       <c r="N3" s="791" t="s">
         <v>64</v>
       </c>
@@ -32444,10 +32447,10 @@
       <c r="U3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="V3" s="808" t="s">
+      <c r="V3" s="798" t="s">
         <v>236</v>
       </c>
-      <c r="W3" s="809"/>
+      <c r="W3" s="799"/>
       <c r="X3" s="791" t="s">
         <v>64</v>
       </c>
@@ -32463,10 +32466,10 @@
       <c r="AE3" s="791" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="808" t="s">
+      <c r="AF3" s="798" t="s">
         <v>233</v>
       </c>
-      <c r="AG3" s="809"/>
+      <c r="AG3" s="799"/>
       <c r="AH3" s="791" t="s">
         <v>64</v>
       </c>
@@ -32481,9 +32484,9 @@
       <c r="AM3" s="792"/>
     </row>
     <row r="4" spans="1:39" s="118" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="807"/>
-      <c r="B4" s="810"/>
-      <c r="C4" s="811"/>
+      <c r="A4" s="797"/>
+      <c r="B4" s="800"/>
+      <c r="C4" s="801"/>
       <c r="D4" s="253">
         <v>2030</v>
       </c>
@@ -32502,9 +32505,9 @@
       <c r="I4" s="254">
         <v>2040</v>
       </c>
-      <c r="K4" s="807"/>
-      <c r="L4" s="810"/>
-      <c r="M4" s="811"/>
+      <c r="K4" s="797"/>
+      <c r="L4" s="800"/>
+      <c r="M4" s="801"/>
       <c r="N4" s="253">
         <v>2030</v>
       </c>
@@ -32523,9 +32526,9 @@
       <c r="S4" s="254">
         <v>2040</v>
       </c>
-      <c r="U4" s="807"/>
-      <c r="V4" s="810"/>
-      <c r="W4" s="811"/>
+      <c r="U4" s="797"/>
+      <c r="V4" s="800"/>
+      <c r="W4" s="801"/>
       <c r="X4" s="253">
         <v>2030</v>
       </c>
@@ -32544,9 +32547,9 @@
       <c r="AC4" s="254">
         <v>2040</v>
       </c>
-      <c r="AE4" s="807"/>
-      <c r="AF4" s="810"/>
-      <c r="AG4" s="811"/>
+      <c r="AE4" s="797"/>
+      <c r="AF4" s="800"/>
+      <c r="AG4" s="801"/>
       <c r="AH4" s="253">
         <v>2030</v>
       </c>
@@ -32607,7 +32610,7 @@
       <c r="AM5" s="73"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="797" t="s">
+      <c r="A6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="124" t="s">
@@ -32640,7 +32643,7 @@
         <f>Indata!I58</f>
         <v>16.350158148247193</v>
       </c>
-      <c r="K6" s="797" t="s">
+      <c r="K6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="L6" s="124" t="s">
@@ -32673,7 +32676,7 @@
         <f>'Modell - Drivmedelpriser'!J58</f>
         <v>16.350158148247193</v>
       </c>
-      <c r="U6" s="797" t="s">
+      <c r="U6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="V6" s="124" t="s">
@@ -32706,7 +32709,7 @@
         <f t="shared" si="0"/>
         <v>16.350158148247193</v>
       </c>
-      <c r="AE6" s="797" t="s">
+      <c r="AE6" s="806" t="s">
         <v>0</v>
       </c>
       <c r="AF6" s="124" t="s">
@@ -32741,7 +32744,7 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="798"/>
+      <c r="A7" s="807"/>
       <c r="B7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32772,7 +32775,7 @@
         <f>Indata!I59</f>
         <v>1.4034</v>
       </c>
-      <c r="K7" s="798"/>
+      <c r="K7" s="807"/>
       <c r="L7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32803,7 +32806,7 @@
         <f>'Modell - Drivmedelpriser'!J84</f>
         <v>1.4034</v>
       </c>
-      <c r="U7" s="798"/>
+      <c r="U7" s="807"/>
       <c r="V7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32834,7 +32837,7 @@
         <f t="shared" si="0"/>
         <v>1.4034</v>
       </c>
-      <c r="AE7" s="798"/>
+      <c r="AE7" s="807"/>
       <c r="AF7" s="125" t="s">
         <v>7</v>
       </c>
@@ -32867,7 +32870,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="799"/>
+      <c r="A8" s="808"/>
       <c r="B8" s="176" t="s">
         <v>239</v>
       </c>
@@ -32892,7 +32895,7 @@
       <c r="I8" s="275" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="799"/>
+      <c r="K8" s="808"/>
       <c r="L8" s="176" t="s">
         <v>239</v>
       </c>
@@ -32923,7 +32926,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U8" s="799"/>
+      <c r="U8" s="808"/>
       <c r="V8" s="176" t="s">
         <v>239</v>
       </c>
@@ -32954,7 +32957,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="799"/>
+      <c r="AE8" s="808"/>
       <c r="AF8" s="176" t="s">
         <v>239</v>
       </c>
@@ -34965,7 +34968,7 @@
       <c r="AM28" s="74"/>
     </row>
     <row r="29" spans="1:39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="797" t="s">
+      <c r="A29" s="806" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="124" t="s">
@@ -34998,7 +35001,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K29" s="797" t="s">
+      <c r="K29" s="806" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="124" t="s">
@@ -35031,7 +35034,7 @@
         <f t="shared" ref="S29:S32" si="43">I29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="797" t="s">
+      <c r="U29" s="806" t="s">
         <v>21</v>
       </c>
       <c r="V29" s="124" t="s">
@@ -35064,7 +35067,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="797" t="s">
+      <c r="AE29" s="806" t="s">
         <v>21</v>
       </c>
       <c r="AF29" s="124" t="s">
@@ -35099,7 +35102,7 @@
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="798"/>
+      <c r="A30" s="807"/>
       <c r="B30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35130,7 +35133,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K30" s="798"/>
+      <c r="K30" s="807"/>
       <c r="L30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35161,7 +35164,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U30" s="798"/>
+      <c r="U30" s="807"/>
       <c r="V30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35192,7 +35195,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="798"/>
+      <c r="AE30" s="807"/>
       <c r="AF30" s="125" t="s">
         <v>116</v>
       </c>
@@ -35225,7 +35228,7 @@
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="798"/>
+      <c r="A31" s="807"/>
       <c r="B31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35256,7 +35259,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K31" s="798"/>
+      <c r="K31" s="807"/>
       <c r="L31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35287,7 +35290,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U31" s="798"/>
+      <c r="U31" s="807"/>
       <c r="V31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35318,7 +35321,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="798"/>
+      <c r="AE31" s="807"/>
       <c r="AF31" s="125" t="s">
         <v>117</v>
       </c>
@@ -35351,7 +35354,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="799"/>
+      <c r="A32" s="808"/>
       <c r="B32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35382,7 +35385,7 @@
         <f>Indata!I$16*10</f>
         <v>0</v>
       </c>
-      <c r="K32" s="799"/>
+      <c r="K32" s="808"/>
       <c r="L32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35413,7 +35416,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U32" s="799"/>
+      <c r="U32" s="808"/>
       <c r="V32" s="126" t="s">
         <v>118</v>
       </c>
@@ -35444,7 +35447,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="799"/>
+      <c r="AE32" s="808"/>
       <c r="AF32" s="126" t="s">
         <v>118</v>
       </c>
@@ -42405,6 +42408,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="AE23:AE26"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="AE106:AE109"/>
+    <mergeCell ref="AE92:AE94"/>
+    <mergeCell ref="AE95:AE97"/>
+    <mergeCell ref="U53:U68"/>
+    <mergeCell ref="AE53:AE68"/>
+    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="K11:K20"/>
+    <mergeCell ref="AE89:AE91"/>
+    <mergeCell ref="AE101:AE103"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="K36:K50"/>
+    <mergeCell ref="U36:U50"/>
+    <mergeCell ref="AE36:AE50"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="U11:U20"/>
+    <mergeCell ref="AE11:AE20"/>
+    <mergeCell ref="U29:U32"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="K53:K68"/>
+    <mergeCell ref="AE29:AE32"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AE110:AE114"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
@@ -42421,44 +42462,6 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="K23:K26"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="K11:K20"/>
-    <mergeCell ref="AE89:AE91"/>
-    <mergeCell ref="AE101:AE103"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="K36:K50"/>
-    <mergeCell ref="U36:U50"/>
-    <mergeCell ref="AE36:AE50"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="U11:U20"/>
-    <mergeCell ref="AE11:AE20"/>
-    <mergeCell ref="U29:U32"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="K53:K68"/>
-    <mergeCell ref="AE29:AE32"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="AE23:AE26"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="AE106:AE109"/>
-    <mergeCell ref="AE92:AE94"/>
-    <mergeCell ref="AE95:AE97"/>
-    <mergeCell ref="U53:U68"/>
-    <mergeCell ref="AE53:AE68"/>
-    <mergeCell ref="AE6:AE8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42559,18 +42562,18 @@
       <c r="C4" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="785" t="s">
+      <c r="D4" s="775" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="786"/>
-      <c r="F4" s="785" t="s">
+      <c r="E4" s="776"/>
+      <c r="F4" s="775" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="786"/>
-      <c r="H4" s="785" t="s">
+      <c r="G4" s="776"/>
+      <c r="H4" s="775" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="786"/>
+      <c r="I4" s="776"/>
       <c r="J4" s="38"/>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -42586,21 +42589,21 @@
       </c>
       <c r="B5" s="278"/>
       <c r="C5" s="279"/>
-      <c r="D5" s="818" t="str">
+      <c r="D5" s="832" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik - Trafikverkets basscenario, ändras ej av EMA!</v>
       </c>
-      <c r="E5" s="819"/>
-      <c r="F5" s="818" t="str">
+      <c r="E5" s="833"/>
+      <c r="F5" s="832" t="str">
         <f>Indata!F6</f>
         <v>Policy scenario (EMA)</v>
       </c>
-      <c r="G5" s="819"/>
-      <c r="H5" s="818" t="str">
+      <c r="G5" s="833"/>
+      <c r="H5" s="832" t="str">
         <f>Indata!H6</f>
         <v>Reference scenario (EMA -beslutad politik, varierande X)</v>
       </c>
-      <c r="I5" s="819"/>
+      <c r="I5" s="833"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -42648,7 +42651,7 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="820" t="s">
+      <c r="A7" s="829" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="280" t="s">
@@ -42683,7 +42686,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="822"/>
+      <c r="A8" s="830"/>
       <c r="B8" s="75" t="s">
         <v>102</v>
       </c>
@@ -42716,7 +42719,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="822"/>
+      <c r="A9" s="830"/>
       <c r="B9" s="75" t="s">
         <v>103</v>
       </c>
@@ -42749,7 +42752,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="822"/>
+      <c r="A10" s="830"/>
       <c r="B10" s="75" t="s">
         <v>180</v>
       </c>
@@ -42782,7 +42785,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="821"/>
+      <c r="A11" s="831"/>
       <c r="B11" s="281" t="s">
         <v>181</v>
       </c>
@@ -42815,7 +42818,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="820" t="s">
+      <c r="A12" s="829" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="280" t="s">
@@ -42850,7 +42853,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="822"/>
+      <c r="A13" s="830"/>
       <c r="B13" s="75" t="s">
         <v>102</v>
       </c>
@@ -42883,7 +42886,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="822"/>
+      <c r="A14" s="830"/>
       <c r="B14" s="75" t="s">
         <v>103</v>
       </c>
@@ -42916,7 +42919,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="822"/>
+      <c r="A15" s="830"/>
       <c r="B15" s="75" t="s">
         <v>352</v>
       </c>
@@ -42949,7 +42952,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="821"/>
+      <c r="A16" s="831"/>
       <c r="B16" s="281" t="s">
         <v>318</v>
       </c>
@@ -42982,7 +42985,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="820" t="s">
+      <c r="A17" s="829" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="280" t="s">
@@ -43017,7 +43020,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="821"/>
+      <c r="A18" s="831"/>
       <c r="B18" s="281" t="s">
         <v>319</v>
       </c>
@@ -43085,7 +43088,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="820" t="s">
+      <c r="A20" s="829" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="280" t="s">
@@ -43122,7 +43125,7 @@
       <c r="K20" s="403"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="822"/>
+      <c r="A21" s="830"/>
       <c r="B21" s="75" t="s">
         <v>102</v>
       </c>
@@ -43155,7 +43158,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="822"/>
+      <c r="A22" s="830"/>
       <c r="B22" s="75" t="s">
         <v>103</v>
       </c>
@@ -43188,7 +43191,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="822"/>
+      <c r="A23" s="830"/>
       <c r="B23" s="370" t="s">
         <v>179</v>
       </c>
@@ -43221,7 +43224,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="822"/>
+      <c r="A24" s="830"/>
       <c r="B24" s="75" t="s">
         <v>352</v>
       </c>
@@ -43254,7 +43257,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="822"/>
+      <c r="A25" s="830"/>
       <c r="B25" s="75" t="s">
         <v>318</v>
       </c>
@@ -43287,7 +43290,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="821"/>
+      <c r="A26" s="831"/>
       <c r="B26" s="371" t="s">
         <v>353</v>
       </c>
@@ -43320,7 +43323,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="820" t="s">
+      <c r="A27" s="829" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="280" t="s">
@@ -43355,7 +43358,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="822"/>
+      <c r="A28" s="830"/>
       <c r="B28" s="75" t="s">
         <v>102</v>
       </c>
@@ -43388,7 +43391,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="822"/>
+      <c r="A29" s="830"/>
       <c r="B29" s="75" t="s">
         <v>103</v>
       </c>
@@ -43421,7 +43424,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="822"/>
+      <c r="A30" s="830"/>
       <c r="B30" s="370" t="s">
         <v>104</v>
       </c>
@@ -43454,7 +43457,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="822"/>
+      <c r="A31" s="830"/>
       <c r="B31" s="75" t="s">
         <v>354</v>
       </c>
@@ -43487,7 +43490,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="822"/>
+      <c r="A32" s="830"/>
       <c r="B32" s="75" t="s">
         <v>318</v>
       </c>
@@ -43520,7 +43523,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="822"/>
+      <c r="A33" s="830"/>
       <c r="B33" s="370" t="s">
         <v>355</v>
       </c>
@@ -43553,7 +43556,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="821"/>
+      <c r="A34" s="831"/>
       <c r="B34" s="371" t="s">
         <v>332</v>
       </c>
@@ -43586,7 +43589,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="822" t="s">
+      <c r="A35" s="830" t="s">
         <v>285</v>
       </c>
       <c r="B35" s="75" t="s">
@@ -43621,7 +43624,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="821"/>
+      <c r="A36" s="831"/>
       <c r="B36" s="281" t="s">
         <v>319</v>
       </c>
@@ -43654,7 +43657,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="823" t="s">
+      <c r="A37" s="827" t="s">
         <v>274</v>
       </c>
       <c r="B37" s="280" t="s">
@@ -43689,7 +43692,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="824"/>
+      <c r="A38" s="828"/>
       <c r="B38" s="75" t="s">
         <v>319</v>
       </c>
@@ -43722,7 +43725,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="824"/>
+      <c r="A39" s="828"/>
       <c r="B39" s="75" t="s">
         <v>310</v>
       </c>
@@ -43749,7 +43752,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="824"/>
+      <c r="A40" s="828"/>
       <c r="B40" s="370" t="s">
         <v>16</v>
       </c>
@@ -43782,7 +43785,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="824"/>
+      <c r="A41" s="828"/>
       <c r="B41" s="492" t="s">
         <v>356</v>
       </c>
@@ -43815,7 +43818,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="820" t="s">
+      <c r="A42" s="829" t="s">
         <v>271</v>
       </c>
       <c r="B42" s="280" t="s">
@@ -43850,7 +43853,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="822"/>
+      <c r="A43" s="830"/>
       <c r="B43" s="75" t="s">
         <v>319</v>
       </c>
@@ -43883,7 +43886,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="822"/>
+      <c r="A44" s="830"/>
       <c r="B44" s="370" t="s">
         <v>16</v>
       </c>
@@ -43949,7 +43952,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="822" t="s">
+      <c r="A46" s="830" t="s">
         <v>265</v>
       </c>
       <c r="B46" s="75" t="s">
@@ -43984,7 +43987,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="822"/>
+      <c r="A47" s="830"/>
       <c r="B47" s="75" t="s">
         <v>319</v>
       </c>
@@ -44017,7 +44020,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="822"/>
+      <c r="A48" s="830"/>
       <c r="B48" s="370" t="s">
         <v>16</v>
       </c>
@@ -44081,7 +44084,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="820" t="s">
+      <c r="A50" s="829" t="s">
         <v>266</v>
       </c>
       <c r="B50" s="280" t="s">
@@ -44116,7 +44119,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="822"/>
+      <c r="A51" s="830"/>
       <c r="B51" s="75" t="s">
         <v>319</v>
       </c>
@@ -44149,7 +44152,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="822"/>
+      <c r="A52" s="830"/>
       <c r="B52" s="370" t="s">
         <v>16</v>
       </c>
@@ -44213,7 +44216,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="825" t="s">
+      <c r="A54" s="824" t="s">
         <v>129</v>
       </c>
       <c r="B54" s="280" t="s">
@@ -44248,7 +44251,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="826"/>
+      <c r="A55" s="825"/>
       <c r="B55" s="75" t="s">
         <v>315</v>
       </c>
@@ -44281,7 +44284,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="826"/>
+      <c r="A56" s="825"/>
       <c r="B56" s="75" t="s">
         <v>103</v>
       </c>
@@ -44314,7 +44317,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="826"/>
+      <c r="A57" s="825"/>
       <c r="B57" s="75" t="s">
         <v>312</v>
       </c>
@@ -44351,7 +44354,7 @@
       <c r="O57" s="495"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="826"/>
+      <c r="A58" s="825"/>
       <c r="B58" s="75" t="s">
         <v>313</v>
       </c>
@@ -44384,7 +44387,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="826"/>
+      <c r="A59" s="825"/>
       <c r="B59" s="75" t="s">
         <v>314</v>
       </c>
@@ -44417,7 +44420,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="826"/>
+      <c r="A60" s="825"/>
       <c r="B60" s="370" t="s">
         <v>194</v>
       </c>
@@ -44454,7 +44457,7 @@
       <c r="O60" s="495"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="826"/>
+      <c r="A61" s="825"/>
       <c r="B61" s="370" t="s">
         <v>195</v>
       </c>
@@ -44487,7 +44490,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="826"/>
+      <c r="A62" s="825"/>
       <c r="B62" s="370" t="s">
         <v>196</v>
       </c>
@@ -44520,7 +44523,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="827"/>
+      <c r="A63" s="826"/>
       <c r="B63" s="371" t="s">
         <v>358</v>
       </c>
@@ -44553,7 +44556,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="826" t="s">
+      <c r="A64" s="825" t="s">
         <v>240</v>
       </c>
       <c r="B64" s="75" t="s">
@@ -44588,7 +44591,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="826"/>
+      <c r="A65" s="825"/>
       <c r="B65" s="75" t="s">
         <v>193</v>
       </c>
@@ -44621,7 +44624,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="826"/>
+      <c r="A66" s="825"/>
       <c r="B66" s="75" t="s">
         <v>103</v>
       </c>
@@ -44654,7 +44657,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="826"/>
+      <c r="A67" s="825"/>
       <c r="B67" s="75" t="s">
         <v>317</v>
       </c>
@@ -44687,7 +44690,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="826"/>
+      <c r="A68" s="825"/>
       <c r="B68" s="75" t="s">
         <v>316</v>
       </c>
@@ -44720,7 +44723,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="826"/>
+      <c r="A69" s="825"/>
       <c r="B69" s="75" t="s">
         <v>318</v>
       </c>
@@ -44753,7 +44756,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="826"/>
+      <c r="A70" s="825"/>
       <c r="B70" s="370" t="s">
         <v>194</v>
       </c>
@@ -44786,7 +44789,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="826"/>
+      <c r="A71" s="825"/>
       <c r="B71" s="370" t="s">
         <v>195</v>
       </c>
@@ -44819,7 +44822,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="827"/>
+      <c r="A72" s="826"/>
       <c r="B72" s="371" t="s">
         <v>196</v>
       </c>
@@ -44852,7 +44855,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="825" t="s">
+      <c r="A73" s="824" t="s">
         <v>199</v>
       </c>
       <c r="B73" s="280" t="s">
@@ -44887,7 +44890,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="826"/>
+      <c r="A74" s="825"/>
       <c r="B74" s="75" t="s">
         <v>319</v>
       </c>
@@ -44920,7 +44923,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="827"/>
+      <c r="A75" s="826"/>
       <c r="B75" s="371" t="s">
         <v>273</v>
       </c>
@@ -44953,7 +44956,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="825" t="s">
+      <c r="A76" s="824" t="s">
         <v>200</v>
       </c>
       <c r="B76" s="280" t="s">
@@ -44988,7 +44991,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="826"/>
+      <c r="A77" s="825"/>
       <c r="B77" s="75" t="s">
         <v>319</v>
       </c>
@@ -45021,7 +45024,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="826"/>
+      <c r="A78" s="825"/>
       <c r="B78" s="370" t="s">
         <v>273</v>
       </c>
@@ -45054,7 +45057,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="828" t="s">
+      <c r="A79" s="818" t="s">
         <v>489</v>
       </c>
       <c r="B79" s="280" t="s">
@@ -45077,7 +45080,7 @@
       <c r="I79" s="559"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="829"/>
+      <c r="A80" s="819"/>
       <c r="B80" s="75" t="s">
         <v>319</v>
       </c>
@@ -45098,7 +45101,7 @@
       <c r="I80" s="560"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="830"/>
+      <c r="A81" s="820"/>
       <c r="B81" s="371" t="s">
         <v>273</v>
       </c>
@@ -45119,7 +45122,7 @@
       <c r="I81" s="576"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="831" t="s">
+      <c r="A82" s="821" t="s">
         <v>490</v>
       </c>
       <c r="B82" s="280" t="s">
@@ -45142,7 +45145,7 @@
       <c r="I82" s="562"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="832"/>
+      <c r="A83" s="822"/>
       <c r="B83" s="75" t="s">
         <v>319</v>
       </c>
@@ -45163,7 +45166,7 @@
       <c r="I83" s="564"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="833"/>
+      <c r="A84" s="823"/>
       <c r="B84" s="371" t="s">
         <v>273</v>
       </c>
@@ -45184,7 +45187,7 @@
       <c r="I84" s="581"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="828" t="s">
+      <c r="A85" s="818" t="s">
         <v>491</v>
       </c>
       <c r="B85" s="280" t="s">
@@ -45207,7 +45210,7 @@
       <c r="I85" s="580"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="829"/>
+      <c r="A86" s="819"/>
       <c r="B86" s="75" t="s">
         <v>319</v>
       </c>
@@ -45228,7 +45231,7 @@
       <c r="I86" s="564"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="830"/>
+      <c r="A87" s="820"/>
       <c r="B87" s="371" t="s">
         <v>273</v>
       </c>
@@ -45250,29 +45253,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A72"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45337,14 +45340,14 @@
         <v>64</v>
       </c>
       <c r="F4" s="835"/>
-      <c r="G4" s="785" t="s">
+      <c r="G4" s="775" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="786"/>
-      <c r="I4" s="785" t="s">
+      <c r="H4" s="776"/>
+      <c r="I4" s="775" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="786"/>
+      <c r="J4" s="776"/>
     </row>
     <row r="5" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="550" t="s">
@@ -45352,21 +45355,21 @@
       </c>
       <c r="B5" s="550"/>
       <c r="C5" s="550"/>
-      <c r="E5" s="818" t="str">
+      <c r="E5" s="832" t="str">
         <f>Indata!D6</f>
         <v>Beslutad politik - Trafikverkets basscenario, ändras ej av EMA!</v>
       </c>
-      <c r="F5" s="819"/>
-      <c r="G5" s="818" t="str">
+      <c r="F5" s="833"/>
+      <c r="G5" s="832" t="str">
         <f>Indata!F6</f>
         <v>Policy scenario (EMA)</v>
       </c>
-      <c r="H5" s="819"/>
-      <c r="I5" s="818" t="str">
+      <c r="H5" s="833"/>
+      <c r="I5" s="832" t="str">
         <f>Indata!H6</f>
         <v>Reference scenario (EMA -beslutad politik, varierande X)</v>
       </c>
-      <c r="J5" s="819"/>
+      <c r="J5" s="833"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="120" t="s">
@@ -45636,29 +45639,29 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="785" t="s">
+      <c r="G16" s="775" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="786"/>
-      <c r="I16" s="785" t="s">
+      <c r="H16" s="776"/>
+      <c r="I16" s="775" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="786"/>
+      <c r="J16" s="776"/>
     </row>
     <row r="17" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="550" t="s">
         <v>476</v>
       </c>
-      <c r="G17" s="818" t="str">
+      <c r="G17" s="832" t="str">
         <f>G5</f>
         <v>Policy scenario (EMA)</v>
       </c>
-      <c r="H17" s="819"/>
-      <c r="I17" s="818" t="str">
+      <c r="H17" s="833"/>
+      <c r="I17" s="832" t="str">
         <f>I5</f>
         <v>Reference scenario (EMA -beslutad politik, varierande X)</v>
       </c>
-      <c r="J17" s="819"/>
+      <c r="J17" s="833"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="122">

--- a/models/Master.xlsx
+++ b/models/Master.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="11220" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="28800" windowHeight="11220" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Beskrivning" sheetId="19" r:id="rId1"/>
@@ -7264,10 +7264,10 @@
                   <c:v>0.16043102663443456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16279143211652328</c:v>
+                  <c:v>0.1680668331427036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16279143211652328</c:v>
+                  <c:v>0.1680668331427036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7759,10 +7759,10 @@
                   <c:v>18.846304382759293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.022468857387942</c:v>
+                  <c:v>19.220198559049088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.022468857387942</c:v>
+                  <c:v>19.220198559049088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8254,10 +8254,10 @@
                   <c:v>9.8222848467547585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.967195710585889</c:v>
+                  <c:v>10.291938276186301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.967195710585889</c:v>
+                  <c:v>10.291938276186301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8749,10 +8749,10 @@
                   <c:v>11.21232171264937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.301315449405333</c:v>
+                  <c:v>11.727655898994604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.301315449405333</c:v>
+                  <c:v>11.727655898994604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14247,10 +14247,10 @@
   </sheetPr>
   <dimension ref="A1:I277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="A59" sqref="A59"/>
+      <selection pane="topRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14699,7 +14699,7 @@
         <v>691</v>
       </c>
       <c r="B22" s="596">
-        <v>-0.22</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="C22" s="597">
         <v>-1.1439999999999999</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="B33" s="598">
         <f>Resultat!F38/'Indata - Utsläpp'!B16-1</f>
-        <v>-0.40293955438536377</v>
+        <v>-0.30794391053748726</v>
       </c>
       <c r="C33" s="766">
         <f>Resultat!G38/'Indata - Utsläpp'!B16-1</f>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="B34" s="598">
         <f>Resultat!F41</f>
-        <v>-0.40192022388837145</v>
+        <v>-0.37935775301679708</v>
       </c>
       <c r="C34" s="766">
         <f>Resultat!G41</f>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="B36" s="599">
         <f>Resultat!F33</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="C36" s="600">
         <f>Resultat!G33</f>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="B37" s="599">
         <f>Resultat!F34</f>
-        <v>95.112344286939702</v>
+        <v>96.100992795245432</v>
       </c>
       <c r="C37" s="600">
         <f>Resultat!G34</f>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="B38" s="599">
         <f>Resultat!F61</f>
-        <v>15.500842116001753</v>
+        <v>16.24182833393947</v>
       </c>
       <c r="C38" s="600">
         <f>Resultat!G61</f>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="B39" s="599">
         <f>Resultat!F60</f>
-        <v>43.592586579399914</v>
+        <v>45.2375221723034</v>
       </c>
       <c r="C39" s="600">
         <f>Resultat!G60</f>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="B40" s="599">
         <f>Resultat!F62</f>
-        <v>3.014357323569878</v>
+        <v>3.0414174155680631</v>
       </c>
       <c r="C40" s="600">
         <f>Resultat!G62</f>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="B43" s="598">
         <f>Resultat!F36</f>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="C43" s="766">
         <f>Resultat!G36</f>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="B58" s="762">
         <f>Resultat!F40</f>
-        <v>11.301315449405333</v>
+        <v>11.727655898994604</v>
       </c>
       <c r="C58" s="599">
         <f>Resultat!G40</f>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="B59" s="602">
         <f>Resultat!F78</f>
-        <v>39.576689794488466</v>
+        <v>40.976115758664825</v>
       </c>
       <c r="C59" s="602">
         <f>Resultat!G78</f>
@@ -17538,8 +17538,8 @@
   </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17737,7 +17737,7 @@
       <c r="C9" s="855"/>
       <c r="D9" s="742">
         <f>EMA!B22</f>
-        <v>-0.22</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="E9" s="743">
         <f>EMA!C22</f>
@@ -22321,10 +22321,10 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="AJ15" s="265">
         <f t="shared" si="20"/>
-        <v>2.54768610464988</v>
+        <v>2.5476861046498795</v>
       </c>
       <c r="AK15" s="267">
         <f>SUMPRODUCT(AK11:AK14,AK36:AK39)/AK40</f>
@@ -33671,7 +33671,7 @@
       </c>
       <c r="AL15" s="268">
         <f t="shared" si="20"/>
-        <v>2.54768610464988</v>
+        <v>2.5476861046498795</v>
       </c>
       <c r="AM15" s="267">
         <f t="shared" si="20"/>
@@ -34293,7 +34293,7 @@
       </c>
       <c r="AJ20" s="196">
         <f t="shared" si="31"/>
-        <v>13.685395654193806</v>
+        <v>13.685395654193808</v>
       </c>
       <c r="AK20" s="198">
         <f t="shared" si="31"/>
@@ -34301,7 +34301,7 @@
       </c>
       <c r="AL20" s="199">
         <f t="shared" si="31"/>
-        <v>13.685395654193806</v>
+        <v>13.685395654193808</v>
       </c>
       <c r="AM20" s="198">
         <f t="shared" si="31"/>
@@ -35645,7 +35645,7 @@
       </c>
       <c r="Z36" s="261">
         <f t="shared" ref="Z36:Z49" si="55">P36/P$50*Z$50</f>
-        <v>0.22509767853609611</v>
+        <v>0.260911973484384</v>
       </c>
       <c r="AA36" s="261">
         <f t="shared" ref="AA36:AA49" si="56">Q36/Q$50*AA$50</f>
@@ -35653,7 +35653,7 @@
       </c>
       <c r="AB36" s="261">
         <f t="shared" ref="AB36:AB49" si="57">R36/R$50*AB$50</f>
-        <v>0.22509767853609611</v>
+        <v>0.260911973484384</v>
       </c>
       <c r="AC36" s="261">
         <f t="shared" ref="AC36:AC49" si="58">S36/S$50*AC$50</f>
@@ -35678,7 +35678,7 @@
       </c>
       <c r="AJ36" s="233">
         <f>Z36*(1-Indata!F$22)</f>
-        <v>0.22509767853609611</v>
+        <v>0.260911973484384</v>
       </c>
       <c r="AK36" s="234">
         <f>AA36*(1-Indata!G$22)</f>
@@ -35686,7 +35686,7 @@
       </c>
       <c r="AL36" s="235">
         <f>AB36*(1-Indata!H$22)</f>
-        <v>0.22509767853609611</v>
+        <v>0.260911973484384</v>
       </c>
       <c r="AM36" s="234">
         <f>AC36*(1-Indata!I$22)</f>
@@ -35773,7 +35773,7 @@
       </c>
       <c r="Z37" s="261">
         <f t="shared" si="55"/>
-        <v>0.24499886218390274</v>
+        <v>0.28397954634427797</v>
       </c>
       <c r="AA37" s="261">
         <f t="shared" si="56"/>
@@ -35781,7 +35781,7 @@
       </c>
       <c r="AB37" s="261">
         <f t="shared" si="57"/>
-        <v>0.24499886218390274</v>
+        <v>0.28397954634427797</v>
       </c>
       <c r="AC37" s="261">
         <f t="shared" si="58"/>
@@ -35804,7 +35804,7 @@
       </c>
       <c r="AJ37" s="236">
         <f>Z37*(1-Indata!F$22)</f>
-        <v>0.24499886218390274</v>
+        <v>0.28397954634427797</v>
       </c>
       <c r="AK37" s="237">
         <f>AA37*(1-Indata!G$22)</f>
@@ -35812,7 +35812,7 @@
       </c>
       <c r="AL37" s="238">
         <f>AB37*(1-Indata!H$22)</f>
-        <v>0.24499886218390274</v>
+        <v>0.28397954634427797</v>
       </c>
       <c r="AM37" s="237">
         <f>AC37*(1-Indata!I$22)</f>
@@ -35899,7 +35899,7 @@
       </c>
       <c r="Z38" s="261">
         <f t="shared" si="55"/>
-        <v>2.0051268333708117</v>
+        <v>2.3241536855626843</v>
       </c>
       <c r="AA38" s="261">
         <f t="shared" si="56"/>
@@ -35907,7 +35907,7 @@
       </c>
       <c r="AB38" s="261">
         <f t="shared" si="57"/>
-        <v>2.0051268333708117</v>
+        <v>2.3241536855626843</v>
       </c>
       <c r="AC38" s="261">
         <f t="shared" si="58"/>
@@ -35930,7 +35930,7 @@
       </c>
       <c r="AJ38" s="236">
         <f>Z38*(1-Indata!F$22)</f>
-        <v>2.0051268333708117</v>
+        <v>2.3241536855626843</v>
       </c>
       <c r="AK38" s="237">
         <f>AA38*(1-Indata!G$22)</f>
@@ -35938,7 +35938,7 @@
       </c>
       <c r="AL38" s="238">
         <f>AB38*(1-Indata!H$22)</f>
-        <v>2.0051268333708117</v>
+        <v>2.3241536855626843</v>
       </c>
       <c r="AM38" s="237">
         <f>AC38*(1-Indata!I$22)</f>
@@ -36025,7 +36025,7 @@
       </c>
       <c r="Z39" s="261">
         <f t="shared" si="55"/>
-        <v>3.6142901774265628</v>
+        <v>4.1893438842656474</v>
       </c>
       <c r="AA39" s="261">
         <f t="shared" si="56"/>
@@ -36033,7 +36033,7 @@
       </c>
       <c r="AB39" s="261">
         <f t="shared" si="57"/>
-        <v>3.6142901774265628</v>
+        <v>4.1893438842656474</v>
       </c>
       <c r="AC39" s="261">
         <f t="shared" si="58"/>
@@ -36056,7 +36056,7 @@
       </c>
       <c r="AJ39" s="262">
         <f>Z39*(1-Indata!F$22)</f>
-        <v>3.6142901774265628</v>
+        <v>4.1893438842656474</v>
       </c>
       <c r="AK39" s="263">
         <f>AA39*(1-Indata!G$22)</f>
@@ -36064,7 +36064,7 @@
       </c>
       <c r="AL39" s="264">
         <f>AB39*(1-Indata!H$22)</f>
-        <v>3.6142901774265628</v>
+        <v>4.1893438842656474</v>
       </c>
       <c r="AM39" s="263">
         <f>AC39*(1-Indata!I$22)</f>
@@ -36151,7 +36151,7 @@
       </c>
       <c r="Z40" s="261">
         <f t="shared" si="55"/>
-        <v>6.0895135515173733</v>
+        <v>7.058389089656993</v>
       </c>
       <c r="AA40" s="261">
         <f t="shared" si="56"/>
@@ -36159,7 +36159,7 @@
       </c>
       <c r="AB40" s="261">
         <f t="shared" si="57"/>
-        <v>6.0895135515173733</v>
+        <v>7.058389089656993</v>
       </c>
       <c r="AC40" s="261">
         <f t="shared" si="58"/>
@@ -36182,7 +36182,7 @@
       </c>
       <c r="AJ40" s="258">
         <f>SUM(AJ36:AJ39)</f>
-        <v>6.0895135515173733</v>
+        <v>7.0583890896569939</v>
       </c>
       <c r="AK40" s="259">
         <f t="shared" ref="AK40" si="69">SUM(AK36:AK39)</f>
@@ -36190,7 +36190,7 @@
       </c>
       <c r="AL40" s="260">
         <f t="shared" ref="AL40" si="70">SUM(AL36:AL39)</f>
-        <v>6.0895135515173733</v>
+        <v>7.0583890896569939</v>
       </c>
       <c r="AM40" s="259">
         <f t="shared" ref="AM40" si="71">SUM(AM36:AM39)</f>
@@ -36277,7 +36277,7 @@
       </c>
       <c r="Z41" s="261">
         <f>P41/P$50*Z$50</f>
-        <v>4.593830174206043E-3</v>
+        <v>5.3247341527425307E-3</v>
       </c>
       <c r="AA41" s="261">
         <f>Q41/Q$50*AA$50</f>
@@ -36285,7 +36285,7 @@
       </c>
       <c r="AB41" s="261">
         <f t="shared" si="57"/>
-        <v>4.593830174206043E-3</v>
+        <v>5.3247341527425307E-3</v>
       </c>
       <c r="AC41" s="261">
         <f t="shared" si="58"/>
@@ -36308,7 +36308,7 @@
       </c>
       <c r="AJ41" s="262">
         <f>Z41*(1-Indata!F$22)</f>
-        <v>4.593830174206043E-3</v>
+        <v>5.3247341527425307E-3</v>
       </c>
       <c r="AK41" s="263">
         <f>AA41*(1-Indata!G$22)</f>
@@ -36316,7 +36316,7 @@
       </c>
       <c r="AL41" s="264">
         <f>AB41*(1-Indata!H$22)</f>
-        <v>4.593830174206043E-3</v>
+        <v>5.3247341527425307E-3</v>
       </c>
       <c r="AM41" s="263">
         <f>AC41*(1-Indata!I$22)</f>
@@ -36403,7 +36403,7 @@
       </c>
       <c r="Z42" s="261">
         <f t="shared" si="55"/>
-        <v>4.999976779263322E-3</v>
+        <v>5.7955009458015919E-3</v>
       </c>
       <c r="AA42" s="261">
         <f t="shared" si="56"/>
@@ -36411,7 +36411,7 @@
       </c>
       <c r="AB42" s="261">
         <f t="shared" si="57"/>
-        <v>4.999976779263322E-3</v>
+        <v>5.7955009458015919E-3</v>
       </c>
       <c r="AC42" s="261">
         <f t="shared" si="58"/>
@@ -36434,7 +36434,7 @@
       </c>
       <c r="AJ42" s="262">
         <f>Z42*(1-Indata!F$22)</f>
-        <v>4.999976779263322E-3</v>
+        <v>5.7955009458015919E-3</v>
       </c>
       <c r="AK42" s="263">
         <f>AA42*(1-Indata!G$22)</f>
@@ -36442,7 +36442,7 @@
       </c>
       <c r="AL42" s="264">
         <f>AB42*(1-Indata!H$22)</f>
-        <v>4.999976779263322E-3</v>
+        <v>5.7955009458015919E-3</v>
       </c>
       <c r="AM42" s="263">
         <f>AC42*(1-Indata!I$22)</f>
@@ -36529,7 +36529,7 @@
       </c>
       <c r="Z43" s="261">
         <f t="shared" si="55"/>
-        <v>4.0920955783077799E-2</v>
+        <v>4.7431707868626216E-2</v>
       </c>
       <c r="AA43" s="261">
         <f>Q43/Q$50*AA$50</f>
@@ -36537,7 +36537,7 @@
       </c>
       <c r="AB43" s="261">
         <f t="shared" si="57"/>
-        <v>4.0920955783077799E-2</v>
+        <v>4.7431707868626216E-2</v>
       </c>
       <c r="AC43" s="261">
         <f t="shared" si="58"/>
@@ -36560,7 +36560,7 @@
       </c>
       <c r="AJ43" s="262">
         <f>Z43*(1-Indata!F$22)</f>
-        <v>4.0920955783077799E-2</v>
+        <v>4.7431707868626216E-2</v>
       </c>
       <c r="AK43" s="263">
         <f>AA43*(1-Indata!G$22)</f>
@@ -36568,7 +36568,7 @@
       </c>
       <c r="AL43" s="264">
         <f>AB43*(1-Indata!H$22)</f>
-        <v>4.0920955783077799E-2</v>
+        <v>4.7431707868626216E-2</v>
       </c>
       <c r="AM43" s="263">
         <f>AC43*(1-Indata!I$22)</f>
@@ -36655,7 +36655,7 @@
       </c>
       <c r="Z44" s="261">
         <f t="shared" si="55"/>
-        <v>7.3761024029113526E-2</v>
+        <v>8.5496813964605053E-2</v>
       </c>
       <c r="AA44" s="261">
         <f t="shared" si="56"/>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="AB44" s="261">
         <f t="shared" si="57"/>
-        <v>7.3761024029113526E-2</v>
+        <v>8.5496813964605053E-2</v>
       </c>
       <c r="AC44" s="261">
         <f t="shared" si="58"/>
@@ -36686,7 +36686,7 @@
       </c>
       <c r="AJ44" s="262">
         <f>Z44*(1-Indata!F$22)</f>
-        <v>7.3761024029113526E-2</v>
+        <v>8.5496813964605053E-2</v>
       </c>
       <c r="AK44" s="263">
         <f>AA44*(1-Indata!G$22)</f>
@@ -36694,7 +36694,7 @@
       </c>
       <c r="AL44" s="264">
         <f>AB44*(1-Indata!H$22)</f>
-        <v>7.3761024029113526E-2</v>
+        <v>8.5496813964605053E-2</v>
       </c>
       <c r="AM44" s="263">
         <f>AC44*(1-Indata!I$22)</f>
@@ -36781,7 +36781,7 @@
       </c>
       <c r="Z45" s="261">
         <f t="shared" si="55"/>
-        <v>0.12427578676566067</v>
+        <v>0.14404875693177538</v>
       </c>
       <c r="AA45" s="261">
         <f>Q45/Q$50*AA$50</f>
@@ -36789,7 +36789,7 @@
       </c>
       <c r="AB45" s="261">
         <f t="shared" si="57"/>
-        <v>0.12427578676566067</v>
+        <v>0.14404875693177538</v>
       </c>
       <c r="AC45" s="261">
         <f t="shared" si="58"/>
@@ -36812,7 +36812,7 @@
       </c>
       <c r="AJ45" s="258">
         <f t="shared" ref="AJ45" si="83">SUM(AJ41:AJ44)</f>
-        <v>0.12427578676566069</v>
+        <v>0.14404875693177538</v>
       </c>
       <c r="AK45" s="259">
         <f t="shared" ref="AK45" si="84">SUM(AK41:AK44)</f>
@@ -36820,7 +36820,7 @@
       </c>
       <c r="AL45" s="260">
         <f t="shared" ref="AL45" si="85">SUM(AL41:AL44)</f>
-        <v>0.12427578676566069</v>
+        <v>0.14404875693177538</v>
       </c>
       <c r="AM45" s="259">
         <f t="shared" ref="AM45" si="86">SUM(AM41:AM44)</f>
@@ -36907,7 +36907,7 @@
       </c>
       <c r="Z46" s="261">
         <f t="shared" si="55"/>
-        <v>0.22969150871030217</v>
+        <v>0.26623670763712654</v>
       </c>
       <c r="AA46" s="261">
         <f t="shared" si="56"/>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="AB46" s="261">
         <f t="shared" si="57"/>
-        <v>0.22969150871030217</v>
+        <v>0.26623670763712654</v>
       </c>
       <c r="AC46" s="261">
         <f t="shared" si="58"/>
@@ -36938,7 +36938,7 @@
       </c>
       <c r="AJ46" s="262">
         <f t="shared" si="89"/>
-        <v>0.22969150871030214</v>
+        <v>0.26623670763712654</v>
       </c>
       <c r="AK46" s="263">
         <f t="shared" si="89"/>
@@ -36946,7 +36946,7 @@
       </c>
       <c r="AL46" s="264">
         <f t="shared" si="89"/>
-        <v>0.22969150871030214</v>
+        <v>0.26623670763712654</v>
       </c>
       <c r="AM46" s="263">
         <f t="shared" si="89"/>
@@ -37033,7 +37033,7 @@
       </c>
       <c r="Z47" s="261">
         <f t="shared" si="55"/>
-        <v>0.2499988389631661</v>
+        <v>0.28977504729007958</v>
       </c>
       <c r="AA47" s="261">
         <f t="shared" si="56"/>
@@ -37041,7 +37041,7 @@
       </c>
       <c r="AB47" s="261">
         <f t="shared" si="57"/>
-        <v>0.2499988389631661</v>
+        <v>0.28977504729007958</v>
       </c>
       <c r="AC47" s="261">
         <f t="shared" si="58"/>
@@ -37064,7 +37064,7 @@
       </c>
       <c r="AJ47" s="236">
         <f t="shared" si="92"/>
-        <v>0.24999883896316605</v>
+        <v>0.28977504729007958</v>
       </c>
       <c r="AK47" s="237">
         <f t="shared" si="92"/>
@@ -37072,7 +37072,7 @@
       </c>
       <c r="AL47" s="238">
         <f t="shared" si="92"/>
-        <v>0.24999883896316605</v>
+        <v>0.28977504729007958</v>
       </c>
       <c r="AM47" s="237">
         <f t="shared" si="92"/>
@@ -37159,7 +37159,7 @@
       </c>
       <c r="Z48" s="261">
         <f t="shared" si="55"/>
-        <v>2.0460477891538895</v>
+        <v>2.3715853934313103</v>
       </c>
       <c r="AA48" s="261">
         <f t="shared" si="56"/>
@@ -37167,7 +37167,7 @@
       </c>
       <c r="AB48" s="261">
         <f t="shared" si="57"/>
-        <v>2.0460477891538895</v>
+        <v>2.3715853934313103</v>
       </c>
       <c r="AC48" s="261">
         <f t="shared" si="58"/>
@@ -37190,7 +37190,7 @@
       </c>
       <c r="AJ48" s="236">
         <f t="shared" si="95"/>
-        <v>2.0460477891538895</v>
+        <v>2.3715853934313107</v>
       </c>
       <c r="AK48" s="237">
         <f t="shared" si="95"/>
@@ -37198,7 +37198,7 @@
       </c>
       <c r="AL48" s="238">
         <f t="shared" si="95"/>
-        <v>2.0460477891538895</v>
+        <v>2.3715853934313107</v>
       </c>
       <c r="AM48" s="237">
         <f t="shared" si="95"/>
@@ -37285,7 +37285,7 @@
       </c>
       <c r="Z49" s="261">
         <f t="shared" si="55"/>
-        <v>3.6880512014556759</v>
+        <v>4.2748406982302516</v>
       </c>
       <c r="AA49" s="261">
         <f t="shared" si="56"/>
@@ -37293,7 +37293,7 @@
       </c>
       <c r="AB49" s="261">
         <f t="shared" si="57"/>
-        <v>3.6880512014556759</v>
+        <v>4.2748406982302516</v>
       </c>
       <c r="AC49" s="261">
         <f t="shared" si="58"/>
@@ -37316,7 +37316,7 @@
       </c>
       <c r="AJ49" s="262">
         <f t="shared" si="98"/>
-        <v>3.6880512014556763</v>
+        <v>4.2748406982302525</v>
       </c>
       <c r="AK49" s="263">
         <f t="shared" si="98"/>
@@ -37324,7 +37324,7 @@
       </c>
       <c r="AL49" s="264">
         <f t="shared" si="98"/>
-        <v>3.6880512014556763</v>
+        <v>4.2748406982302525</v>
       </c>
       <c r="AM49" s="263">
         <f t="shared" si="98"/>
@@ -37411,7 +37411,7 @@
       </c>
       <c r="Z50" s="196">
         <f>P50*(1+P$86*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887686</v>
       </c>
       <c r="AA50" s="196">
         <f>Q50*(1+Q$86*'Indata - Effektsamband-Faktorer'!$E$9)</f>
@@ -37419,7 +37419,7 @@
       </c>
       <c r="AB50" s="196">
         <f>R50*(1+R$86*'Indata - Effektsamband-Faktorer'!$D$9)</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887686</v>
       </c>
       <c r="AC50" s="196">
         <f>S50*(1+S$86*'Indata - Effektsamband-Faktorer'!$E$9)</f>
@@ -37442,7 +37442,7 @@
       </c>
       <c r="AJ50" s="196">
         <f t="shared" ref="AJ50" si="105">SUM(AJ46:AJ49)</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="AK50" s="198">
         <f t="shared" ref="AK50" si="106">SUM(AK46:AK49)</f>
@@ -37450,7 +37450,7 @@
       </c>
       <c r="AL50" s="199">
         <f t="shared" ref="AL50" si="107">SUM(AL46:AL49)</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="AM50" s="198">
         <f t="shared" ref="AM50" si="108">SUM(AM46:AM49)</f>
@@ -38150,7 +38150,7 @@
       </c>
       <c r="AJ57" s="258">
         <f t="shared" si="133"/>
-        <v>107.78203712685878</v>
+        <v>107.78203712685877</v>
       </c>
       <c r="AK57" s="258">
         <f>IFERROR(SUMPRODUCT(AK53:AK56,AK36:AK39)/AK40,AVERAGE(AK53:AK56))</f>
@@ -38158,7 +38158,7 @@
       </c>
       <c r="AL57" s="258">
         <f t="shared" si="133"/>
-        <v>107.78203712685878</v>
+        <v>107.78203712685877</v>
       </c>
       <c r="AM57" s="258">
         <f t="shared" si="133"/>
@@ -38780,7 +38780,7 @@
       </c>
       <c r="AJ62" s="258">
         <f t="shared" si="158"/>
-        <v>107.78203712685877</v>
+        <v>107.78203712685878</v>
       </c>
       <c r="AK62" s="258">
         <f t="shared" si="158"/>
@@ -38788,7 +38788,7 @@
       </c>
       <c r="AL62" s="258">
         <f t="shared" si="158"/>
-        <v>107.78203712685877</v>
+        <v>107.78203712685878</v>
       </c>
       <c r="AM62" s="258">
         <f t="shared" si="158"/>
@@ -39379,7 +39379,7 @@
       </c>
       <c r="Z67" s="186">
         <f t="shared" si="182"/>
-        <v>107.78203712685878</v>
+        <v>107.78203712685877</v>
       </c>
       <c r="AA67" s="186">
         <f t="shared" si="182"/>
@@ -39387,7 +39387,7 @@
       </c>
       <c r="AB67" s="186">
         <f t="shared" si="182"/>
-        <v>107.78203712685878</v>
+        <v>107.78203712685877</v>
       </c>
       <c r="AC67" s="186">
         <f t="shared" si="182"/>
@@ -39410,7 +39410,7 @@
       </c>
       <c r="AJ67" s="186">
         <f t="shared" si="183"/>
-        <v>107.7820371268588</v>
+        <v>107.78203712685877</v>
       </c>
       <c r="AK67" s="186">
         <f t="shared" si="183"/>
@@ -39418,7 +39418,7 @@
       </c>
       <c r="AL67" s="186">
         <f t="shared" si="183"/>
-        <v>107.7820371268588</v>
+        <v>107.78203712685877</v>
       </c>
       <c r="AM67" s="186">
         <f t="shared" si="183"/>
@@ -40810,7 +40810,7 @@
       </c>
       <c r="Z80" s="258">
         <f t="shared" ref="Z80" si="235">SUMPRODUCT(Z76:Z79,Z41:Z44)/Z45</f>
-        <v>124.17071493479753</v>
+        <v>124.17071493479752</v>
       </c>
       <c r="AA80" s="259">
         <f t="shared" ref="AA80" si="236">SUMPRODUCT(AA76:AA79,AA41:AA44)/AA45</f>
@@ -40818,7 +40818,7 @@
       </c>
       <c r="AB80" s="260">
         <f t="shared" ref="AB80" si="237">SUMPRODUCT(AB76:AB79,AB41:AB44)/AB45</f>
-        <v>124.17071493479753</v>
+        <v>124.17071493479752</v>
       </c>
       <c r="AC80" s="259">
         <f t="shared" ref="AC80" si="238">SUMPRODUCT(AC76:AC79,AC41:AC44)/AC45</f>
@@ -41672,7 +41672,7 @@
       </c>
       <c r="AJ89" s="233">
         <f>(1-Indata!F$11-Indata!F$12)*'Indata - Effektsamband-Faktorer'!$D$12*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>2.6796072799184878</v>
+        <v>3.1059477295077573</v>
       </c>
       <c r="AK89" s="234">
         <f>IFERROR((1-Indata!G$11-Indata!G$12)*'Indata - Effektsamband-Faktorer'!$E$12*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10,0)</f>
@@ -41680,7 +41680,7 @@
       </c>
       <c r="AL89" s="233">
         <f>(1-Indata!H$11-Indata!H$12)*'Indata - Effektsamband-Faktorer'!$D$12*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>2.6796072799184878</v>
+        <v>3.1059477295077573</v>
       </c>
       <c r="AM89" s="234">
         <f>(1-Indata!I$11-Indata!I$12)*'Indata - Effektsamband-Faktorer'!$E$12*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="AJ91" s="209">
         <f t="shared" si="260"/>
-        <v>2.6796072799184878</v>
+        <v>3.1059477295077573</v>
       </c>
       <c r="AK91" s="210">
         <f>SUM(AK89:AK90)</f>
@@ -41746,7 +41746,7 @@
       </c>
       <c r="AL91" s="209">
         <f t="shared" si="260"/>
-        <v>2.6796072799184878</v>
+        <v>3.1059477295077573</v>
       </c>
       <c r="AM91" s="210">
         <f t="shared" si="260"/>
@@ -41773,7 +41773,7 @@
       </c>
       <c r="AJ92" s="233">
         <f>'Indata - Effektsamband-Faktorer'!$D$16*'Modell - Tunga fordon'!AJ$40</f>
-        <v>2.0410508637418459</v>
+        <v>2.3657934293422564</v>
       </c>
       <c r="AK92" s="234">
         <f>'Indata - Effektsamband-Faktorer'!$E$16*'Modell - Tunga fordon'!AK$40</f>
@@ -41781,7 +41781,7 @@
       </c>
       <c r="AL92" s="233">
         <f>'Indata - Effektsamband-Faktorer'!$D$16*'Modell - Tunga fordon'!AL$40</f>
-        <v>2.0410508637418459</v>
+        <v>2.3657934293422564</v>
       </c>
       <c r="AM92" s="234">
         <f>'Indata - Effektsamband-Faktorer'!$E$16*'Modell - Tunga fordon'!AM$40</f>
@@ -41833,7 +41833,7 @@
       </c>
       <c r="AJ94" s="209">
         <f t="shared" si="261"/>
-        <v>2.0410508637418459</v>
+        <v>2.3657934293422564</v>
       </c>
       <c r="AK94" s="210">
         <f t="shared" si="261"/>
@@ -41841,7 +41841,7 @@
       </c>
       <c r="AL94" s="209">
         <f t="shared" si="261"/>
-        <v>2.0410508637418459</v>
+        <v>2.3657934293422564</v>
       </c>
       <c r="AM94" s="210">
         <f t="shared" si="261"/>
@@ -41868,7 +41868,7 @@
       </c>
       <c r="AJ95" s="233">
         <f>'Indata - Effektsamband-Faktorer'!$D$19*'Modell - Tunga fordon'!AJ$40</f>
-        <v>3.3156607607513405E-2</v>
+        <v>3.8432008633693733E-2</v>
       </c>
       <c r="AK95" s="234">
         <f>'Indata - Effektsamband-Faktorer'!$E$19*'Modell - Tunga fordon'!AK$40</f>
@@ -41876,7 +41876,7 @@
       </c>
       <c r="AL95" s="233">
         <f>'Indata - Effektsamband-Faktorer'!$D$19*'Modell - Tunga fordon'!AL$40</f>
-        <v>3.3156607607513405E-2</v>
+        <v>3.8432008633693733E-2</v>
       </c>
       <c r="AM95" s="234">
         <f>'Indata - Effektsamband-Faktorer'!$E$19*'Modell - Tunga fordon'!AM$40</f>
@@ -41928,7 +41928,7 @@
       </c>
       <c r="AJ97" s="209">
         <f t="shared" si="262"/>
-        <v>3.3156607607513405E-2</v>
+        <v>3.8432008633693733E-2</v>
       </c>
       <c r="AK97" s="210">
         <f t="shared" si="262"/>
@@ -41936,7 +41936,7 @@
       </c>
       <c r="AL97" s="209">
         <f t="shared" si="262"/>
-        <v>3.3156607607513405E-2</v>
+        <v>3.8432008633693733E-2</v>
       </c>
       <c r="AM97" s="210">
         <f t="shared" si="262"/>
@@ -41963,7 +41963,7 @@
       </c>
       <c r="AJ98" s="437">
         <f>'Indata - Effektsamband-Faktorer'!$D$21*'Modell - Tunga fordon'!AJ$50</f>
-        <v>1.2427578676566069</v>
+        <v>1.4404875693177539</v>
       </c>
       <c r="AK98" s="438">
         <f>'Indata - Effektsamband-Faktorer'!$E$21*'Modell - Tunga fordon'!AK$50</f>
@@ -41971,7 +41971,7 @@
       </c>
       <c r="AL98" s="437">
         <f>'Indata - Effektsamband-Faktorer'!$D$21*'Modell - Tunga fordon'!AL$50</f>
-        <v>1.2427578676566069</v>
+        <v>1.4404875693177539</v>
       </c>
       <c r="AM98" s="438">
         <f>'Indata - Effektsamband-Faktorer'!$E$21*'Modell - Tunga fordon'!AM$50</f>
@@ -42011,7 +42011,7 @@
       </c>
       <c r="AJ101" s="233">
         <f>(1-Indata!F$11-Indata!F$12)*'Indata - Effektsamband-Faktorer'!$D23*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>10.338642261102828</v>
+        <v>11.98357785400631</v>
       </c>
       <c r="AK101" s="234">
         <f>IFERROR((1-Indata!G$11-Indata!G$12)*'Indata - Effektsamband-Faktorer'!$E23*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10,0)</f>
@@ -42019,7 +42019,7 @@
       </c>
       <c r="AL101" s="235">
         <f>(1-Indata!H$11-Indata!H$12)*'Indata - Effektsamband-Faktorer'!$D23*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>10.338642261102828</v>
+        <v>11.98357785400631</v>
       </c>
       <c r="AM101" s="234">
         <f>(1-Indata!I$11-Indata!I$12)*'Indata - Effektsamband-Faktorer'!$E23*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
@@ -42044,7 +42044,7 @@
       </c>
       <c r="AJ102" s="236">
         <f>(Indata!F$11*'Indata - Effektsamband-Faktorer'!$D$26+Indata!F$12*'Indata - Effektsamband-Faktorer'!$D$27)*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>4.6571984099046491</v>
+        <v>5.3981846278423671</v>
       </c>
       <c r="AK102" s="237">
         <f>IFERROR((Indata!G$11*'Indata - Effektsamband-Faktorer'!$E$26+Indata!G$12*'Indata - Effektsamband-Faktorer'!$E$27)*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10,0)</f>
@@ -42052,7 +42052,7 @@
       </c>
       <c r="AL102" s="238">
         <f>(Indata!H$11*'Indata - Effektsamband-Faktorer'!$D$26+Indata!H$12*'Indata - Effektsamband-Faktorer'!$D$27)*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>4.6571984099046491</v>
+        <v>5.3981846278423671</v>
       </c>
       <c r="AM102" s="237">
         <f>(Indata!I$11*'Indata - Effektsamband-Faktorer'!$E$26+Indata!I$12*'Indata - Effektsamband-Faktorer'!$E$27)*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
@@ -42077,7 +42077,7 @@
       </c>
       <c r="AJ103" s="239">
         <f t="shared" si="263"/>
-        <v>0.17007633121242888</v>
+        <v>0.19713642321061389</v>
       </c>
       <c r="AK103" s="240">
         <f t="shared" si="263"/>
@@ -42085,7 +42085,7 @@
       </c>
       <c r="AL103" s="241">
         <f t="shared" si="263"/>
-        <v>0.17007633121242888</v>
+        <v>0.19713642321061389</v>
       </c>
       <c r="AM103" s="240">
         <f t="shared" si="263"/>
@@ -42125,7 +42125,7 @@
       </c>
       <c r="AJ106" s="233">
         <f>(1-Indata!F$11-Indata!F$12)*'Modell - Drivmedelpriser'!G$57*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>5.9420667178833861</v>
+        <v>6.8874826431860301</v>
       </c>
       <c r="AK106" s="441">
         <f>IFERROR((1-Indata!G$11-Indata!G$12)*'Modell - Drivmedelpriser'!H$57*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10,0)</f>
@@ -42133,7 +42133,7 @@
       </c>
       <c r="AL106" s="233">
         <f>(1-Indata!H$11-Indata!H$12)*'Modell - Drivmedelpriser'!I$57*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>5.9420667178833861</v>
+        <v>6.8874826431860301</v>
       </c>
       <c r="AM106" s="234">
         <f>(1-Indata!I$11-Indata!I$12)*'Modell - Drivmedelpriser'!J$57*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
@@ -42158,7 +42158,7 @@
       </c>
       <c r="AJ107" s="236">
         <f>(Indata!F$11+Indata!F$12)*'Modell - Drivmedelpriser'!G$57*'Modell - Tunga fordon'!AJ$15*'Modell - Tunga fordon'!AJ$40/10</f>
-        <v>2.7962666907686518</v>
+        <v>3.2411683026757787</v>
       </c>
       <c r="AK107" s="442">
         <f>IFERROR((Indata!G$11+Indata!G$12)*'Modell - Drivmedelpriser'!H$57*'Modell - Tunga fordon'!AK$15*'Modell - Tunga fordon'!AK$40/10,0)</f>
@@ -42166,7 +42166,7 @@
       </c>
       <c r="AL107" s="236">
         <f>(Indata!H$11+Indata!H$12)*'Modell - Drivmedelpriser'!I$57*'Modell - Tunga fordon'!AL$15*'Modell - Tunga fordon'!AL$40/10</f>
-        <v>2.7962666907686518</v>
+        <v>3.2411683026757787</v>
       </c>
       <c r="AM107" s="237">
         <f>(Indata!I$11+Indata!I$12)*'Modell - Drivmedelpriser'!J$57*'Modell - Tunga fordon'!AM$15*'Modell - Tunga fordon'!AM$40/10</f>
@@ -42191,7 +42191,7 @@
       </c>
       <c r="AJ108" s="236">
         <f>'Modell - Drivmedelpriser'!G83*'Modell - Tunga fordon'!AJ$20*'Modell - Tunga fordon'!AJ$45/10</f>
-        <v>5.7247693086103557E-2</v>
+        <v>6.6356120052692619E-2</v>
       </c>
       <c r="AK108" s="442">
         <f>'Modell - Drivmedelpriser'!H83*'Modell - Tunga fordon'!AK$20*'Modell - Tunga fordon'!AK$45/10</f>
@@ -42199,7 +42199,7 @@
       </c>
       <c r="AL108" s="236">
         <f>'Modell - Drivmedelpriser'!I83*'Modell - Tunga fordon'!AL$20*'Modell - Tunga fordon'!AL$45/10</f>
-        <v>5.7247693086103557E-2</v>
+        <v>6.6356120052692619E-2</v>
       </c>
       <c r="AM108" s="237">
         <f>'Modell - Drivmedelpriser'!J83*'Modell - Tunga fordon'!AM$20*'Modell - Tunga fordon'!AM$45/10</f>
@@ -42224,7 +42224,7 @@
       </c>
       <c r="AJ109" s="209">
         <f t="shared" si="264"/>
-        <v>8.7955811017381418</v>
+        <v>10.195007065914501</v>
       </c>
       <c r="AK109" s="443">
         <f t="shared" si="264"/>
@@ -42232,7 +42232,7 @@
       </c>
       <c r="AL109" s="209">
         <f t="shared" si="264"/>
-        <v>8.7955811017381418</v>
+        <v>10.195007065914501</v>
       </c>
       <c r="AM109" s="210">
         <f t="shared" si="264"/>
@@ -42936,7 +42936,7 @@
       </c>
       <c r="F15" s="449">
         <f>'Modell - Tunga fordon'!AJ15</f>
-        <v>2.54768610464988</v>
+        <v>2.5476861046498795</v>
       </c>
       <c r="G15" s="451">
         <f>'Modell - Tunga fordon'!AK15</f>
@@ -42944,7 +42944,7 @@
       </c>
       <c r="H15" s="452">
         <f>'Modell - Tunga fordon'!AL15</f>
-        <v>2.54768610464988</v>
+        <v>2.5476861046498795</v>
       </c>
       <c r="I15" s="451">
         <f>'Modell - Tunga fordon'!AM15</f>
@@ -43474,7 +43474,7 @@
       </c>
       <c r="F31" s="533">
         <f>'Modell - Tunga fordon'!AJ40</f>
-        <v>6.0895135515173733</v>
+        <v>7.0583890896569939</v>
       </c>
       <c r="G31" s="535">
         <f>'Modell - Tunga fordon'!AK40</f>
@@ -43482,7 +43482,7 @@
       </c>
       <c r="H31" s="536">
         <f>'Modell - Tunga fordon'!AL40</f>
-        <v>6.0895135515173733</v>
+        <v>7.0583890896569939</v>
       </c>
       <c r="I31" s="535">
         <f>'Modell - Tunga fordon'!AM40</f>
@@ -43507,7 +43507,7 @@
       </c>
       <c r="F32" s="541">
         <f>'Modell - Tunga fordon'!AJ45</f>
-        <v>0.12427578676566069</v>
+        <v>0.14404875693177538</v>
       </c>
       <c r="G32" s="543">
         <f>'Modell - Tunga fordon'!AK45</f>
@@ -43515,7 +43515,7 @@
       </c>
       <c r="H32" s="544">
         <f>'Modell - Tunga fordon'!AL45</f>
-        <v>0.12427578676566069</v>
+        <v>0.14404875693177538</v>
       </c>
       <c r="I32" s="543">
         <f>'Modell - Tunga fordon'!AM45</f>
@@ -43540,7 +43540,7 @@
       </c>
       <c r="F33" s="532">
         <f>'Modell - Tunga fordon'!AJ50</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="G33" s="539">
         <f>'Modell - Tunga fordon'!AK50</f>
@@ -43548,7 +43548,7 @@
       </c>
       <c r="H33" s="540">
         <f>'Modell - Tunga fordon'!AL50</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="I33" s="539">
         <f>'Modell - Tunga fordon'!AM50</f>
@@ -43573,7 +43573,7 @@
       </c>
       <c r="F34" s="545">
         <f t="shared" si="0"/>
-        <v>95.112344286939702</v>
+        <v>96.100992795245432</v>
       </c>
       <c r="G34" s="547">
         <f>G30+G33</f>
@@ -43581,7 +43581,7 @@
       </c>
       <c r="H34" s="548">
         <f t="shared" si="0"/>
-        <v>95.112344286939702</v>
+        <v>96.100992795245432</v>
       </c>
       <c r="I34" s="547">
         <f t="shared" si="0"/>
@@ -43641,7 +43641,7 @@
       </c>
       <c r="F36" s="95">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="G36" s="96">
         <f>G32/G33</f>
@@ -43649,7 +43649,7 @@
       </c>
       <c r="H36" s="97">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="I36" s="96">
         <f t="shared" si="2"/>
@@ -43709,7 +43709,7 @@
       </c>
       <c r="F38" s="474">
         <f>'Modell - Tunga fordon'!AJ91</f>
-        <v>2.6796072799184878</v>
+        <v>3.1059477295077573</v>
       </c>
       <c r="G38" s="475">
         <f>'Modell - Tunga fordon'!AK91</f>
@@ -43717,7 +43717,7 @@
       </c>
       <c r="H38" s="474">
         <f>'Modell - Tunga fordon'!AL91</f>
-        <v>2.6796072799184878</v>
+        <v>3.1059477295077573</v>
       </c>
       <c r="I38" s="475">
         <f>'Modell - Tunga fordon'!AM91</f>
@@ -43769,7 +43769,7 @@
       </c>
       <c r="F40" s="476">
         <f t="shared" si="3"/>
-        <v>11.301315449405333</v>
+        <v>11.727655898994604</v>
       </c>
       <c r="G40" s="477">
         <f>SUM(G37:G39)</f>
@@ -43777,7 +43777,7 @@
       </c>
       <c r="H40" s="476">
         <f t="shared" si="3"/>
-        <v>11.301315449405333</v>
+        <v>11.727655898994604</v>
       </c>
       <c r="I40" s="477">
         <f t="shared" si="3"/>
@@ -43802,7 +43802,7 @@
       </c>
       <c r="F41" s="490">
         <f>F40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.40192022388837145</v>
+        <v>-0.37935775301679708</v>
       </c>
       <c r="G41" s="491">
         <f>G40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
@@ -43810,7 +43810,7 @@
       </c>
       <c r="H41" s="490">
         <f>H40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
-        <v>-0.40192022388837145</v>
+        <v>-0.37935775301679708</v>
       </c>
       <c r="I41" s="491">
         <f>I40/SUM('Indata - Utsläpp'!$B$15:$B$17)-1</f>
@@ -43870,7 +43870,7 @@
       </c>
       <c r="F43" s="474">
         <f>'Modell - Tunga fordon'!AJ94</f>
-        <v>2.0410508637418459</v>
+        <v>2.3657934293422564</v>
       </c>
       <c r="G43" s="475">
         <f>'Modell - Tunga fordon'!AK94</f>
@@ -43878,7 +43878,7 @@
       </c>
       <c r="H43" s="474">
         <f>'Modell - Tunga fordon'!AL94</f>
-        <v>2.0410508637418459</v>
+        <v>2.3657934293422564</v>
       </c>
       <c r="I43" s="475">
         <f>'Modell - Tunga fordon'!AM94</f>
@@ -43903,7 +43903,7 @@
       </c>
       <c r="F44" s="476">
         <f t="shared" si="4"/>
-        <v>9.967195710585889</v>
+        <v>10.291938276186301</v>
       </c>
       <c r="G44" s="477">
         <f t="shared" si="4"/>
@@ -43911,7 +43911,7 @@
       </c>
       <c r="H44" s="476">
         <f t="shared" si="4"/>
-        <v>9.967195710585889</v>
+        <v>10.291938276186301</v>
       </c>
       <c r="I44" s="477">
         <f t="shared" si="4"/>
@@ -43936,7 +43936,7 @@
       </c>
       <c r="F45" s="490">
         <f>F44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.83347680782652178</v>
+        <v>-0.82805129294464264</v>
       </c>
       <c r="G45" s="491">
         <f>G44/'Indata - Utsläpp'!$B$26-1</f>
@@ -43944,7 +43944,7 @@
       </c>
       <c r="H45" s="490">
         <f>H44/'Indata - Utsläpp'!$B$26-1</f>
-        <v>-0.83347680782652178</v>
+        <v>-0.82805129294464264</v>
       </c>
       <c r="I45" s="491">
         <f>I44/'Indata - Utsläpp'!$B$26-1</f>
@@ -44004,7 +44004,7 @@
       </c>
       <c r="F47" s="474">
         <f>'Modell - Tunga fordon'!AJ97</f>
-        <v>3.3156607607513405E-2</v>
+        <v>3.8432008633693733E-2</v>
       </c>
       <c r="G47" s="475">
         <f>'Modell - Tunga fordon'!AK97</f>
@@ -44012,7 +44012,7 @@
       </c>
       <c r="H47" s="474">
         <f>'Modell - Tunga fordon'!AL97</f>
-        <v>3.3156607607513405E-2</v>
+        <v>3.8432008633693733E-2</v>
       </c>
       <c r="I47" s="475">
         <f>'Modell - Tunga fordon'!AM97</f>
@@ -44037,7 +44037,7 @@
       </c>
       <c r="F48" s="476">
         <f t="shared" si="5"/>
-        <v>0.16279143211652328</v>
+        <v>0.1680668331427036</v>
       </c>
       <c r="G48" s="477">
         <f t="shared" si="5"/>
@@ -44045,7 +44045,7 @@
       </c>
       <c r="H48" s="476">
         <f t="shared" si="5"/>
-        <v>0.16279143211652328</v>
+        <v>0.1680668331427036</v>
       </c>
       <c r="I48" s="477">
         <f t="shared" si="5"/>
@@ -44068,7 +44068,7 @@
       </c>
       <c r="F49" s="490">
         <f>F48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.88332036115501489</v>
+        <v>-0.87953925376813102</v>
       </c>
       <c r="G49" s="491">
         <f>G48/'Indata - Utsläpp'!$B$24-1</f>
@@ -44076,7 +44076,7 @@
       </c>
       <c r="H49" s="490">
         <f>H48/'Indata - Utsläpp'!$B$24-1</f>
-        <v>-0.88332036115501489</v>
+        <v>-0.87953925376813102</v>
       </c>
       <c r="I49" s="491">
         <f>I48/'Indata - Utsläpp'!$B$24-1</f>
@@ -44136,7 +44136,7 @@
       </c>
       <c r="F51" s="474">
         <f>'Modell - Tunga fordon'!AJ98</f>
-        <v>1.2427578676566069</v>
+        <v>1.4404875693177539</v>
       </c>
       <c r="G51" s="475">
         <f>'Modell - Tunga fordon'!AK98</f>
@@ -44144,7 +44144,7 @@
       </c>
       <c r="H51" s="474">
         <f>'Modell - Tunga fordon'!AL98</f>
-        <v>1.2427578676566069</v>
+        <v>1.4404875693177539</v>
       </c>
       <c r="I51" s="475">
         <f>'Modell - Tunga fordon'!AM98</f>
@@ -44169,7 +44169,7 @@
       </c>
       <c r="F52" s="476">
         <f t="shared" si="6"/>
-        <v>19.022468857387942</v>
+        <v>19.220198559049088</v>
       </c>
       <c r="G52" s="477">
         <f t="shared" si="6"/>
@@ -44177,7 +44177,7 @@
       </c>
       <c r="H52" s="476">
         <f>SUM(H50:H51)</f>
-        <v>19.022468857387942</v>
+        <v>19.220198559049088</v>
       </c>
       <c r="I52" s="477">
         <f t="shared" si="6"/>
@@ -44200,7 +44200,7 @@
       </c>
       <c r="F53" s="493">
         <f>F52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>0.36285581233345821</v>
+        <v>0.37702206358087165</v>
       </c>
       <c r="G53" s="494">
         <f>G52/'Indata - Utsläpp'!$B$25-1</f>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="H53" s="493">
         <f>H52/'Indata - Utsläpp'!$B$25-1</f>
-        <v>0.36285581233345821</v>
+        <v>0.37702206358087165</v>
       </c>
       <c r="I53" s="494">
         <f>I52/'Indata - Utsläpp'!$B$25-1</f>
@@ -44334,7 +44334,7 @@
       </c>
       <c r="F57" s="474">
         <f>'Modell - Tunga fordon'!AJ101</f>
-        <v>10.338642261102828</v>
+        <v>11.98357785400631</v>
       </c>
       <c r="G57" s="475">
         <f>'Modell - Tunga fordon'!AK101</f>
@@ -44342,7 +44342,7 @@
       </c>
       <c r="H57" s="474">
         <f>'Modell - Tunga fordon'!AL101</f>
-        <v>10.338642261102828</v>
+        <v>11.98357785400631</v>
       </c>
       <c r="I57" s="475">
         <f>'Modell - Tunga fordon'!AM101</f>
@@ -44371,7 +44371,7 @@
       </c>
       <c r="F58" s="474">
         <f>'Modell - Tunga fordon'!AJ102+Indata!F67</f>
-        <v>7.6971984099046491</v>
+        <v>8.438184627842368</v>
       </c>
       <c r="G58" s="475">
         <f>'Modell - Tunga fordon'!AK102+Indata!G67</f>
@@ -44379,7 +44379,7 @@
       </c>
       <c r="H58" s="474">
         <f>'Modell - Tunga fordon'!AL102+Indata!H67</f>
-        <v>7.6971984099046491</v>
+        <v>8.438184627842368</v>
       </c>
       <c r="I58" s="475">
         <f>'Modell - Tunga fordon'!AM102+Indata!I67</f>
@@ -44404,7 +44404,7 @@
       </c>
       <c r="F59" s="474">
         <f>'Modell - Tunga fordon'!AJ103+Indata!F68</f>
-        <v>0.43007633121242889</v>
+        <v>0.45713642321061387</v>
       </c>
       <c r="G59" s="475">
         <f>'Modell - Tunga fordon'!AK103+Indata!G68</f>
@@ -44412,7 +44412,7 @@
       </c>
       <c r="H59" s="474">
         <f>'Modell - Tunga fordon'!AL103+Indata!H68</f>
-        <v>0.43007633121242889</v>
+        <v>0.45713642321061387</v>
       </c>
       <c r="I59" s="475">
         <f>'Modell - Tunga fordon'!AM103+Indata!I68</f>
@@ -44437,7 +44437,7 @@
       </c>
       <c r="F60" s="476">
         <f t="shared" si="7"/>
-        <v>43.592586579399914</v>
+        <v>45.2375221723034</v>
       </c>
       <c r="G60" s="477">
         <f>G54+G57</f>
@@ -44445,7 +44445,7 @@
       </c>
       <c r="H60" s="476">
         <f t="shared" si="7"/>
-        <v>43.592586579399914</v>
+        <v>45.2375221723034</v>
       </c>
       <c r="I60" s="477">
         <f t="shared" si="7"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="F61" s="476">
         <f>F55+F58</f>
-        <v>15.500842116001753</v>
+        <v>16.24182833393947</v>
       </c>
       <c r="G61" s="477">
         <f>G55+G58</f>
@@ -44482,7 +44482,7 @@
       </c>
       <c r="H61" s="476">
         <f t="shared" si="8"/>
-        <v>15.500842116001753</v>
+        <v>16.24182833393947</v>
       </c>
       <c r="I61" s="477">
         <f t="shared" si="8"/>
@@ -44507,7 +44507,7 @@
       </c>
       <c r="F62" s="476">
         <f>F56+F59</f>
-        <v>3.014357323569878</v>
+        <v>3.0414174155680631</v>
       </c>
       <c r="G62" s="477">
         <f>G56+G59</f>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="H62" s="476">
         <f>H56+H59</f>
-        <v>3.014357323569878</v>
+        <v>3.0414174155680631</v>
       </c>
       <c r="I62" s="477">
         <f>I56+I59</f>
@@ -44540,7 +44540,7 @@
       </c>
       <c r="F63" s="478">
         <f t="shared" si="9"/>
-        <v>62.107786018971545</v>
+        <v>64.520767921810929</v>
       </c>
       <c r="G63" s="479">
         <f t="shared" si="9"/>
@@ -44548,7 +44548,7 @@
       </c>
       <c r="H63" s="478">
         <f t="shared" si="9"/>
-        <v>62.107786018971545</v>
+        <v>64.520767921810929</v>
       </c>
       <c r="I63" s="479">
         <f t="shared" si="9"/>
@@ -44674,7 +44674,7 @@
       </c>
       <c r="F67" s="449">
         <f>'Modell - Tunga fordon'!AJ106</f>
-        <v>5.9420667178833861</v>
+        <v>6.8874826431860301</v>
       </c>
       <c r="G67" s="451">
         <f>'Modell - Tunga fordon'!AK106</f>
@@ -44682,7 +44682,7 @@
       </c>
       <c r="H67" s="452">
         <f>'Modell - Tunga fordon'!AL106</f>
-        <v>5.9420667178833861</v>
+        <v>6.8874826431860301</v>
       </c>
       <c r="I67" s="451">
         <f>'Modell - Tunga fordon'!AM106</f>
@@ -44707,7 +44707,7 @@
       </c>
       <c r="F68" s="449">
         <f>'Modell - Tunga fordon'!AJ107</f>
-        <v>2.7962666907686518</v>
+        <v>3.2411683026757787</v>
       </c>
       <c r="G68" s="451">
         <f>'Modell - Tunga fordon'!AK107</f>
@@ -44715,7 +44715,7 @@
       </c>
       <c r="H68" s="452">
         <f>'Modell - Tunga fordon'!AL107</f>
-        <v>2.7962666907686518</v>
+        <v>3.2411683026757787</v>
       </c>
       <c r="I68" s="451">
         <f>'Modell - Tunga fordon'!AM107</f>
@@ -44740,7 +44740,7 @@
       </c>
       <c r="F69" s="449">
         <f>'Modell - Tunga fordon'!AJ108</f>
-        <v>5.7247693086103557E-2</v>
+        <v>6.6356120052692619E-2</v>
       </c>
       <c r="G69" s="451">
         <f>'Modell - Tunga fordon'!AK108</f>
@@ -44748,7 +44748,7 @@
       </c>
       <c r="H69" s="452">
         <f>'Modell - Tunga fordon'!AL108</f>
-        <v>5.7247693086103557E-2</v>
+        <v>6.6356120052692619E-2</v>
       </c>
       <c r="I69" s="451">
         <f>'Modell - Tunga fordon'!AM108</f>
@@ -44773,7 +44773,7 @@
       </c>
       <c r="F70" s="461">
         <f t="shared" si="10"/>
-        <v>30.455155618229504</v>
+        <v>31.400571543532148</v>
       </c>
       <c r="G70" s="463">
         <f t="shared" si="10"/>
@@ -44781,7 +44781,7 @@
       </c>
       <c r="H70" s="464">
         <f t="shared" si="10"/>
-        <v>30.455155618229504</v>
+        <v>31.400571543532148</v>
       </c>
       <c r="I70" s="463">
         <f t="shared" si="10"/>
@@ -44806,7 +44806,7 @@
       </c>
       <c r="F71" s="461">
         <f t="shared" si="11"/>
-        <v>8.1944175011453382</v>
+        <v>8.6393191130524656</v>
       </c>
       <c r="G71" s="463">
         <f t="shared" si="11"/>
@@ -44814,7 +44814,7 @@
       </c>
       <c r="H71" s="464">
         <f t="shared" si="11"/>
-        <v>8.1944175011453382</v>
+        <v>8.6393191130524656</v>
       </c>
       <c r="I71" s="463">
         <f t="shared" si="11"/>
@@ -44839,7 +44839,7 @@
       </c>
       <c r="F72" s="482">
         <f>F66+F69</f>
-        <v>0.92711667511362095</v>
+        <v>0.93622510208021004</v>
       </c>
       <c r="G72" s="484">
         <f t="shared" si="12"/>
@@ -44847,7 +44847,7 @@
       </c>
       <c r="H72" s="485">
         <f t="shared" si="12"/>
-        <v>0.92711667511362095</v>
+        <v>0.93622510208021004</v>
       </c>
       <c r="I72" s="484">
         <f t="shared" si="12"/>
@@ -45008,7 +45008,7 @@
       </c>
       <c r="F77" s="449">
         <f t="shared" si="15"/>
-        <v>8.7955811017381418</v>
+        <v>10.195007065914501</v>
       </c>
       <c r="G77" s="451">
         <f t="shared" si="15"/>
@@ -45016,7 +45016,7 @@
       </c>
       <c r="H77" s="452">
         <f t="shared" si="15"/>
-        <v>8.7955811017381418</v>
+        <v>10.195007065914501</v>
       </c>
       <c r="I77" s="451">
         <f t="shared" si="15"/>
@@ -45041,7 +45041,7 @@
       </c>
       <c r="F78" s="555">
         <f t="shared" ref="F78" si="17">SUM(F76:F77)</f>
-        <v>39.576689794488466</v>
+        <v>40.976115758664825</v>
       </c>
       <c r="G78" s="557">
         <f t="shared" ref="G78" si="18">SUM(G76:G77)</f>
@@ -45049,7 +45049,7 @@
       </c>
       <c r="H78" s="558">
         <f t="shared" ref="H78" si="19">SUM(H76:H77)</f>
-        <v>39.576689794488466</v>
+        <v>40.976115758664825</v>
       </c>
       <c r="I78" s="557">
         <f t="shared" ref="I78" si="20">SUM(I76:I77)</f>
@@ -45320,7 +45320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -45548,7 +45548,7 @@
       </c>
       <c r="G10" s="552">
         <f>Resultat!F33</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="H10" s="552">
         <f>Resultat!G33</f>
@@ -45556,7 +45556,7 @@
       </c>
       <c r="I10" s="552">
         <f>Resultat!H33</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="J10" s="552">
         <f>Resultat!I33</f>
@@ -45722,7 +45722,7 @@
       </c>
       <c r="G20" s="553">
         <f>I10*(1+I12)</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="H20" s="553">
         <f>J10*(1+J12)</f>
@@ -45730,7 +45730,7 @@
       </c>
       <c r="I20" s="553">
         <f>I10*(1+I12)</f>
-        <v>6.2137893382830338</v>
+        <v>7.2024378465887695</v>
       </c>
       <c r="J20" s="553">
         <f>F10*(1+J12)</f>
